--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canut\Desktop\camb x3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB622B-B571-4160-893A-733DF20E4D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE867A6-899F-4422-819F-135F78407D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>

--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canut\Desktop\camb x3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Python-developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE867A6-899F-4422-819F-135F78407D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2E588-2102-4B5D-8D20-0CCA23AEDB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,21 +404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE7F70-79B8-4603-BB09-D0163447E869}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L55"/>
+    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -449,8 +450,17 @@
       <c r="L1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="2">
+        <v>45402.394444444442</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>20.8</v>
       </c>
@@ -463,8 +473,11 @@
       <c r="L2">
         <v>9.32</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>7.31</v>
       </c>
@@ -477,8 +490,11 @@
       <c r="L3">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>7.3380000000000001</v>
       </c>
@@ -494,8 +510,11 @@
       <c r="L4">
         <v>16.28</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7.56</v>
       </c>
@@ -508,8 +527,11 @@
       <c r="L5">
         <v>48.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14.8</v>
       </c>
@@ -526,8 +548,15 @@
       <c r="L6">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>25.8</v>
       </c>
@@ -540,8 +569,11 @@
       <c r="L7">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -557,8 +589,11 @@
       <c r="L8">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>42.5</v>
       </c>
@@ -571,8 +606,11 @@
       <c r="L9">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>25.9</v>
       </c>
@@ -585,8 +623,11 @@
       <c r="L10">
         <v>103.51</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>23.47</v>
       </c>
@@ -605,8 +646,11 @@
       <c r="L11">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>35.35</v>
       </c>
@@ -620,8 +664,12 @@
       <c r="L12">
         <v>87.92</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+      <c r="O12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>35.82</v>
       </c>
@@ -634,8 +682,11 @@
       <c r="L13">
         <v>65.88</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>0</v>
       </c>
@@ -651,8 +702,14 @@
       <c r="L14">
         <v>43.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>30.38</v>
       </c>
@@ -665,8 +722,11 @@
       <c r="L15">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>41.18</v>
       </c>
@@ -679,8 +739,11 @@
       <c r="L16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>25.8</v>
       </c>
@@ -696,8 +759,11 @@
       <c r="L17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>28.86</v>
       </c>
@@ -713,8 +779,11 @@
       <c r="L18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>38.799999999999997</v>
       </c>
@@ -727,8 +796,11 @@
       <c r="L19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>31.21</v>
       </c>
@@ -741,8 +813,11 @@
       <c r="L20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3.78</v>
       </c>
@@ -758,8 +833,11 @@
       <c r="L21">
         <v>37.35</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18.2</v>
       </c>
@@ -775,8 +853,11 @@
       <c r="L22">
         <v>70.19</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>12.85</v>
       </c>
@@ -789,8 +870,14 @@
       <c r="L23">
         <v>104.87</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>51</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>27.55</v>
       </c>
@@ -806,8 +893,11 @@
       <c r="L24">
         <v>110.56</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -820,8 +910,14 @@
       <c r="L25">
         <v>112.69</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>97</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>14.4</v>
       </c>
@@ -834,8 +930,11 @@
       <c r="L26">
         <v>112.6</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>18.47</v>
       </c>
@@ -854,8 +953,14 @@
       <c r="L27">
         <v>88.32</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>94</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>14.96</v>
       </c>
@@ -868,8 +973,11 @@
       <c r="L28">
         <v>95.29</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>30.42</v>
       </c>
@@ -882,8 +990,11 @@
       <c r="L29">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>20.48</v>
       </c>
@@ -896,8 +1007,11 @@
       <c r="L30">
         <v>66.155000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>4.25</v>
       </c>
@@ -916,8 +1030,11 @@
       <c r="L31">
         <v>34.35</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>5.29</v>
       </c>
@@ -930,8 +1047,11 @@
       <c r="L32">
         <v>72.72</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10.27</v>
       </c>
@@ -944,8 +1064,11 @@
       <c r="L33">
         <v>96.325500000000005</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>13.45</v>
       </c>
@@ -958,8 +1081,14 @@
       <c r="L34">
         <v>119.91</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>104</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>22.25</v>
       </c>
@@ -978,8 +1107,11 @@
       <c r="L35">
         <v>125.93</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>23.45</v>
       </c>
@@ -992,8 +1124,11 @@
       <c r="L36">
         <v>116.95</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>21.49</v>
       </c>
@@ -1006,8 +1141,11 @@
       <c r="L37">
         <v>110.53</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -1023,8 +1161,11 @@
       <c r="L38">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>9.48</v>
       </c>
@@ -1037,8 +1178,11 @@
       <c r="L39">
         <v>102.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>10.45</v>
       </c>
@@ -1051,8 +1195,11 @@
       <c r="L40">
         <v>89.31</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>3.74</v>
       </c>
@@ -1071,8 +1218,11 @@
       <c r="L41">
         <v>96.93</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2.66</v>
       </c>
@@ -1085,8 +1235,11 @@
       <c r="L42">
         <v>70.84</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -1105,8 +1258,14 @@
       <c r="L43">
         <v>72.94</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>85</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>16.8</v>
       </c>
@@ -1116,8 +1275,11 @@
       <c r="L44">
         <v>78.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>21</v>
       </c>
@@ -1133,8 +1295,11 @@
       <c r="L45">
         <v>66.349999999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>21.92</v>
       </c>
@@ -1147,16 +1312,25 @@
       <c r="L46">
         <v>75.650000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>92</v>
+      </c>
+      <c r="P46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>23.51</v>
       </c>
       <c r="L47">
         <v>76.38</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>7.8</v>
       </c>
@@ -1166,16 +1340,22 @@
       <c r="L48">
         <v>68.650000000000006</v>
       </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>3.13</v>
       </c>
       <c r="L49">
         <v>38.65</v>
       </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>7.96</v>
       </c>
@@ -1185,40 +1365,61 @@
       <c r="L50">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>84</v>
+      </c>
+      <c r="P50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>14.8</v>
       </c>
       <c r="L51">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>22.21</v>
       </c>
       <c r="L52">
         <v>30.852</v>
       </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>18.45</v>
       </c>
       <c r="L53">
         <v>17.667999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>11.63</v>
       </c>
       <c r="L54">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>98</v>
+      </c>
+      <c r="P54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>8.86</v>
       </c>
@@ -1231,26 +1432,39 @@
       <c r="L55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N55" s="2"/>
+      <c r="O55">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>3.48</v>
       </c>
       <c r="L57">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D59" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -1260,10 +1474,215 @@
       <c r="F59">
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O60">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>21</v>
+      </c>
+      <c r="O61">
+        <v>48</v>
+      </c>
+      <c r="P61">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O63">
+        <v>23</v>
+      </c>
+      <c r="P63">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="O64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O65">
+        <v>28</v>
+      </c>
+      <c r="P65">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O67">
+        <v>26</v>
+      </c>
+      <c r="P67">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O69">
+        <v>15</v>
+      </c>
+      <c r="P69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O72">
+        <v>64</v>
+      </c>
+      <c r="P72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O73">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O74">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O75">
+        <v>76</v>
+      </c>
+      <c r="P75">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O78">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O79">
+        <v>65</v>
+      </c>
+      <c r="P79">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="O80">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O81">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O83">
+        <v>21</v>
+      </c>
+      <c r="P83">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O84">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O86">
+        <v>17</v>
+      </c>
+      <c r="P86">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O89">
+        <v>15</v>
+      </c>
+      <c r="P89">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="O91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="N92" s="2">
+        <v>45404.436111111114</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1275,16 +1694,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FFE21-32A3-48D3-A200-B8DF12067F87}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D150" activeCellId="1" sqref="C104:C149 D150:E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -1309,27 +1728,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>20.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>7.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>14.8</v>
       </c>
@@ -1337,27 +1756,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>25.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>42.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>25.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>23.47</v>
       </c>
@@ -1365,32 +1784,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>35.35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>35.82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>30.38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>41.18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>25.8</v>
       </c>
@@ -1398,27 +1817,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>28.86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>31.21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3.78</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>18.2</v>
       </c>
@@ -1426,27 +1845,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>12.85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>27.55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>18.47</v>
       </c>
@@ -1454,22 +1873,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>14.96</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>30.42</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>20.48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>4.25</v>
       </c>
@@ -1477,22 +1896,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5.29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>10.27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>22.25</v>
       </c>
@@ -1500,17 +1919,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>23.45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>21.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>7</v>
       </c>
@@ -1518,17 +1937,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9.48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>10.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>3.74</v>
       </c>
@@ -1536,12 +1955,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2.66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -1552,7 +1971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45387.782638888886</v>
       </c>
@@ -1566,19 +1985,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46">
         <v>6.98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48">
         <v>10.48</v>
@@ -1587,25 +2006,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49">
         <v>17.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50">
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51">
         <v>12.82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52">
         <v>20.95</v>
@@ -1614,19 +2033,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54">
         <v>4.93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55">
         <v>8.7799999999999994</v>
@@ -1635,19 +2054,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56">
         <v>17.88</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57">
         <v>23.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58">
         <v>14.29</v>
@@ -1656,25 +2075,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59">
         <v>23.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61">
         <v>21.67</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62">
         <v>6</v>
@@ -1683,19 +2102,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63">
         <v>7.42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65">
         <v>32.36</v>
@@ -1704,19 +2123,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66">
         <v>10.33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67">
         <v>1.66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68">
         <v>20.16</v>
@@ -1725,19 +2144,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69">
         <v>37.65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70">
         <v>32.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71">
         <v>31.28</v>
@@ -1746,25 +2165,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72">
         <v>28.66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73">
         <v>26.14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74">
         <v>27.18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75">
         <v>19</v>
@@ -1773,25 +2192,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77">
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78">
         <v>13.35</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79">
         <v>0</v>
@@ -1800,37 +2219,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81">
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82">
         <v>25.63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83">
         <v>14.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84">
         <v>5.3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85">
         <v>3</v>
@@ -1839,25 +2258,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86">
         <v>5.58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87">
         <v>5.95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88">
         <v>16.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89">
         <v>18.8</v>
@@ -1866,31 +2285,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90">
         <v>21.92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91">
         <v>23.51</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92">
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93">
         <v>3.13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94">
         <v>7.96</v>
@@ -1899,31 +2318,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95">
         <v>14.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96">
         <v>22.21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97">
         <v>18.45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98">
         <v>11.63</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99">
         <v>8.86</v>
@@ -1932,25 +2351,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100">
         <v>5.48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101">
         <v>3.48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102">
         <v>1.66</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -1961,7 +2380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45388.387499999997</v>
       </c>
@@ -1975,27 +2394,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>2.92</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>20.41</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>27.29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>24.39</v>
       </c>
@@ -2003,12 +2422,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>32.22</v>
       </c>
@@ -2016,12 +2435,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>40.32</v>
       </c>
@@ -2029,12 +2448,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>88.45</v>
       </c>
@@ -2042,12 +2461,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>91.08</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>100.75</v>
       </c>
@@ -2055,17 +2474,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>101.53</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>82.8</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>102.91</v>
       </c>
@@ -2073,17 +2492,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>104.68</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>106.42</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>108.22</v>
       </c>
@@ -2091,12 +2510,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>93.76</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>108.48</v>
       </c>
@@ -2104,12 +2523,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>69.3</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>112.01</v>
       </c>
@@ -2117,12 +2536,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>95.2</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>48.35</v>
       </c>
@@ -2130,12 +2549,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>6.19</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>0</v>
       </c>
@@ -2143,17 +2562,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3.06</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>31.65</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>23.53</v>
       </c>
@@ -2161,17 +2580,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>15.77</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>22.39</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>54.23</v>
       </c>
@@ -2179,17 +2598,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>93.95</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>78.319999999999993</v>
       </c>
@@ -2197,17 +2616,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>77.47</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>50.91</v>
       </c>
@@ -2215,17 +2634,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>24.35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>20</v>
       </c>
@@ -2233,17 +2652,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45388.418055555558</v>
       </c>
@@ -2254,7 +2673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45388.427083333336</v>
       </c>
@@ -2268,17 +2687,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>9.32</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>9.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>16.28</v>
       </c>
@@ -2286,17 +2705,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>48.78</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>81</v>
       </c>
@@ -2304,17 +2723,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>103.51</v>
       </c>
@@ -2322,17 +2741,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>92.5</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>87.92</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>65.88</v>
       </c>
@@ -2340,17 +2759,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>43.84</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>35.4</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>32</v>
       </c>
@@ -2358,17 +2777,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>35</v>
       </c>
@@ -2376,12 +2795,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>37.35</v>
       </c>
@@ -2389,12 +2808,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>70.19</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>104.87</v>
       </c>
@@ -2402,12 +2821,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>110.56</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>112.69</v>
       </c>
@@ -2415,12 +2834,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>112.6</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>88.32</v>
       </c>
@@ -2428,17 +2847,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>95.29</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>66.155000000000001</v>
       </c>
@@ -2446,17 +2865,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>34.35</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>72.72</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>96.325500000000005</v>
       </c>
@@ -2464,12 +2883,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>119.91</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>125.93</v>
       </c>
@@ -2477,12 +2896,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>116.95</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>110.53</v>
       </c>
@@ -2490,17 +2909,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>104.7</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>102.6</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>89.31</v>
       </c>
@@ -2508,22 +2927,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>96.93</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>70.84</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>72.94</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>78.2</v>
       </c>
@@ -2531,22 +2950,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>76.38</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>68.650000000000006</v>
       </c>
@@ -2554,12 +2973,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>38.65</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>9.25</v>
       </c>
@@ -2567,27 +2986,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>30.852</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>17.667999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>4.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45388.477083333331</v>
       </c>
@@ -2611,9 +3030,9 @@
       <selection sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>105</v>
       </c>
@@ -2621,17 +3040,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>106</v>
       </c>
@@ -2639,17 +3058,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>87</v>
       </c>
@@ -2657,17 +3076,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>69</v>
       </c>
@@ -2675,17 +3094,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -2693,17 +3112,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -2711,17 +3130,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -2729,12 +3148,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>61</v>
       </c>
@@ -2742,12 +3161,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>91</v>
       </c>
@@ -2755,12 +3174,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>125</v>
       </c>
@@ -2768,12 +3187,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>70</v>
       </c>
@@ -2781,17 +3200,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2799,17 +3218,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2817,12 +3236,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2830,12 +3249,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2843,12 +3262,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -2856,12 +3275,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>27</v>
       </c>
@@ -2869,27 +3288,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>33</v>
       </c>

--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Python-developer\Fuel_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Python_developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2E588-2102-4B5D-8D20-0CCA23AEDB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A5D6A-8038-4C62-A956-979D3BF99651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,22 +404,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE7F70-79B8-4603-BB09-D0163447E869}">
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:DZ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C66" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="AP66" workbookViewId="0">
+      <selection activeCell="BI1" sqref="BI1:BK100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.85546875" customWidth="1"/>
+    <col min="57" max="57" width="16.85546875" customWidth="1"/>
+    <col min="61" max="61" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -459,8 +470,130 @@
       <c r="P1">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S1" s="2">
+        <v>45403.478472222225</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>117</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45403.541666666664</v>
+      </c>
+      <c r="Y1">
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45403.701388888891</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>45403.709027777775</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>6</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>45405.73541666667</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>45316.395833333336</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>33</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>45316.459027777775</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>87</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>45408.337500000001</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>33</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>45408.568055555559</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>7</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>45415.339583333334</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>33</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>45415.68472222222</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>33</v>
+      </c>
+      <c r="BL1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DZ1" s="2"/>
+    </row>
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>20.8</v>
       </c>
@@ -476,8 +609,41 @@
       <c r="O2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>4</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AL2">
+        <v>8</v>
+      </c>
+      <c r="AP2">
+        <v>4</v>
+      </c>
+      <c r="AT2">
+        <v>6</v>
+      </c>
+      <c r="AX2">
+        <v>8</v>
+      </c>
+      <c r="BB2">
+        <v>12</v>
+      </c>
+      <c r="BF2">
+        <v>13</v>
+      </c>
+      <c r="BJ2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7.31</v>
       </c>
@@ -493,8 +659,41 @@
       <c r="O3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="Y3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>9</v>
+      </c>
+      <c r="AH3">
+        <v>15</v>
+      </c>
+      <c r="AL3">
+        <v>11</v>
+      </c>
+      <c r="AP3">
+        <v>14</v>
+      </c>
+      <c r="AT3">
+        <v>17</v>
+      </c>
+      <c r="AX3">
+        <v>13</v>
+      </c>
+      <c r="BB3">
+        <v>19</v>
+      </c>
+      <c r="BF3">
+        <v>12</v>
+      </c>
+      <c r="BJ3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.3380000000000001</v>
       </c>
@@ -513,8 +712,41 @@
       <c r="O4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>10</v>
+      </c>
+      <c r="AL4">
+        <v>11</v>
+      </c>
+      <c r="AP4">
+        <v>19</v>
+      </c>
+      <c r="AT4">
+        <v>29</v>
+      </c>
+      <c r="AX4">
+        <v>20</v>
+      </c>
+      <c r="BB4">
+        <v>21</v>
+      </c>
+      <c r="BF4">
+        <v>15</v>
+      </c>
+      <c r="BJ4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.56</v>
       </c>
@@ -530,8 +762,41 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>17</v>
+      </c>
+      <c r="AC5">
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <v>22</v>
+      </c>
+      <c r="AL5">
+        <v>6</v>
+      </c>
+      <c r="AP5">
+        <v>17</v>
+      </c>
+      <c r="AT5">
+        <v>29</v>
+      </c>
+      <c r="AX5">
+        <v>23</v>
+      </c>
+      <c r="BB5">
+        <v>27</v>
+      </c>
+      <c r="BF5">
+        <v>17</v>
+      </c>
+      <c r="BJ5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.8</v>
       </c>
@@ -555,8 +820,44 @@
       <c r="P6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>37</v>
+      </c>
+      <c r="AC6">
+        <v>16</v>
+      </c>
+      <c r="AH6">
+        <v>18</v>
+      </c>
+      <c r="AL6">
+        <v>21</v>
+      </c>
+      <c r="AM6">
+        <v>27</v>
+      </c>
+      <c r="AP6">
+        <v>12</v>
+      </c>
+      <c r="AT6">
+        <v>27</v>
+      </c>
+      <c r="AX6">
+        <v>25</v>
+      </c>
+      <c r="BB6">
+        <v>30</v>
+      </c>
+      <c r="BF6">
+        <v>20</v>
+      </c>
+      <c r="BJ6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>25.8</v>
       </c>
@@ -572,8 +873,47 @@
       <c r="O7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>58</v>
+      </c>
+      <c r="Z7">
+        <v>81</v>
+      </c>
+      <c r="AC7">
+        <v>21</v>
+      </c>
+      <c r="AH7">
+        <v>25</v>
+      </c>
+      <c r="AL7">
+        <v>5</v>
+      </c>
+      <c r="AP7">
+        <v>14</v>
+      </c>
+      <c r="AT7">
+        <v>25</v>
+      </c>
+      <c r="AU7">
+        <v>85</v>
+      </c>
+      <c r="AX7">
+        <v>9</v>
+      </c>
+      <c r="BB7">
+        <v>37</v>
+      </c>
+      <c r="BF7">
+        <v>18</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -592,8 +932,47 @@
       <c r="O8">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>16</v>
+      </c>
+      <c r="U8">
+        <v>105</v>
+      </c>
+      <c r="Y8">
+        <v>67</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8">
+        <v>34</v>
+      </c>
+      <c r="AH8">
+        <v>27</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>17</v>
+      </c>
+      <c r="AT8">
+        <v>23</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>46</v>
+      </c>
+      <c r="BF8">
+        <v>19</v>
+      </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>42.5</v>
       </c>
@@ -609,8 +988,47 @@
       <c r="O9">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <v>78</v>
+      </c>
+      <c r="AC9">
+        <v>15</v>
+      </c>
+      <c r="AH9">
+        <v>33</v>
+      </c>
+      <c r="AI9">
+        <v>7</v>
+      </c>
+      <c r="AL9">
+        <v>3</v>
+      </c>
+      <c r="AP9">
+        <v>6</v>
+      </c>
+      <c r="AT9">
+        <v>26</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>44</v>
+      </c>
+      <c r="BC9">
+        <v>7</v>
+      </c>
+      <c r="BF9">
+        <v>16</v>
+      </c>
+      <c r="BJ9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>25.9</v>
       </c>
@@ -626,8 +1044,41 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="Y10">
+        <v>85</v>
+      </c>
+      <c r="AC10">
+        <v>16</v>
+      </c>
+      <c r="AH10">
+        <v>38</v>
+      </c>
+      <c r="AL10">
+        <v>25</v>
+      </c>
+      <c r="AP10">
+        <v>8</v>
+      </c>
+      <c r="AT10">
+        <v>23</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>40</v>
+      </c>
+      <c r="BF10">
+        <v>14</v>
+      </c>
+      <c r="BJ10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>23.47</v>
       </c>
@@ -649,8 +1100,41 @@
       <c r="O11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>19</v>
+      </c>
+      <c r="Y11">
+        <v>84</v>
+      </c>
+      <c r="AC11">
+        <v>23</v>
+      </c>
+      <c r="AH11">
+        <v>40</v>
+      </c>
+      <c r="AL11">
+        <v>17</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>25</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>34</v>
+      </c>
+      <c r="BF11">
+        <v>12</v>
+      </c>
+      <c r="BJ11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>35.35</v>
       </c>
@@ -668,8 +1152,41 @@
       <c r="O12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="Y12">
+        <v>102</v>
+      </c>
+      <c r="AC12">
+        <v>27</v>
+      </c>
+      <c r="AH12">
+        <v>30</v>
+      </c>
+      <c r="AL12">
+        <v>11</v>
+      </c>
+      <c r="AP12">
+        <v>14</v>
+      </c>
+      <c r="AT12">
+        <v>11</v>
+      </c>
+      <c r="AX12">
+        <v>12</v>
+      </c>
+      <c r="BB12">
+        <v>29</v>
+      </c>
+      <c r="BF12">
+        <v>12</v>
+      </c>
+      <c r="BJ12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>35.82</v>
       </c>
@@ -685,8 +1202,41 @@
       <c r="O13">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="Y13">
+        <v>94</v>
+      </c>
+      <c r="AC13">
+        <v>34</v>
+      </c>
+      <c r="AH13">
+        <v>19</v>
+      </c>
+      <c r="AL13">
+        <v>27</v>
+      </c>
+      <c r="AP13">
+        <v>17</v>
+      </c>
+      <c r="AT13">
+        <v>23</v>
+      </c>
+      <c r="AX13">
+        <v>23</v>
+      </c>
+      <c r="BB13">
+        <v>24</v>
+      </c>
+      <c r="BF13">
+        <v>8</v>
+      </c>
+      <c r="BJ13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -708,8 +1258,56 @@
       <c r="P14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="Y14">
+        <v>75</v>
+      </c>
+      <c r="Z14">
+        <v>128</v>
+      </c>
+      <c r="AC14">
+        <v>30</v>
+      </c>
+      <c r="AD14">
+        <v>25</v>
+      </c>
+      <c r="AH14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <v>20</v>
+      </c>
+      <c r="AM14">
+        <v>20</v>
+      </c>
+      <c r="AP14">
+        <v>18</v>
+      </c>
+      <c r="AQ14">
+        <v>30</v>
+      </c>
+      <c r="AT14">
+        <v>34</v>
+      </c>
+      <c r="AU14">
+        <v>71</v>
+      </c>
+      <c r="AX14">
+        <v>24</v>
+      </c>
+      <c r="BB14">
+        <v>12</v>
+      </c>
+      <c r="BF14">
+        <v>4</v>
+      </c>
+      <c r="BJ14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>30.38</v>
       </c>
@@ -725,8 +1323,44 @@
       <c r="O15">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>24</v>
+      </c>
+      <c r="Y15">
+        <v>80</v>
+      </c>
+      <c r="AC15">
+        <v>27</v>
+      </c>
+      <c r="AH15">
+        <v>12</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>21</v>
+      </c>
+      <c r="AT15">
+        <v>46</v>
+      </c>
+      <c r="AX15">
+        <v>21</v>
+      </c>
+      <c r="BB15">
+        <v>10</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>32</v>
+      </c>
+      <c r="BJ15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>41.18</v>
       </c>
@@ -742,8 +1376,44 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>31</v>
+      </c>
+      <c r="Y16">
+        <v>76</v>
+      </c>
+      <c r="AC16">
+        <v>22</v>
+      </c>
+      <c r="AH16">
+        <v>30</v>
+      </c>
+      <c r="AL16">
+        <v>23</v>
+      </c>
+      <c r="AP16">
+        <v>20</v>
+      </c>
+      <c r="AT16">
+        <v>50</v>
+      </c>
+      <c r="AX16">
+        <v>15</v>
+      </c>
+      <c r="AY16">
+        <v>30</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25.8</v>
       </c>
@@ -762,8 +1432,44 @@
       <c r="O17">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <v>33</v>
+      </c>
+      <c r="U17">
+        <v>96</v>
+      </c>
+      <c r="Y17">
+        <v>91</v>
+      </c>
+      <c r="AC17">
+        <v>33</v>
+      </c>
+      <c r="AH17">
+        <v>32</v>
+      </c>
+      <c r="AL17">
+        <v>24</v>
+      </c>
+      <c r="AP17">
+        <v>16</v>
+      </c>
+      <c r="AT17">
+        <v>60</v>
+      </c>
+      <c r="AX17">
+        <v>10</v>
+      </c>
+      <c r="BB17">
+        <v>12</v>
+      </c>
+      <c r="BF17">
+        <v>9</v>
+      </c>
+      <c r="BJ17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>28.86</v>
       </c>
@@ -782,8 +1488,47 @@
       <c r="O18">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <v>26</v>
+      </c>
+      <c r="Y18">
+        <v>90</v>
+      </c>
+      <c r="AC18">
+        <v>34</v>
+      </c>
+      <c r="AH18">
+        <v>27</v>
+      </c>
+      <c r="AI18">
+        <v>7</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>14</v>
+      </c>
+      <c r="AT18">
+        <v>67</v>
+      </c>
+      <c r="AX18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
+        <v>28</v>
+      </c>
+      <c r="BC18">
+        <v>7</v>
+      </c>
+      <c r="BF18">
+        <v>15</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>38.799999999999997</v>
       </c>
@@ -799,8 +1544,41 @@
       <c r="O19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="Y19">
+        <v>57</v>
+      </c>
+      <c r="AC19">
+        <v>35</v>
+      </c>
+      <c r="AH19">
+        <v>44</v>
+      </c>
+      <c r="AL19">
+        <v>27</v>
+      </c>
+      <c r="AP19">
+        <v>13</v>
+      </c>
+      <c r="AT19">
+        <v>70</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
+        <v>31</v>
+      </c>
+      <c r="BF19">
+        <v>15</v>
+      </c>
+      <c r="BJ19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>31.21</v>
       </c>
@@ -816,8 +1594,44 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>30</v>
+      </c>
+      <c r="Y20">
+        <v>24</v>
+      </c>
+      <c r="AC20">
+        <v>33</v>
+      </c>
+      <c r="AD20">
+        <v>22</v>
+      </c>
+      <c r="AH20">
+        <v>40</v>
+      </c>
+      <c r="AL20">
+        <v>43</v>
+      </c>
+      <c r="AP20">
+        <v>11</v>
+      </c>
+      <c r="AT20">
+        <v>75</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>38</v>
+      </c>
+      <c r="BF20">
+        <v>18</v>
+      </c>
+      <c r="BJ20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.78</v>
       </c>
@@ -836,8 +1650,44 @@
       <c r="O21">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>23</v>
+      </c>
+      <c r="Y21">
+        <v>34</v>
+      </c>
+      <c r="AC21">
+        <v>26</v>
+      </c>
+      <c r="AH21">
+        <v>36</v>
+      </c>
+      <c r="AL21">
+        <v>54</v>
+      </c>
+      <c r="AP21">
+        <v>15</v>
+      </c>
+      <c r="AT21">
+        <v>74</v>
+      </c>
+      <c r="AU21">
+        <v>59</v>
+      </c>
+      <c r="AX21">
+        <v>13</v>
+      </c>
+      <c r="BB21">
+        <v>49</v>
+      </c>
+      <c r="BF21">
+        <v>19</v>
+      </c>
+      <c r="BJ21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18.2</v>
       </c>
@@ -856,8 +1706,47 @@
       <c r="O22">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>19</v>
+      </c>
+      <c r="Y22">
+        <v>47</v>
+      </c>
+      <c r="Z22">
+        <v>138</v>
+      </c>
+      <c r="AC22">
+        <v>16</v>
+      </c>
+      <c r="AH22">
+        <v>29</v>
+      </c>
+      <c r="AL22">
+        <v>43</v>
+      </c>
+      <c r="AP22">
+        <v>15</v>
+      </c>
+      <c r="AT22">
+        <v>78</v>
+      </c>
+      <c r="AX22">
+        <v>17</v>
+      </c>
+      <c r="BB22">
+        <v>63</v>
+      </c>
+      <c r="BF22">
+        <v>19</v>
+      </c>
+      <c r="BJ22">
+        <v>21</v>
+      </c>
+      <c r="BK22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>12.85</v>
       </c>
@@ -876,8 +1765,44 @@
       <c r="P23">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>30</v>
+      </c>
+      <c r="Y23">
+        <v>80</v>
+      </c>
+      <c r="AC23">
+        <v>6</v>
+      </c>
+      <c r="AH23">
+        <v>26</v>
+      </c>
+      <c r="AL23">
+        <v>35</v>
+      </c>
+      <c r="AM23">
+        <v>19</v>
+      </c>
+      <c r="AP23">
+        <v>11</v>
+      </c>
+      <c r="AT23">
+        <v>78</v>
+      </c>
+      <c r="AX23">
+        <v>11</v>
+      </c>
+      <c r="BB23">
+        <v>72</v>
+      </c>
+      <c r="BF23">
+        <v>22</v>
+      </c>
+      <c r="BJ23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>27.55</v>
       </c>
@@ -896,8 +1821,47 @@
       <c r="O24">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>34</v>
+      </c>
+      <c r="U24">
+        <v>103</v>
+      </c>
+      <c r="Y24">
+        <v>89</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>10</v>
+      </c>
+      <c r="AL24">
+        <v>7</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>33</v>
+      </c>
+      <c r="AT24">
+        <v>78</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>89</v>
+      </c>
+      <c r="BF24">
+        <v>23</v>
+      </c>
+      <c r="BJ24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -916,8 +1880,44 @@
       <c r="P25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>39</v>
+      </c>
+      <c r="Y25">
+        <v>99</v>
+      </c>
+      <c r="AC25">
+        <v>6</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>16</v>
+      </c>
+      <c r="AT25">
+        <v>76</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
+        <v>78</v>
+      </c>
+      <c r="BF25">
+        <v>24</v>
+      </c>
+      <c r="BJ25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>14.4</v>
       </c>
@@ -933,8 +1933,47 @@
       <c r="O26">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <v>40</v>
+      </c>
+      <c r="Y26">
+        <v>77</v>
+      </c>
+      <c r="AC26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>14</v>
+      </c>
+      <c r="AI26">
+        <v>14</v>
+      </c>
+      <c r="AL26">
+        <v>42</v>
+      </c>
+      <c r="AP26">
+        <v>28</v>
+      </c>
+      <c r="AT26">
+        <v>82</v>
+      </c>
+      <c r="AX26">
+        <v>3</v>
+      </c>
+      <c r="AY26">
+        <v>21</v>
+      </c>
+      <c r="BB26">
+        <v>70</v>
+      </c>
+      <c r="BF26">
+        <v>22</v>
+      </c>
+      <c r="BJ26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18.47</v>
       </c>
@@ -959,8 +1998,44 @@
       <c r="P27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <v>44</v>
+      </c>
+      <c r="Y27">
+        <v>83</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+      <c r="AH27">
+        <v>24</v>
+      </c>
+      <c r="AL27">
+        <v>62</v>
+      </c>
+      <c r="AM27">
+        <v>5</v>
+      </c>
+      <c r="AP27">
+        <v>28</v>
+      </c>
+      <c r="AT27">
+        <v>74</v>
+      </c>
+      <c r="AX27">
+        <v>15</v>
+      </c>
+      <c r="BB27">
+        <v>64</v>
+      </c>
+      <c r="BF27">
+        <v>18</v>
+      </c>
+      <c r="BJ27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>14.96</v>
       </c>
@@ -976,8 +2051,50 @@
       <c r="O28">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>46</v>
+      </c>
+      <c r="Y28">
+        <v>86</v>
+      </c>
+      <c r="Z28">
+        <v>150</v>
+      </c>
+      <c r="AC28">
+        <v>26</v>
+      </c>
+      <c r="AD28">
+        <v>21</v>
+      </c>
+      <c r="AH28">
+        <v>25</v>
+      </c>
+      <c r="AL28">
+        <v>82</v>
+      </c>
+      <c r="AP28">
+        <v>32</v>
+      </c>
+      <c r="AT28">
+        <v>74</v>
+      </c>
+      <c r="AX28">
+        <v>10</v>
+      </c>
+      <c r="BB28">
+        <v>65</v>
+      </c>
+      <c r="BF28">
+        <v>12</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>30.42</v>
       </c>
@@ -993,8 +2110,47 @@
       <c r="O29">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>42</v>
+      </c>
+      <c r="Y29">
+        <v>94</v>
+      </c>
+      <c r="AC29">
+        <v>34</v>
+      </c>
+      <c r="AH29">
+        <v>16</v>
+      </c>
+      <c r="AL29">
+        <v>84</v>
+      </c>
+      <c r="AP29">
+        <v>38</v>
+      </c>
+      <c r="AT29">
+        <v>74</v>
+      </c>
+      <c r="AU29">
+        <v>41</v>
+      </c>
+      <c r="AX29">
+        <v>27</v>
+      </c>
+      <c r="BB29">
+        <v>72</v>
+      </c>
+      <c r="BC29">
+        <v>8</v>
+      </c>
+      <c r="BF29">
+        <v>5</v>
+      </c>
+      <c r="BJ29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20.48</v>
       </c>
@@ -1010,8 +2166,47 @@
       <c r="O30">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>34</v>
+      </c>
+      <c r="U30">
+        <v>111</v>
+      </c>
+      <c r="Y30">
+        <v>95</v>
+      </c>
+      <c r="AC30">
+        <v>34</v>
+      </c>
+      <c r="AH30">
+        <v>26</v>
+      </c>
+      <c r="AL30">
+        <v>78</v>
+      </c>
+      <c r="AP30">
+        <v>35</v>
+      </c>
+      <c r="AT30">
+        <v>75</v>
+      </c>
+      <c r="AX30">
+        <v>24</v>
+      </c>
+      <c r="BB30">
+        <v>73</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>30</v>
+      </c>
+      <c r="BJ30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>4.25</v>
       </c>
@@ -1033,8 +2228,41 @@
       <c r="O31">
         <v>80</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>45</v>
+      </c>
+      <c r="Y31">
+        <v>80</v>
+      </c>
+      <c r="AC31">
+        <v>35</v>
+      </c>
+      <c r="AH31">
+        <v>33</v>
+      </c>
+      <c r="AL31">
+        <v>61</v>
+      </c>
+      <c r="AP31">
+        <v>33</v>
+      </c>
+      <c r="AT31">
+        <v>75</v>
+      </c>
+      <c r="AX31">
+        <v>21</v>
+      </c>
+      <c r="BB31">
+        <v>73</v>
+      </c>
+      <c r="BF31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>5.29</v>
       </c>
@@ -1050,8 +2278,41 @@
       <c r="O32">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>43</v>
+      </c>
+      <c r="Y32">
+        <v>79</v>
+      </c>
+      <c r="AC32">
+        <v>31</v>
+      </c>
+      <c r="AH32">
+        <v>29</v>
+      </c>
+      <c r="AL32">
+        <v>75</v>
+      </c>
+      <c r="AP32">
+        <v>31</v>
+      </c>
+      <c r="AT32">
+        <v>75</v>
+      </c>
+      <c r="AX32">
+        <v>13</v>
+      </c>
+      <c r="BB32">
+        <v>71</v>
+      </c>
+      <c r="BF32">
+        <v>10</v>
+      </c>
+      <c r="BJ32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10.27</v>
       </c>
@@ -1067,8 +2328,41 @@
       <c r="O33">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>39</v>
+      </c>
+      <c r="Y33">
+        <v>64</v>
+      </c>
+      <c r="AC33">
+        <v>23</v>
+      </c>
+      <c r="AH33">
+        <v>27</v>
+      </c>
+      <c r="AL33">
+        <v>74</v>
+      </c>
+      <c r="AP33">
+        <v>24</v>
+      </c>
+      <c r="AT33">
+        <v>76</v>
+      </c>
+      <c r="AX33">
+        <v>29</v>
+      </c>
+      <c r="BB33">
+        <v>66</v>
+      </c>
+      <c r="BF33">
+        <v>11</v>
+      </c>
+      <c r="BJ33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>13.45</v>
       </c>
@@ -1087,8 +2381,44 @@
       <c r="P34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>41</v>
+      </c>
+      <c r="Y34">
+        <v>37</v>
+      </c>
+      <c r="AC34">
+        <v>20</v>
+      </c>
+      <c r="AH34">
+        <v>18</v>
+      </c>
+      <c r="AL34">
+        <v>96</v>
+      </c>
+      <c r="AM34">
+        <v>5</v>
+      </c>
+      <c r="AP34">
+        <v>15</v>
+      </c>
+      <c r="AT34">
+        <v>72</v>
+      </c>
+      <c r="AX34">
+        <v>41</v>
+      </c>
+      <c r="BB34">
+        <v>74</v>
+      </c>
+      <c r="BF34">
+        <v>14</v>
+      </c>
+      <c r="BJ34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>22.25</v>
       </c>
@@ -1110,8 +2440,47 @@
       <c r="O35">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>39</v>
+      </c>
+      <c r="Y35">
+        <v>27</v>
+      </c>
+      <c r="AC35">
+        <v>23</v>
+      </c>
+      <c r="AH35">
+        <v>27</v>
+      </c>
+      <c r="AI35">
+        <v>18</v>
+      </c>
+      <c r="AL35">
+        <v>111</v>
+      </c>
+      <c r="AP35">
+        <v>5</v>
+      </c>
+      <c r="AQ35">
+        <v>27</v>
+      </c>
+      <c r="AT35">
+        <v>78</v>
+      </c>
+      <c r="AX35">
+        <v>46</v>
+      </c>
+      <c r="BB35">
+        <v>65</v>
+      </c>
+      <c r="BF35">
+        <v>18</v>
+      </c>
+      <c r="BJ35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>23.45</v>
       </c>
@@ -1127,8 +2496,47 @@
       <c r="O36">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>33</v>
+      </c>
+      <c r="Y36">
+        <v>50</v>
+      </c>
+      <c r="AC36">
+        <v>27</v>
+      </c>
+      <c r="AD36">
+        <v>18</v>
+      </c>
+      <c r="AH36">
+        <v>48</v>
+      </c>
+      <c r="AL36">
+        <v>95</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>71</v>
+      </c>
+      <c r="AU36">
+        <v>33</v>
+      </c>
+      <c r="AX36">
+        <v>38</v>
+      </c>
+      <c r="BB36">
+        <v>67</v>
+      </c>
+      <c r="BF36">
+        <v>24</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>21.49</v>
       </c>
@@ -1144,8 +2552,44 @@
       <c r="O37">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>43</v>
+      </c>
+      <c r="Y37">
+        <v>67</v>
+      </c>
+      <c r="Z37">
+        <v>180</v>
+      </c>
+      <c r="AC37">
+        <v>29</v>
+      </c>
+      <c r="AH37">
+        <v>53</v>
+      </c>
+      <c r="AL37">
+        <v>90</v>
+      </c>
+      <c r="AP37">
+        <v>9</v>
+      </c>
+      <c r="AT37">
+        <v>64</v>
+      </c>
+      <c r="AX37">
+        <v>36</v>
+      </c>
+      <c r="BB37">
+        <v>61</v>
+      </c>
+      <c r="BF37">
+        <v>25</v>
+      </c>
+      <c r="BJ37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7</v>
       </c>
@@ -1164,8 +2608,41 @@
       <c r="O38">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>48</v>
+      </c>
+      <c r="Y38">
+        <v>72</v>
+      </c>
+      <c r="AC38">
+        <v>29</v>
+      </c>
+      <c r="AH38">
+        <v>60</v>
+      </c>
+      <c r="AL38">
+        <v>92</v>
+      </c>
+      <c r="AP38">
+        <v>26</v>
+      </c>
+      <c r="AT38">
+        <v>55</v>
+      </c>
+      <c r="AX38">
+        <v>29</v>
+      </c>
+      <c r="BB38">
+        <v>51</v>
+      </c>
+      <c r="BF38">
+        <v>28</v>
+      </c>
+      <c r="BJ38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.48</v>
       </c>
@@ -1181,8 +2658,41 @@
       <c r="O39">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>46</v>
+      </c>
+      <c r="Y39">
+        <v>86</v>
+      </c>
+      <c r="AC39">
+        <v>34</v>
+      </c>
+      <c r="AH39">
+        <v>65</v>
+      </c>
+      <c r="AL39">
+        <v>87</v>
+      </c>
+      <c r="AP39">
+        <v>31</v>
+      </c>
+      <c r="AT39">
+        <v>46</v>
+      </c>
+      <c r="AX39">
+        <v>17</v>
+      </c>
+      <c r="BB39">
+        <v>42</v>
+      </c>
+      <c r="BF39">
+        <v>29</v>
+      </c>
+      <c r="BJ39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10.45</v>
       </c>
@@ -1198,8 +2708,41 @@
       <c r="O40">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <v>32</v>
+      </c>
+      <c r="Y40">
+        <v>88</v>
+      </c>
+      <c r="AC40">
+        <v>35</v>
+      </c>
+      <c r="AH40">
+        <v>65</v>
+      </c>
+      <c r="AL40">
+        <v>105</v>
+      </c>
+      <c r="AP40">
+        <v>9</v>
+      </c>
+      <c r="AT40">
+        <v>38</v>
+      </c>
+      <c r="AX40">
+        <v>31</v>
+      </c>
+      <c r="BB40">
+        <v>44</v>
+      </c>
+      <c r="BF40">
+        <v>29</v>
+      </c>
+      <c r="BJ40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3.74</v>
       </c>
@@ -1221,8 +2764,41 @@
       <c r="O41">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <v>47</v>
+      </c>
+      <c r="Y41">
+        <v>85</v>
+      </c>
+      <c r="AC41">
+        <v>34</v>
+      </c>
+      <c r="AH41">
+        <v>73</v>
+      </c>
+      <c r="AL41">
+        <v>106</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>29</v>
+      </c>
+      <c r="AX41">
+        <v>34</v>
+      </c>
+      <c r="BB41">
+        <v>46</v>
+      </c>
+      <c r="BF41">
+        <v>28</v>
+      </c>
+      <c r="BJ41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.66</v>
       </c>
@@ -1238,8 +2814,50 @@
       <c r="O42">
         <v>91</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T42">
+        <v>57</v>
+      </c>
+      <c r="U42">
+        <v>116</v>
+      </c>
+      <c r="Y42">
+        <v>78</v>
+      </c>
+      <c r="AC42">
+        <v>38</v>
+      </c>
+      <c r="AH42">
+        <v>62</v>
+      </c>
+      <c r="AL42">
+        <v>115</v>
+      </c>
+      <c r="AP42">
+        <v>30</v>
+      </c>
+      <c r="AT42">
+        <v>20</v>
+      </c>
+      <c r="AX42">
+        <v>32</v>
+      </c>
+      <c r="AY42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>54</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BF42">
+        <v>20</v>
+      </c>
+      <c r="BJ42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -1264,8 +2882,44 @@
       <c r="P43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <v>54</v>
+      </c>
+      <c r="Y43">
+        <v>53</v>
+      </c>
+      <c r="AC43">
+        <v>34</v>
+      </c>
+      <c r="AH43">
+        <v>49</v>
+      </c>
+      <c r="AL43">
+        <v>108</v>
+      </c>
+      <c r="AM43">
+        <v>6</v>
+      </c>
+      <c r="AP43">
+        <v>35</v>
+      </c>
+      <c r="AT43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>27</v>
+      </c>
+      <c r="BB43">
+        <v>53</v>
+      </c>
+      <c r="BF43">
+        <v>5</v>
+      </c>
+      <c r="BJ43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>16.8</v>
       </c>
@@ -1278,8 +2932,47 @@
       <c r="O44">
         <v>130</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <v>43</v>
+      </c>
+      <c r="Y44">
+        <v>31</v>
+      </c>
+      <c r="AC44">
+        <v>31</v>
+      </c>
+      <c r="AD44">
+        <v>14</v>
+      </c>
+      <c r="AH44">
+        <v>35</v>
+      </c>
+      <c r="AL44">
+        <v>107</v>
+      </c>
+      <c r="AP44">
+        <v>29</v>
+      </c>
+      <c r="AT44">
+        <v>25</v>
+      </c>
+      <c r="AX44">
+        <v>24</v>
+      </c>
+      <c r="BB44">
+        <v>51</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+      <c r="BG44">
+        <v>24</v>
+      </c>
+      <c r="BJ44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>21</v>
       </c>
@@ -1298,8 +2991,47 @@
       <c r="O45">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <v>37</v>
+      </c>
+      <c r="Y45">
+        <v>63</v>
+      </c>
+      <c r="AC45">
+        <v>25</v>
+      </c>
+      <c r="AH45">
+        <v>19</v>
+      </c>
+      <c r="AI45">
+        <v>22</v>
+      </c>
+      <c r="AL45">
+        <v>98</v>
+      </c>
+      <c r="AP45">
+        <v>12</v>
+      </c>
+      <c r="AT45">
+        <v>32</v>
+      </c>
+      <c r="AU45">
+        <v>30</v>
+      </c>
+      <c r="AX45">
+        <v>35</v>
+      </c>
+      <c r="BB45">
+        <v>60</v>
+      </c>
+      <c r="BF45">
+        <v>2</v>
+      </c>
+      <c r="BJ45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>21.92</v>
       </c>
@@ -1318,8 +3050,47 @@
       <c r="P46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <v>35</v>
+      </c>
+      <c r="Y46">
+        <v>87</v>
+      </c>
+      <c r="Z46">
+        <v>160</v>
+      </c>
+      <c r="AC46">
+        <v>33</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>123</v>
+      </c>
+      <c r="AM46">
+        <v>15</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>38</v>
+      </c>
+      <c r="AX46">
+        <v>32</v>
+      </c>
+      <c r="BB46">
+        <v>65</v>
+      </c>
+      <c r="BF46">
+        <v>11</v>
+      </c>
+      <c r="BJ46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>23.51</v>
       </c>
@@ -1329,8 +3100,41 @@
       <c r="O47">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <v>43</v>
+      </c>
+      <c r="Y47">
+        <v>92</v>
+      </c>
+      <c r="AC47">
+        <v>38</v>
+      </c>
+      <c r="AH47">
+        <v>11</v>
+      </c>
+      <c r="AL47">
+        <v>112</v>
+      </c>
+      <c r="AP47">
+        <v>7</v>
+      </c>
+      <c r="AT47">
+        <v>45</v>
+      </c>
+      <c r="AX47">
+        <v>22</v>
+      </c>
+      <c r="BB47">
+        <v>62</v>
+      </c>
+      <c r="BF47">
+        <v>15</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>7.8</v>
       </c>
@@ -1343,8 +3147,44 @@
       <c r="O48">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <v>41</v>
+      </c>
+      <c r="Y48">
+        <v>91</v>
+      </c>
+      <c r="AC48">
+        <v>39</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>103</v>
+      </c>
+      <c r="AP48">
+        <v>19</v>
+      </c>
+      <c r="AQ48">
+        <v>28</v>
+      </c>
+      <c r="AT48">
+        <v>49</v>
+      </c>
+      <c r="AX48">
+        <v>19</v>
+      </c>
+      <c r="BB48">
+        <v>57</v>
+      </c>
+      <c r="BF48">
+        <v>19</v>
+      </c>
+      <c r="BJ48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>3.13</v>
       </c>
@@ -1354,8 +3194,47 @@
       <c r="O49">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <v>31</v>
+      </c>
+      <c r="U49">
+        <v>95</v>
+      </c>
+      <c r="Y49">
+        <v>91</v>
+      </c>
+      <c r="AC49">
+        <v>33</v>
+      </c>
+      <c r="AH49">
+        <v>14</v>
+      </c>
+      <c r="AL49">
+        <v>87</v>
+      </c>
+      <c r="AP49">
+        <v>30</v>
+      </c>
+      <c r="AT49">
+        <v>44</v>
+      </c>
+      <c r="AX49">
+        <v>9</v>
+      </c>
+      <c r="AY49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>57</v>
+      </c>
+      <c r="BF49">
+        <v>17</v>
+      </c>
+      <c r="BJ49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>7.96</v>
       </c>
@@ -1371,8 +3250,47 @@
       <c r="P50">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>83</v>
+      </c>
+      <c r="AC50">
+        <v>30</v>
+      </c>
+      <c r="AD50">
+        <v>7</v>
+      </c>
+      <c r="AH50">
+        <v>29</v>
+      </c>
+      <c r="AL50">
+        <v>78</v>
+      </c>
+      <c r="AM50">
+        <v>20</v>
+      </c>
+      <c r="AP50">
+        <v>44</v>
+      </c>
+      <c r="AT50">
+        <v>42</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>56</v>
+      </c>
+      <c r="BF50">
+        <v>13</v>
+      </c>
+      <c r="BJ50">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>14.8</v>
       </c>
@@ -1382,8 +3300,47 @@
       <c r="O51">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <v>16</v>
+      </c>
+      <c r="Y51">
+        <v>87</v>
+      </c>
+      <c r="AC51">
+        <v>26</v>
+      </c>
+      <c r="AH51">
+        <v>40</v>
+      </c>
+      <c r="AL51">
+        <v>90</v>
+      </c>
+      <c r="AP51">
+        <v>48</v>
+      </c>
+      <c r="AT51">
+        <v>14</v>
+      </c>
+      <c r="AX51">
+        <v>19</v>
+      </c>
+      <c r="BB51">
+        <v>65</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>7</v>
+      </c>
+      <c r="BJ51">
+        <v>36</v>
+      </c>
+      <c r="BK51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>22.21</v>
       </c>
@@ -1393,8 +3350,41 @@
       <c r="O52">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <v>26</v>
+      </c>
+      <c r="Y52">
+        <v>84</v>
+      </c>
+      <c r="AC52">
+        <v>32</v>
+      </c>
+      <c r="AH52">
+        <v>45</v>
+      </c>
+      <c r="AL52">
+        <v>97</v>
+      </c>
+      <c r="AP52">
+        <v>38</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>66</v>
+      </c>
+      <c r="BF52">
+        <v>4</v>
+      </c>
+      <c r="BJ52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>18.45</v>
       </c>
@@ -1404,8 +3394,41 @@
       <c r="O53">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <v>39</v>
+      </c>
+      <c r="Y53">
+        <v>70</v>
+      </c>
+      <c r="AC53">
+        <v>31</v>
+      </c>
+      <c r="AH53">
+        <v>35</v>
+      </c>
+      <c r="AL53">
+        <v>101</v>
+      </c>
+      <c r="AP53">
+        <v>63</v>
+      </c>
+      <c r="AT53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>56</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BJ53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>11.63</v>
       </c>
@@ -1418,8 +3441,53 @@
       <c r="P54">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <v>32</v>
+      </c>
+      <c r="U54">
+        <v>74</v>
+      </c>
+      <c r="Y54">
+        <v>65</v>
+      </c>
+      <c r="Z54">
+        <v>81</v>
+      </c>
+      <c r="AC54">
+        <v>28</v>
+      </c>
+      <c r="AH54">
+        <v>31</v>
+      </c>
+      <c r="AL54">
+        <v>98</v>
+      </c>
+      <c r="AM54">
+        <v>45</v>
+      </c>
+      <c r="AP54">
+        <v>72</v>
+      </c>
+      <c r="AT54">
+        <v>19</v>
+      </c>
+      <c r="AU54">
+        <v>29</v>
+      </c>
+      <c r="AX54">
+        <v>23</v>
+      </c>
+      <c r="BB54">
+        <v>56</v>
+      </c>
+      <c r="BF54">
+        <v>4</v>
+      </c>
+      <c r="BJ54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>8.86</v>
       </c>
@@ -1436,16 +3504,97 @@
       <c r="O55">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <v>41</v>
+      </c>
+      <c r="Y55">
+        <v>86</v>
+      </c>
+      <c r="AC55">
+        <v>26</v>
+      </c>
+      <c r="AH55">
+        <v>18</v>
+      </c>
+      <c r="AL55">
+        <v>101</v>
+      </c>
+      <c r="AP55">
+        <v>80</v>
+      </c>
+      <c r="AQ55">
+        <v>30</v>
+      </c>
+      <c r="AT55">
+        <v>27</v>
+      </c>
+      <c r="AX55">
+        <v>41</v>
+      </c>
+      <c r="BB55">
+        <v>42</v>
+      </c>
+      <c r="BF55">
+        <v>8</v>
+      </c>
+      <c r="BJ55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>5.48</v>
       </c>
       <c r="O56">
         <v>91</v>
       </c>
-    </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <v>34</v>
+      </c>
+      <c r="Y56">
+        <v>94</v>
+      </c>
+      <c r="AC56">
+        <v>16</v>
+      </c>
+      <c r="AD56">
+        <v>7</v>
+      </c>
+      <c r="AH56">
+        <v>7</v>
+      </c>
+      <c r="AI56">
+        <v>25</v>
+      </c>
+      <c r="AL56">
+        <v>82</v>
+      </c>
+      <c r="AM56">
+        <v>70</v>
+      </c>
+      <c r="AP56">
+        <v>78</v>
+      </c>
+      <c r="AT56">
+        <v>34</v>
+      </c>
+      <c r="AX56">
+        <v>53</v>
+      </c>
+      <c r="BB56">
+        <v>24</v>
+      </c>
+      <c r="BC56">
+        <v>9</v>
+      </c>
+      <c r="BF56">
+        <v>12</v>
+      </c>
+      <c r="BJ56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>3.48</v>
       </c>
@@ -1455,16 +3604,88 @@
       <c r="O57">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <v>34</v>
+      </c>
+      <c r="Y57">
+        <v>80</v>
+      </c>
+      <c r="AC57">
+        <v>26</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>89</v>
+      </c>
+      <c r="AP57">
+        <v>79</v>
+      </c>
+      <c r="AT57">
+        <v>37</v>
+      </c>
+      <c r="AX57">
+        <v>62</v>
+      </c>
+      <c r="AY57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>18</v>
+      </c>
+      <c r="BF57">
+        <v>17</v>
+      </c>
+      <c r="BJ57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>1.66</v>
       </c>
       <c r="O58">
         <v>84</v>
       </c>
-    </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T58">
+        <v>49</v>
+      </c>
+      <c r="Y58">
+        <v>87</v>
+      </c>
+      <c r="AC58">
+        <v>28</v>
+      </c>
+      <c r="AH58">
+        <v>17</v>
+      </c>
+      <c r="AL58">
+        <v>78</v>
+      </c>
+      <c r="AM58">
+        <v>125</v>
+      </c>
+      <c r="AP58">
+        <v>81</v>
+      </c>
+      <c r="AT58">
+        <v>29</v>
+      </c>
+      <c r="AX58">
+        <v>53</v>
+      </c>
+      <c r="BB58">
+        <v>12</v>
+      </c>
+      <c r="BF58">
+        <v>18</v>
+      </c>
+      <c r="BJ58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="4:63" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -1477,13 +3698,91 @@
       <c r="O59">
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T59">
+        <v>44</v>
+      </c>
+      <c r="Y59">
+        <v>83</v>
+      </c>
+      <c r="AC59">
+        <v>24</v>
+      </c>
+      <c r="AH59">
+        <v>33</v>
+      </c>
+      <c r="AL59">
+        <v>59</v>
+      </c>
+      <c r="AP59">
+        <v>86</v>
+      </c>
+      <c r="AT59">
+        <v>35</v>
+      </c>
+      <c r="AX59">
+        <v>49</v>
+      </c>
+      <c r="BB59">
+        <v>6</v>
+      </c>
+      <c r="BF59">
+        <v>20</v>
+      </c>
+      <c r="BG59">
+        <v>25</v>
+      </c>
+      <c r="BJ59">
+        <v>34</v>
+      </c>
+      <c r="BK59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="4:63" x14ac:dyDescent="0.25">
       <c r="O60">
         <v>55</v>
       </c>
-    </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <v>40</v>
+      </c>
+      <c r="U60">
+        <v>68</v>
+      </c>
+      <c r="Y60">
+        <v>88</v>
+      </c>
+      <c r="AC60">
+        <v>29</v>
+      </c>
+      <c r="AH60">
+        <v>43</v>
+      </c>
+      <c r="AL60">
+        <v>49</v>
+      </c>
+      <c r="AM60">
+        <v>91</v>
+      </c>
+      <c r="AP60">
+        <v>89</v>
+      </c>
+      <c r="AT60">
+        <v>36</v>
+      </c>
+      <c r="AX60">
+        <v>51</v>
+      </c>
+      <c r="BB60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>16</v>
+      </c>
+      <c r="BJ60">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="4:63" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>21</v>
       </c>
@@ -1493,188 +3792,1145 @@
       <c r="P61">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <v>46</v>
+      </c>
+      <c r="Y61">
+        <v>81</v>
+      </c>
+      <c r="Z61">
+        <v>60</v>
+      </c>
+      <c r="AC61">
+        <v>31</v>
+      </c>
+      <c r="AH61">
+        <v>41</v>
+      </c>
+      <c r="AL61">
+        <v>40</v>
+      </c>
+      <c r="AP61">
+        <v>92</v>
+      </c>
+      <c r="AT61">
+        <v>33</v>
+      </c>
+      <c r="AX61">
+        <v>34</v>
+      </c>
+      <c r="BB61">
+        <v>6</v>
+      </c>
+      <c r="BF61">
+        <v>14</v>
+      </c>
+      <c r="BJ61">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="4:63" x14ac:dyDescent="0.25">
       <c r="O62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <v>44</v>
+      </c>
+      <c r="Y62">
+        <v>86</v>
+      </c>
+      <c r="AC62">
+        <v>30</v>
+      </c>
+      <c r="AH62">
+        <v>36</v>
+      </c>
+      <c r="AL62">
+        <v>27</v>
+      </c>
+      <c r="AM62">
+        <v>61</v>
+      </c>
+      <c r="AP62">
+        <v>80</v>
+      </c>
+      <c r="AT62">
+        <v>34</v>
+      </c>
+      <c r="AU62">
+        <v>29</v>
+      </c>
+      <c r="AX62">
+        <v>18</v>
+      </c>
+      <c r="BB62">
+        <v>14</v>
+      </c>
+      <c r="BF62">
+        <v>11</v>
+      </c>
+      <c r="BJ62">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="4:63" x14ac:dyDescent="0.25">
       <c r="O63">
         <v>23</v>
       </c>
       <c r="P63">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <v>43</v>
+      </c>
+      <c r="Y63">
+        <v>90</v>
+      </c>
+      <c r="AC63">
+        <v>28</v>
+      </c>
+      <c r="AD63">
+        <v>7</v>
+      </c>
+      <c r="AH63">
+        <v>33</v>
+      </c>
+      <c r="AL63">
+        <v>28</v>
+      </c>
+      <c r="AP63">
+        <v>74</v>
+      </c>
+      <c r="AQ63">
+        <v>48</v>
+      </c>
+      <c r="AT63">
+        <v>31</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>0</v>
+      </c>
+      <c r="BF63">
+        <v>10</v>
+      </c>
+      <c r="BJ63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="4:63" x14ac:dyDescent="0.25">
       <c r="O64">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <v>39</v>
+      </c>
+      <c r="Y64">
+        <v>81</v>
+      </c>
+      <c r="AC64">
+        <v>24</v>
+      </c>
+      <c r="AH64">
+        <v>29</v>
+      </c>
+      <c r="AL64">
+        <v>27</v>
+      </c>
+      <c r="AM64">
+        <v>30</v>
+      </c>
+      <c r="AP64">
+        <v>83</v>
+      </c>
+      <c r="AT64">
+        <v>20</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+      <c r="BB64">
+        <v>15</v>
+      </c>
+      <c r="BF64">
+        <v>15</v>
+      </c>
+      <c r="BJ64">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O65">
         <v>28</v>
       </c>
       <c r="P65">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <v>52</v>
+      </c>
+      <c r="Y65">
+        <v>87</v>
+      </c>
+      <c r="AC65">
+        <v>19</v>
+      </c>
+      <c r="AH65">
+        <v>20</v>
+      </c>
+      <c r="AL65">
+        <v>31</v>
+      </c>
+      <c r="AP65">
+        <v>80</v>
+      </c>
+      <c r="AT65">
+        <v>12</v>
+      </c>
+      <c r="AX65">
+        <v>11</v>
+      </c>
+      <c r="BB65">
+        <v>15</v>
+      </c>
+      <c r="BF65">
+        <v>17</v>
+      </c>
+      <c r="BJ65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O66">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <v>55</v>
+      </c>
+      <c r="Y66">
+        <v>60</v>
+      </c>
+      <c r="AC66">
+        <v>16</v>
+      </c>
+      <c r="AH66">
+        <v>4</v>
+      </c>
+      <c r="AL66">
+        <v>34</v>
+      </c>
+      <c r="AP66">
+        <v>75</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>19</v>
+      </c>
+      <c r="BB66">
+        <v>24</v>
+      </c>
+      <c r="BF66">
+        <v>15</v>
+      </c>
+      <c r="BJ66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O67">
         <v>26</v>
       </c>
       <c r="P67">
         <v>61</v>
       </c>
-    </row>
-    <row r="68" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <v>45</v>
+      </c>
+      <c r="U67">
+        <v>63</v>
+      </c>
+      <c r="Y67">
+        <v>27</v>
+      </c>
+      <c r="AC67">
+        <v>14</v>
+      </c>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>33</v>
+      </c>
+      <c r="AM67">
+        <v>23</v>
+      </c>
+      <c r="AP67">
+        <v>68</v>
+      </c>
+      <c r="AT67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>29</v>
+      </c>
+      <c r="BB67">
+        <v>26</v>
+      </c>
+      <c r="BF67">
+        <v>17</v>
+      </c>
+      <c r="BJ67">
+        <v>10</v>
+      </c>
+      <c r="BK67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O68">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <v>41</v>
+      </c>
+      <c r="Y68">
+        <v>39</v>
+      </c>
+      <c r="Z68">
+        <v>41</v>
+      </c>
+      <c r="AC68">
+        <v>8</v>
+      </c>
+      <c r="AH68">
+        <v>8</v>
+      </c>
+      <c r="AL68">
+        <v>46</v>
+      </c>
+      <c r="AP68">
+        <v>62</v>
+      </c>
+      <c r="AT68">
+        <v>14</v>
+      </c>
+      <c r="AX68">
+        <v>46</v>
+      </c>
+      <c r="BB68">
+        <v>34</v>
+      </c>
+      <c r="BF68">
+        <v>15</v>
+      </c>
+      <c r="BJ68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O69">
         <v>15</v>
       </c>
       <c r="P69">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <v>42</v>
+      </c>
+      <c r="Y69">
+        <v>65</v>
+      </c>
+      <c r="AC69">
+        <v>4</v>
+      </c>
+      <c r="AH69">
+        <v>17</v>
+      </c>
+      <c r="AL69">
+        <v>26</v>
+      </c>
+      <c r="AP69">
+        <v>48</v>
+      </c>
+      <c r="AT69">
+        <v>24</v>
+      </c>
+      <c r="AX69">
+        <v>56</v>
+      </c>
+      <c r="AY69">
+        <v>7</v>
+      </c>
+      <c r="BB69">
+        <v>37</v>
+      </c>
+      <c r="BF69">
+        <v>15</v>
+      </c>
+      <c r="BJ69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T70">
+        <v>32</v>
+      </c>
+      <c r="Y70">
+        <v>65</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>45403.706250000003</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>6</v>
+      </c>
+      <c r="AH70">
+        <v>25</v>
+      </c>
+      <c r="AL70">
+        <v>62</v>
+      </c>
+      <c r="AM70">
+        <v>21</v>
+      </c>
+      <c r="AP70">
+        <v>36</v>
+      </c>
+      <c r="AQ70">
+        <v>69</v>
+      </c>
+      <c r="AT70">
+        <v>9</v>
+      </c>
+      <c r="AX70">
+        <v>70</v>
+      </c>
+      <c r="BB70">
+        <v>46</v>
+      </c>
+      <c r="BC70">
+        <v>12</v>
+      </c>
+      <c r="BF70">
+        <v>14</v>
+      </c>
+      <c r="BJ70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O71">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T71">
+        <v>50</v>
+      </c>
+      <c r="Y71">
+        <v>54</v>
+      </c>
+      <c r="AH71">
+        <v>30</v>
+      </c>
+      <c r="AI71">
+        <v>34</v>
+      </c>
+      <c r="AL71">
+        <v>86</v>
+      </c>
+      <c r="AP71">
+        <v>42</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>27</v>
+      </c>
+      <c r="AX71">
+        <v>80</v>
+      </c>
+      <c r="BB71">
+        <v>41</v>
+      </c>
+      <c r="BF71">
+        <v>12</v>
+      </c>
+      <c r="BJ71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O72">
         <v>64</v>
       </c>
       <c r="P72">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T72">
+        <v>51</v>
+      </c>
+      <c r="Y72">
+        <v>39</v>
+      </c>
+      <c r="AH72">
+        <v>33</v>
+      </c>
+      <c r="AL72">
+        <v>88</v>
+      </c>
+      <c r="AP72">
+        <v>27</v>
+      </c>
+      <c r="AT72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>90</v>
+      </c>
+      <c r="BB72">
+        <v>38</v>
+      </c>
+      <c r="BF72">
+        <v>10</v>
+      </c>
+      <c r="BJ72">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O73">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <v>45</v>
+      </c>
+      <c r="Y73">
+        <v>21</v>
+      </c>
+      <c r="AH73">
+        <v>27</v>
+      </c>
+      <c r="AL73">
+        <v>79</v>
+      </c>
+      <c r="AP73">
+        <v>40</v>
+      </c>
+      <c r="AT73">
+        <v>11</v>
+      </c>
+      <c r="AX73">
+        <v>90</v>
+      </c>
+      <c r="BB73">
+        <v>35</v>
+      </c>
+      <c r="BF73">
+        <v>5</v>
+      </c>
+      <c r="BJ73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O74">
         <v>84</v>
       </c>
-    </row>
-    <row r="75" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T74">
+        <v>46</v>
+      </c>
+      <c r="U74">
+        <v>62</v>
+      </c>
+      <c r="Y74">
+        <v>37</v>
+      </c>
+      <c r="AH74">
+        <v>23</v>
+      </c>
+      <c r="AL74">
+        <v>79</v>
+      </c>
+      <c r="AM74">
+        <v>35</v>
+      </c>
+      <c r="AP74">
+        <v>26</v>
+      </c>
+      <c r="AT74">
+        <v>18</v>
+      </c>
+      <c r="AX74">
+        <v>78</v>
+      </c>
+      <c r="BB74">
+        <v>30</v>
+      </c>
+      <c r="BE74" s="2">
+        <v>45415.351388888892</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>25</v>
+      </c>
+      <c r="BJ74">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O75">
         <v>76</v>
       </c>
       <c r="P75">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T75">
+        <v>40</v>
+      </c>
+      <c r="Y75">
+        <v>36</v>
+      </c>
+      <c r="Z75">
+        <v>14</v>
+      </c>
+      <c r="AH75">
+        <v>18</v>
+      </c>
+      <c r="AL75">
+        <v>85</v>
+      </c>
+      <c r="AP75">
+        <v>29</v>
+      </c>
+      <c r="AT75">
+        <v>29</v>
+      </c>
+      <c r="AX75">
+        <v>82</v>
+      </c>
+      <c r="BB75">
+        <v>28</v>
+      </c>
+      <c r="BJ75">
+        <v>32</v>
+      </c>
+      <c r="BK75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O76">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T76">
+        <v>39</v>
+      </c>
+      <c r="Y76">
+        <v>17</v>
+      </c>
+      <c r="AH76">
+        <v>11</v>
+      </c>
+      <c r="AL76">
+        <v>77</v>
+      </c>
+      <c r="AP76">
+        <v>24</v>
+      </c>
+      <c r="AT76">
+        <v>30</v>
+      </c>
+      <c r="AX76">
+        <v>85</v>
+      </c>
+      <c r="AY76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>20</v>
+      </c>
+      <c r="BJ76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T77">
+        <v>32</v>
+      </c>
+      <c r="Y77">
+        <v>32</v>
+      </c>
+      <c r="AH77">
+        <v>15</v>
+      </c>
+      <c r="AL77">
+        <v>71</v>
+      </c>
+      <c r="AP77">
+        <v>32</v>
+      </c>
+      <c r="AT77">
+        <v>25</v>
+      </c>
+      <c r="AX77">
+        <v>92</v>
+      </c>
+      <c r="BB77">
+        <v>11</v>
+      </c>
+      <c r="BJ77">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O78">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <v>35</v>
+      </c>
+      <c r="Y78">
+        <v>19</v>
+      </c>
+      <c r="AH78">
+        <v>21</v>
+      </c>
+      <c r="AL78">
+        <v>54</v>
+      </c>
+      <c r="AM78">
+        <v>69</v>
+      </c>
+      <c r="AP78">
+        <v>25</v>
+      </c>
+      <c r="AQ78">
+        <v>93</v>
+      </c>
+      <c r="AT78">
+        <v>20</v>
+      </c>
+      <c r="AX78">
+        <v>86</v>
+      </c>
+      <c r="BB78">
+        <v>15</v>
+      </c>
+      <c r="BJ78">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O79">
         <v>65</v>
       </c>
       <c r="P79">
         <v>35</v>
       </c>
-    </row>
-    <row r="80" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="T79">
+        <v>36</v>
+      </c>
+      <c r="Y79">
+        <v>25</v>
+      </c>
+      <c r="AH79">
+        <v>8</v>
+      </c>
+      <c r="AL79">
+        <v>42</v>
+      </c>
+      <c r="AP79">
+        <v>23</v>
+      </c>
+      <c r="AT79">
+        <v>13</v>
+      </c>
+      <c r="AX79">
+        <v>76</v>
+      </c>
+      <c r="BB79">
+        <v>23</v>
+      </c>
+      <c r="BC79">
+        <v>16</v>
+      </c>
+      <c r="BJ79">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="15:63" x14ac:dyDescent="0.25">
       <c r="O80">
         <v>42</v>
       </c>
-    </row>
-    <row r="81" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <v>46</v>
+      </c>
+      <c r="Y80">
+        <v>17</v>
+      </c>
+      <c r="AH80">
+        <v>4</v>
+      </c>
+      <c r="AL80">
+        <v>26</v>
+      </c>
+      <c r="AP80">
+        <v>15</v>
+      </c>
+      <c r="AT80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>76</v>
+      </c>
+      <c r="BB80">
+        <v>28</v>
+      </c>
+      <c r="BJ80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O81">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <v>40</v>
+      </c>
+      <c r="U81">
+        <v>62</v>
+      </c>
+      <c r="Y81">
+        <v>36</v>
+      </c>
+      <c r="AH81">
+        <v>6</v>
+      </c>
+      <c r="AL81">
+        <v>16</v>
+      </c>
+      <c r="AM81">
+        <v>87</v>
+      </c>
+      <c r="AP81">
+        <v>23</v>
+      </c>
+      <c r="AS81" s="2">
+        <v>45316.463888888888</v>
+      </c>
+      <c r="AT81">
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <v>33</v>
+      </c>
+      <c r="AX81">
+        <v>75</v>
+      </c>
+      <c r="BB81">
+        <v>26</v>
+      </c>
+      <c r="BJ81">
+        <v>27</v>
+      </c>
+      <c r="BK81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O82">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <v>44</v>
+      </c>
+      <c r="Y82">
+        <v>52</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>45403.71875</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>33</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>14</v>
+      </c>
+      <c r="AX82">
+        <v>63</v>
+      </c>
+      <c r="BB82">
+        <v>26</v>
+      </c>
+      <c r="BJ82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O83">
         <v>21</v>
       </c>
       <c r="P83">
         <v>69</v>
       </c>
-    </row>
-    <row r="84" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <v>38</v>
+      </c>
+      <c r="Y83">
+        <v>62</v>
+      </c>
+      <c r="AL83">
+        <v>15</v>
+      </c>
+      <c r="AO83" s="2">
+        <v>45316.409722222219</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>87</v>
+      </c>
+      <c r="AX83">
+        <v>53</v>
+      </c>
+      <c r="BB83">
+        <v>32</v>
+      </c>
+      <c r="BJ83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O84">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <v>52</v>
+      </c>
+      <c r="Y84">
+        <v>67</v>
+      </c>
+      <c r="Z84">
+        <v>5</v>
+      </c>
+      <c r="AL84">
+        <v>29</v>
+      </c>
+      <c r="AM84">
+        <v>106</v>
+      </c>
+      <c r="AX84">
+        <v>35</v>
+      </c>
+      <c r="AY84">
+        <v>6</v>
+      </c>
+      <c r="BB84">
+        <v>34</v>
+      </c>
+      <c r="BJ84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O85">
         <v>19</v>
       </c>
-    </row>
-    <row r="86" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T85">
+        <v>53</v>
+      </c>
+      <c r="Y85">
+        <v>47</v>
+      </c>
+      <c r="AL85">
+        <v>26</v>
+      </c>
+      <c r="AX85">
+        <v>33</v>
+      </c>
+      <c r="BB85">
+        <v>25</v>
+      </c>
+      <c r="BJ85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O86">
         <v>17</v>
       </c>
       <c r="P86">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <v>47</v>
+      </c>
+      <c r="Y86">
+        <v>35</v>
+      </c>
+      <c r="AL86">
+        <v>10</v>
+      </c>
+      <c r="AX86">
+        <v>23</v>
+      </c>
+      <c r="BB86">
+        <v>22</v>
+      </c>
+      <c r="BC86">
+        <v>21</v>
+      </c>
+      <c r="BJ86">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O87">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T87">
+        <v>39</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="AK87" s="2">
+        <v>45405.772222222222</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>105</v>
+      </c>
+      <c r="AX87">
+        <v>25</v>
+      </c>
+      <c r="BB87">
+        <v>19</v>
+      </c>
+      <c r="BJ87">
+        <v>35</v>
+      </c>
+      <c r="BK87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O88">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T88">
+        <v>41</v>
+      </c>
+      <c r="Y88">
+        <v>12</v>
+      </c>
+      <c r="AX88">
+        <v>25</v>
+      </c>
+      <c r="BB88">
+        <v>13</v>
+      </c>
+      <c r="BJ88">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O89">
         <v>15</v>
       </c>
       <c r="P89">
         <v>106</v>
       </c>
-    </row>
-    <row r="90" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T89">
+        <v>39</v>
+      </c>
+      <c r="U89">
+        <v>60</v>
+      </c>
+      <c r="Y89">
+        <v>30</v>
+      </c>
+      <c r="AX89">
+        <v>27</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BJ89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O90">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T90">
+        <v>41</v>
+      </c>
+      <c r="Y90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>14</v>
+      </c>
+      <c r="BB90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="14:63" x14ac:dyDescent="0.25">
       <c r="O91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="14:16" x14ac:dyDescent="0.3">
+      <c r="T91">
+        <v>39</v>
+      </c>
+      <c r="Y91">
+        <v>20</v>
+      </c>
+      <c r="Z91">
+        <v>8</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>9</v>
+      </c>
+      <c r="BJ91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="14:63" x14ac:dyDescent="0.25">
       <c r="N92" s="2">
         <v>45404.436111111114</v>
       </c>
@@ -1684,9 +4940,270 @@
       <c r="P92">
         <v>105</v>
       </c>
+      <c r="T92">
+        <v>49</v>
+      </c>
+      <c r="Y92">
+        <v>34</v>
+      </c>
+      <c r="AX92">
+        <v>12</v>
+      </c>
+      <c r="BB92">
+        <v>18</v>
+      </c>
+      <c r="BC92">
+        <v>30</v>
+      </c>
+      <c r="BJ92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>43</v>
+      </c>
+      <c r="Y93">
+        <v>30</v>
+      </c>
+      <c r="AX93">
+        <v>22</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="BB93">
+        <v>23</v>
+      </c>
+      <c r="BJ93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>44</v>
+      </c>
+      <c r="Y94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>25</v>
+      </c>
+      <c r="BB94">
+        <v>14</v>
+      </c>
+      <c r="BJ94">
+        <v>9</v>
+      </c>
+      <c r="BK94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>34</v>
+      </c>
+      <c r="Y95">
+        <v>25</v>
+      </c>
+      <c r="AX95">
+        <v>30</v>
+      </c>
+      <c r="BB95">
+        <v>12</v>
+      </c>
+      <c r="BJ95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>28</v>
+      </c>
+      <c r="Y96">
+        <v>29</v>
+      </c>
+      <c r="AX96">
+        <v>26</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BJ96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>16</v>
+      </c>
+      <c r="Y97">
+        <v>38</v>
+      </c>
+      <c r="AX97">
+        <v>37</v>
+      </c>
+      <c r="BB97">
+        <v>4</v>
+      </c>
+      <c r="BJ97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="S98" s="2">
+        <v>45403.496527777781</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>55</v>
+      </c>
+      <c r="Y98">
+        <v>34</v>
+      </c>
+      <c r="Z98">
+        <v>14</v>
+      </c>
+      <c r="AX98">
+        <v>40</v>
+      </c>
+      <c r="BA98" s="2">
+        <v>45408.57916666667</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>33</v>
+      </c>
+      <c r="BJ98">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y99">
+        <v>8</v>
+      </c>
+      <c r="AX99">
+        <v>48</v>
+      </c>
+      <c r="AY99">
+        <v>7</v>
+      </c>
+      <c r="BJ99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="AX100">
+        <v>51</v>
+      </c>
+      <c r="BI100" s="2">
+        <v>45415.695138888892</v>
+      </c>
+      <c r="BJ100">
+        <v>0</v>
+      </c>
+      <c r="BK100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y101">
+        <v>16</v>
+      </c>
+      <c r="AX101">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y102">
+        <v>28</v>
+      </c>
+      <c r="AX102">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y103">
+        <v>20</v>
+      </c>
+      <c r="AX103">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y104">
+        <v>18</v>
+      </c>
+      <c r="AX104">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="Y105">
+        <v>3</v>
+      </c>
+      <c r="AX105">
+        <v>44</v>
+      </c>
+      <c r="AY105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="X106" s="2">
+        <v>45403.570138888892</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>33</v>
+      </c>
+      <c r="AX106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="AX107">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="AX108">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="AX109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="AX110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="AW111" s="2">
+        <v>45408.349305555559</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1694,16 +5211,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2FFE21-32A3-48D3-A200-B8DF12067F87}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
+    <sheetView topLeftCell="A186" workbookViewId="0">
       <selection activeCell="D150" activeCellId="1" sqref="C104:C149 D150:E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -1728,27 +5245,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14.8</v>
       </c>
@@ -1756,27 +5273,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>42.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>25.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>23.47</v>
       </c>
@@ -1784,32 +5301,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>35.35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>35.82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>30.38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>41.18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>25.8</v>
       </c>
@@ -1817,27 +5334,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>28.86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>31.21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.78</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18.2</v>
       </c>
@@ -1845,27 +5362,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>12.85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>27.55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>18.47</v>
       </c>
@@ -1873,22 +5390,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>14.96</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>30.42</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>20.48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>4.25</v>
       </c>
@@ -1896,22 +5413,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>5.29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10.27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>22.25</v>
       </c>
@@ -1919,17 +5436,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>23.45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7</v>
       </c>
@@ -1937,17 +5454,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9.48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>10.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3.74</v>
       </c>
@@ -1955,12 +5472,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -1971,7 +5488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45387.782638888886</v>
       </c>
@@ -1985,19 +5502,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46">
         <v>6.98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48">
         <v>10.48</v>
@@ -2006,25 +5523,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49">
         <v>17.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50">
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51">
         <v>12.82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52">
         <v>20.95</v>
@@ -2033,19 +5550,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54">
         <v>4.93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55">
         <v>8.7799999999999994</v>
@@ -2054,19 +5571,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56">
         <v>17.88</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57">
         <v>23.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58">
         <v>14.29</v>
@@ -2075,25 +5592,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59">
         <v>23.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61">
         <v>21.67</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62">
         <v>6</v>
@@ -2102,19 +5619,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63">
         <v>7.42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65">
         <v>32.36</v>
@@ -2123,19 +5640,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66">
         <v>10.33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67">
         <v>1.66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68">
         <v>20.16</v>
@@ -2144,19 +5661,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69">
         <v>37.65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70">
         <v>32.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71">
         <v>31.28</v>
@@ -2165,25 +5682,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72">
         <v>28.66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73">
         <v>26.14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74">
         <v>27.18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75">
         <v>19</v>
@@ -2192,25 +5709,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77">
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78">
         <v>13.35</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79">
         <v>0</v>
@@ -2219,37 +5736,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81">
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82">
         <v>25.63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83">
         <v>14.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84">
         <v>5.3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85">
         <v>3</v>
@@ -2258,25 +5775,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86">
         <v>5.58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87">
         <v>5.95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88">
         <v>16.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89">
         <v>18.8</v>
@@ -2285,31 +5802,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90">
         <v>21.92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91">
         <v>23.51</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92">
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93">
         <v>3.13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94">
         <v>7.96</v>
@@ -2318,31 +5835,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95">
         <v>14.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96">
         <v>22.21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97">
         <v>18.45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98">
         <v>11.63</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99">
         <v>8.86</v>
@@ -2351,25 +5868,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100">
         <v>5.48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101">
         <v>3.48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102">
         <v>1.66</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -2380,7 +5897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45388.387499999997</v>
       </c>
@@ -2394,27 +5911,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2.92</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>20.41</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>27.29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>24.39</v>
       </c>
@@ -2422,12 +5939,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>32.22</v>
       </c>
@@ -2435,12 +5952,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>40.32</v>
       </c>
@@ -2448,12 +5965,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>88.45</v>
       </c>
@@ -2461,12 +5978,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>91.08</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>100.75</v>
       </c>
@@ -2474,17 +5991,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>101.53</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>82.8</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>102.91</v>
       </c>
@@ -2492,17 +6009,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>104.68</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>106.42</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>108.22</v>
       </c>
@@ -2510,12 +6027,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>93.76</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>108.48</v>
       </c>
@@ -2523,12 +6040,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>69.3</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>112.01</v>
       </c>
@@ -2536,12 +6053,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>95.2</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>48.35</v>
       </c>
@@ -2549,12 +6066,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>6.19</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>0</v>
       </c>
@@ -2562,17 +6079,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>3.06</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>31.65</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>23.53</v>
       </c>
@@ -2580,17 +6097,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>15.77</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>22.39</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>54.23</v>
       </c>
@@ -2598,17 +6115,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>93.95</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>78.319999999999993</v>
       </c>
@@ -2616,17 +6133,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>77.47</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>50.91</v>
       </c>
@@ -2634,17 +6151,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>24.35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>20</v>
       </c>
@@ -2652,17 +6169,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45388.418055555558</v>
       </c>
@@ -2673,7 +6190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45388.427083333336</v>
       </c>
@@ -2687,17 +6204,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>9.32</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>9.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>16.28</v>
       </c>
@@ -2705,17 +6222,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>48.78</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>81</v>
       </c>
@@ -2723,17 +6240,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>103.51</v>
       </c>
@@ -2741,17 +6258,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>92.5</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>87.92</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>65.88</v>
       </c>
@@ -2759,17 +6276,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>43.84</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>35.4</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>32</v>
       </c>
@@ -2777,17 +6294,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>35</v>
       </c>
@@ -2795,12 +6312,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>37.35</v>
       </c>
@@ -2808,12 +6325,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>70.19</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>104.87</v>
       </c>
@@ -2821,12 +6338,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>110.56</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>112.69</v>
       </c>
@@ -2834,12 +6351,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>112.6</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>88.32</v>
       </c>
@@ -2847,17 +6364,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>95.29</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>66.155000000000001</v>
       </c>
@@ -2865,17 +6382,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>34.35</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>72.72</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>96.325500000000005</v>
       </c>
@@ -2883,12 +6400,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>119.91</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>125.93</v>
       </c>
@@ -2896,12 +6413,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>116.95</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>110.53</v>
       </c>
@@ -2909,17 +6426,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>104.7</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>102.6</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>89.31</v>
       </c>
@@ -2927,22 +6444,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>96.93</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>70.84</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>72.94</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>78.2</v>
       </c>
@@ -2950,22 +6467,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>76.38</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>68.650000000000006</v>
       </c>
@@ -2973,12 +6490,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>38.65</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>9.25</v>
       </c>
@@ -2986,27 +6503,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>30.852</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>17.667999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>4.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>45388.477083333331</v>
       </c>
@@ -3030,9 +6547,9 @@
       <selection sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>105</v>
       </c>
@@ -3040,17 +6557,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>106</v>
       </c>
@@ -3058,17 +6575,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>87</v>
       </c>
@@ -3076,17 +6593,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>69</v>
       </c>
@@ -3094,17 +6611,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -3112,17 +6629,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -3130,17 +6647,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -3148,12 +6665,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61</v>
       </c>
@@ -3161,12 +6678,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>91</v>
       </c>
@@ -3174,12 +6691,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>125</v>
       </c>
@@ -3187,12 +6704,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -3200,17 +6717,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -3218,17 +6735,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3236,12 +6753,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -3249,12 +6766,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3262,12 +6779,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
@@ -3275,12 +6792,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -3288,27 +6805,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>33</v>
       </c>

--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Python_developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A5D6A-8038-4C62-A956-979D3BF99651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463626D-772F-41C6-A436-B044A00E2F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>
@@ -66,12 +66,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,10 +98,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE7F70-79B8-4603-BB09-D0163447E869}">
-  <dimension ref="A1:DZ111"/>
+  <dimension ref="A1:CW159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP66" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1:BK100"/>
+    <sheetView tabSelected="1" topLeftCell="CI123" workbookViewId="0">
+      <selection activeCell="DB131" sqref="DB131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +444,19 @@
     <col min="53" max="53" width="15.85546875" customWidth="1"/>
     <col min="57" max="57" width="16.85546875" customWidth="1"/>
     <col min="61" max="61" width="21.140625" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.85546875" customWidth="1"/>
+    <col min="79" max="79" width="16.42578125" customWidth="1"/>
+    <col min="83" max="83" width="16.140625" customWidth="1"/>
+    <col min="87" max="87" width="17.28515625" customWidth="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1"/>
+    <col min="95" max="95" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -461,13 +487,13 @@
       <c r="L1">
         <v>0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="5">
         <v>45402.394444444442</v>
       </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
+      <c r="O1" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1" s="6">
         <v>33</v>
       </c>
       <c r="S1" s="2">
@@ -533,19 +559,20 @@
       <c r="AU1">
         <v>87</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="3">
         <v>45408.337500000001</v>
       </c>
-      <c r="AX1">
-        <v>0</v>
-      </c>
-      <c r="AY1">
+      <c r="AX1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="4">
         <v>33</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="3">
         <v>45408.568055555559</v>
       </c>
-      <c r="BB1">
+      <c r="BB1" s="4">
         <v>0</v>
       </c>
       <c r="BC1">
@@ -570,30 +597,90 @@
         <v>33</v>
       </c>
       <c r="BL1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BR1" s="2"/>
+      <c r="BM1" s="2">
+        <v>45415.697916666664</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>7</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>45416.48333333333</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>33</v>
+      </c>
       <c r="BU1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DZ1" s="2"/>
-    </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BV1" s="2">
+        <v>45416.588888888888</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>177</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>45422.332638888889</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="4">
+        <v>33</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>45422.568055555559</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>7</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>45427.331944444442</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1" s="4">
+        <v>33</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>45427.734722222223</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>7</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>45428.769444444442</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1" s="6">
+        <v>33</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>45428.805555555555</v>
+      </c>
+      <c r="CV1">
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>20.8</v>
       </c>
@@ -642,8 +729,35 @@
       <c r="BJ2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>2</v>
+      </c>
+      <c r="BW2">
+        <v>6</v>
+      </c>
+      <c r="CB2">
+        <v>4</v>
+      </c>
+      <c r="CF2">
+        <v>7</v>
+      </c>
+      <c r="CJ2">
+        <v>4</v>
+      </c>
+      <c r="CN2">
+        <v>4</v>
+      </c>
+      <c r="CR2">
+        <v>4</v>
+      </c>
+      <c r="CV2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7.31</v>
       </c>
@@ -692,8 +806,35 @@
       <c r="BJ3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN3">
+        <v>10</v>
+      </c>
+      <c r="BR3">
+        <v>8</v>
+      </c>
+      <c r="BW3">
+        <v>6</v>
+      </c>
+      <c r="CB3">
+        <v>11</v>
+      </c>
+      <c r="CF3">
+        <v>9</v>
+      </c>
+      <c r="CJ3">
+        <v>7</v>
+      </c>
+      <c r="CN3">
+        <v>16</v>
+      </c>
+      <c r="CR3">
+        <v>12</v>
+      </c>
+      <c r="CV3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.3380000000000001</v>
       </c>
@@ -745,8 +886,35 @@
       <c r="BJ4">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN4">
+        <v>5</v>
+      </c>
+      <c r="BR4">
+        <v>17</v>
+      </c>
+      <c r="BW4">
+        <v>9</v>
+      </c>
+      <c r="CB4">
+        <v>17</v>
+      </c>
+      <c r="CF4">
+        <v>14</v>
+      </c>
+      <c r="CJ4">
+        <v>10</v>
+      </c>
+      <c r="CN4">
+        <v>24</v>
+      </c>
+      <c r="CR4">
+        <v>18</v>
+      </c>
+      <c r="CV4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.56</v>
       </c>
@@ -795,8 +963,35 @@
       <c r="BJ5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN5">
+        <v>23</v>
+      </c>
+      <c r="BR5">
+        <v>8</v>
+      </c>
+      <c r="BW5">
+        <v>12</v>
+      </c>
+      <c r="CB5">
+        <v>15</v>
+      </c>
+      <c r="CF5">
+        <v>28</v>
+      </c>
+      <c r="CJ5">
+        <v>12</v>
+      </c>
+      <c r="CN5">
+        <v>28</v>
+      </c>
+      <c r="CR5">
+        <v>21</v>
+      </c>
+      <c r="CV5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.8</v>
       </c>
@@ -856,8 +1051,35 @@
       <c r="BJ6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN6">
+        <v>28</v>
+      </c>
+      <c r="BR6">
+        <v>18</v>
+      </c>
+      <c r="BW6">
+        <v>6</v>
+      </c>
+      <c r="CB6">
+        <v>21</v>
+      </c>
+      <c r="CF6">
+        <v>42</v>
+      </c>
+      <c r="CJ6">
+        <v>18</v>
+      </c>
+      <c r="CN6">
+        <v>32</v>
+      </c>
+      <c r="CR6">
+        <v>17</v>
+      </c>
+      <c r="CV6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>25.8</v>
       </c>
@@ -912,8 +1134,38 @@
       <c r="BJ7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN7">
+        <v>30</v>
+      </c>
+      <c r="BR7">
+        <v>17</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>166</v>
+      </c>
+      <c r="CB7">
+        <v>16</v>
+      </c>
+      <c r="CF7">
+        <v>48</v>
+      </c>
+      <c r="CJ7">
+        <v>19</v>
+      </c>
+      <c r="CN7">
+        <v>41</v>
+      </c>
+      <c r="CR7">
+        <v>12</v>
+      </c>
+      <c r="CV7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -971,8 +1223,35 @@
       <c r="BJ8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN8">
+        <v>8</v>
+      </c>
+      <c r="BR8">
+        <v>19</v>
+      </c>
+      <c r="BW8">
+        <v>18</v>
+      </c>
+      <c r="CB8">
+        <v>15</v>
+      </c>
+      <c r="CF8">
+        <v>41</v>
+      </c>
+      <c r="CJ8">
+        <v>18</v>
+      </c>
+      <c r="CN8">
+        <v>45</v>
+      </c>
+      <c r="CR8">
+        <v>10</v>
+      </c>
+      <c r="CV8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>42.5</v>
       </c>
@@ -1027,8 +1306,53 @@
       <c r="BJ9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN9">
+        <v>9</v>
+      </c>
+      <c r="BO9">
+        <v>7</v>
+      </c>
+      <c r="BR9">
+        <v>16</v>
+      </c>
+      <c r="BW9">
+        <v>22</v>
+      </c>
+      <c r="CB9">
+        <v>15</v>
+      </c>
+      <c r="CF9">
+        <v>39</v>
+      </c>
+      <c r="CG9">
+        <v>7</v>
+      </c>
+      <c r="CJ9">
+        <v>15</v>
+      </c>
+      <c r="CK9">
+        <v>30</v>
+      </c>
+      <c r="CN9">
+        <v>47</v>
+      </c>
+      <c r="CO9">
+        <v>7</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>30</v>
+      </c>
+      <c r="CV9">
+        <v>17</v>
+      </c>
+      <c r="CW9">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>25.9</v>
       </c>
@@ -1077,8 +1401,35 @@
       <c r="BJ10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN10">
+        <v>2</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>23</v>
+      </c>
+      <c r="CB10">
+        <v>21</v>
+      </c>
+      <c r="CF10">
+        <v>37</v>
+      </c>
+      <c r="CJ10">
+        <v>24</v>
+      </c>
+      <c r="CN10">
+        <v>44</v>
+      </c>
+      <c r="CR10">
+        <v>10</v>
+      </c>
+      <c r="CV10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>23.47</v>
       </c>
@@ -1133,8 +1484,38 @@
       <c r="BJ11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN11">
+        <v>12</v>
+      </c>
+      <c r="BR11">
+        <v>9</v>
+      </c>
+      <c r="BS11">
+        <v>27</v>
+      </c>
+      <c r="BW11">
+        <v>32</v>
+      </c>
+      <c r="CB11">
+        <v>22</v>
+      </c>
+      <c r="CF11">
+        <v>38</v>
+      </c>
+      <c r="CJ11">
+        <v>20</v>
+      </c>
+      <c r="CN11">
+        <v>38</v>
+      </c>
+      <c r="CR11">
+        <v>19</v>
+      </c>
+      <c r="CV11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>35.35</v>
       </c>
@@ -1185,8 +1566,35 @@
       <c r="BJ12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN12">
+        <v>5</v>
+      </c>
+      <c r="BR12">
+        <v>15</v>
+      </c>
+      <c r="BW12">
+        <v>31</v>
+      </c>
+      <c r="CB12">
+        <v>18</v>
+      </c>
+      <c r="CF12">
+        <v>30</v>
+      </c>
+      <c r="CJ12">
+        <v>24</v>
+      </c>
+      <c r="CN12">
+        <v>33</v>
+      </c>
+      <c r="CR12">
+        <v>24</v>
+      </c>
+      <c r="CV12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>35.82</v>
       </c>
@@ -1235,8 +1643,35 @@
       <c r="BJ13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN13">
+        <v>3</v>
+      </c>
+      <c r="BR13">
+        <v>15</v>
+      </c>
+      <c r="BW13">
+        <v>24</v>
+      </c>
+      <c r="CB13">
+        <v>12</v>
+      </c>
+      <c r="CF13">
+        <v>21</v>
+      </c>
+      <c r="CJ13">
+        <v>24</v>
+      </c>
+      <c r="CN13">
+        <v>27</v>
+      </c>
+      <c r="CR13">
+        <v>31</v>
+      </c>
+      <c r="CV13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1306,8 +1741,35 @@
       <c r="BJ14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN14">
+        <v>4</v>
+      </c>
+      <c r="BR14">
+        <v>3</v>
+      </c>
+      <c r="BW14">
+        <v>22</v>
+      </c>
+      <c r="CB14">
+        <v>19</v>
+      </c>
+      <c r="CF14">
+        <v>20</v>
+      </c>
+      <c r="CJ14">
+        <v>20</v>
+      </c>
+      <c r="CN14">
+        <v>23</v>
+      </c>
+      <c r="CR14">
+        <v>25</v>
+      </c>
+      <c r="CV14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>30.38</v>
       </c>
@@ -1359,8 +1821,38 @@
       <c r="BJ15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="BN15">
+        <v>5</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BW15">
+        <v>19</v>
+      </c>
+      <c r="CB15">
+        <v>21</v>
+      </c>
+      <c r="CF15">
+        <v>10</v>
+      </c>
+      <c r="CJ15">
+        <v>4</v>
+      </c>
+      <c r="CN15">
+        <v>14</v>
+      </c>
+      <c r="CR15">
+        <v>10</v>
+      </c>
+      <c r="CS15">
+        <v>27</v>
+      </c>
+      <c r="CV15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>41.18</v>
       </c>
@@ -1412,8 +1904,38 @@
       <c r="BJ16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN16">
+        <v>4</v>
+      </c>
+      <c r="BR16">
+        <v>13</v>
+      </c>
+      <c r="BW16">
+        <v>30</v>
+      </c>
+      <c r="CB16">
+        <v>19</v>
+      </c>
+      <c r="CC16">
+        <v>30</v>
+      </c>
+      <c r="CF16">
+        <v>6</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>5</v>
+      </c>
+      <c r="CR16">
+        <v>4</v>
+      </c>
+      <c r="CV16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25.8</v>
       </c>
@@ -1468,8 +1990,38 @@
       <c r="BJ17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN17">
+        <v>9</v>
+      </c>
+      <c r="BR17">
+        <v>16</v>
+      </c>
+      <c r="BW17">
+        <v>17</v>
+      </c>
+      <c r="CB17">
+        <v>17</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>13</v>
+      </c>
+      <c r="CN17">
+        <v>8</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>28.86</v>
       </c>
@@ -1527,8 +2079,44 @@
       <c r="BJ18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN18">
+        <v>3</v>
+      </c>
+      <c r="BO18">
+        <v>7</v>
+      </c>
+      <c r="BR18">
+        <v>25</v>
+      </c>
+      <c r="BW18">
+        <v>20</v>
+      </c>
+      <c r="CB18">
+        <v>9</v>
+      </c>
+      <c r="CF18">
+        <v>4</v>
+      </c>
+      <c r="CG18">
+        <v>7</v>
+      </c>
+      <c r="CJ18">
+        <v>27</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>7</v>
+      </c>
+      <c r="CR18">
+        <v>6</v>
+      </c>
+      <c r="CV18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>38.799999999999997</v>
       </c>
@@ -1577,8 +2165,38 @@
       <c r="BJ19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN19">
+        <v>9</v>
+      </c>
+      <c r="BR19">
+        <v>21</v>
+      </c>
+      <c r="BW19">
+        <v>26</v>
+      </c>
+      <c r="CB19">
+        <v>14</v>
+      </c>
+      <c r="CF19">
+        <v>10</v>
+      </c>
+      <c r="CJ19">
+        <v>20</v>
+      </c>
+      <c r="CK19">
+        <v>21</v>
+      </c>
+      <c r="CN19">
+        <v>5</v>
+      </c>
+      <c r="CR19">
+        <v>21</v>
+      </c>
+      <c r="CV19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>31.21</v>
       </c>
@@ -1630,8 +2248,35 @@
       <c r="BJ20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN20">
+        <v>3</v>
+      </c>
+      <c r="BR20">
+        <v>19</v>
+      </c>
+      <c r="BW20">
+        <v>34</v>
+      </c>
+      <c r="CB20">
+        <v>26</v>
+      </c>
+      <c r="CF20">
+        <v>15</v>
+      </c>
+      <c r="CJ20">
+        <v>9</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>17</v>
+      </c>
+      <c r="CV20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.78</v>
       </c>
@@ -1686,8 +2331,35 @@
       <c r="BJ21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>7</v>
+      </c>
+      <c r="BW21">
+        <v>36</v>
+      </c>
+      <c r="CB21">
+        <v>24</v>
+      </c>
+      <c r="CF21">
+        <v>32</v>
+      </c>
+      <c r="CJ21">
+        <v>6</v>
+      </c>
+      <c r="CN21">
+        <v>16</v>
+      </c>
+      <c r="CR21">
+        <v>22</v>
+      </c>
+      <c r="CV21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18.2</v>
       </c>
@@ -1745,8 +2417,41 @@
       <c r="BK22">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN22">
+        <v>9</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>22</v>
+      </c>
+      <c r="BW22">
+        <v>44</v>
+      </c>
+      <c r="BX22">
+        <v>141</v>
+      </c>
+      <c r="CB22">
+        <v>28</v>
+      </c>
+      <c r="CF22">
+        <v>48</v>
+      </c>
+      <c r="CJ22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>22</v>
+      </c>
+      <c r="CR22">
+        <v>15</v>
+      </c>
+      <c r="CV22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>12.85</v>
       </c>
@@ -1801,8 +2506,38 @@
       <c r="BJ23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN23">
+        <v>5</v>
+      </c>
+      <c r="BR23">
+        <v>10</v>
+      </c>
+      <c r="BW23">
+        <v>53</v>
+      </c>
+      <c r="CB23">
+        <v>24</v>
+      </c>
+      <c r="CF23">
+        <v>56</v>
+      </c>
+      <c r="CJ23">
+        <v>6</v>
+      </c>
+      <c r="CN23">
+        <v>34</v>
+      </c>
+      <c r="CR23">
+        <v>19</v>
+      </c>
+      <c r="CS23">
+        <v>20</v>
+      </c>
+      <c r="CV23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>27.55</v>
       </c>
@@ -1860,8 +2595,35 @@
       <c r="BJ24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN24">
+        <v>3</v>
+      </c>
+      <c r="BR24">
+        <v>17</v>
+      </c>
+      <c r="BW24">
+        <v>63</v>
+      </c>
+      <c r="CB24">
+        <v>19</v>
+      </c>
+      <c r="CF24">
+        <v>66</v>
+      </c>
+      <c r="CJ24">
+        <v>11</v>
+      </c>
+      <c r="CN24">
+        <v>50</v>
+      </c>
+      <c r="CR24">
+        <v>29</v>
+      </c>
+      <c r="CV24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1916,8 +2678,35 @@
       <c r="BJ25">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN25">
+        <v>6</v>
+      </c>
+      <c r="BR25">
+        <v>19</v>
+      </c>
+      <c r="BW25">
+        <v>71</v>
+      </c>
+      <c r="CB25">
+        <v>16</v>
+      </c>
+      <c r="CF25">
+        <v>70</v>
+      </c>
+      <c r="CJ25">
+        <v>18</v>
+      </c>
+      <c r="CN25">
+        <v>64</v>
+      </c>
+      <c r="CR25">
+        <v>32</v>
+      </c>
+      <c r="CV25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>14.4</v>
       </c>
@@ -1972,8 +2761,41 @@
       <c r="BJ26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN26">
+        <v>6</v>
+      </c>
+      <c r="BR26">
+        <v>5</v>
+      </c>
+      <c r="BS26">
+        <v>20</v>
+      </c>
+      <c r="BW26">
+        <v>83</v>
+      </c>
+      <c r="CB26">
+        <v>13</v>
+      </c>
+      <c r="CC26">
+        <v>21</v>
+      </c>
+      <c r="CF26">
+        <v>75</v>
+      </c>
+      <c r="CJ26">
+        <v>12</v>
+      </c>
+      <c r="CN26">
+        <v>66</v>
+      </c>
+      <c r="CR26">
+        <v>25</v>
+      </c>
+      <c r="CV26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18.47</v>
       </c>
@@ -2034,8 +2856,38 @@
       <c r="BJ27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN27">
+        <v>5</v>
+      </c>
+      <c r="BR27">
+        <v>22</v>
+      </c>
+      <c r="BW27">
+        <v>86</v>
+      </c>
+      <c r="CB27">
+        <v>16</v>
+      </c>
+      <c r="CF27">
+        <v>80</v>
+      </c>
+      <c r="CJ27">
+        <v>8</v>
+      </c>
+      <c r="CN27">
+        <v>70</v>
+      </c>
+      <c r="CR27">
+        <v>31</v>
+      </c>
+      <c r="CV27">
+        <v>30</v>
+      </c>
+      <c r="CW27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>14.96</v>
       </c>
@@ -2093,8 +2945,35 @@
       <c r="BK28">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BR28">
+        <v>29</v>
+      </c>
+      <c r="BW28">
+        <v>91</v>
+      </c>
+      <c r="CB28">
+        <v>17</v>
+      </c>
+      <c r="CF28">
+        <v>81</v>
+      </c>
+      <c r="CJ28">
+        <v>0</v>
+      </c>
+      <c r="CN28">
+        <v>83</v>
+      </c>
+      <c r="CR28">
+        <v>26</v>
+      </c>
+      <c r="CV28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>30.42</v>
       </c>
@@ -2149,8 +3028,44 @@
       <c r="BJ29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN29">
+        <v>6</v>
+      </c>
+      <c r="BO29">
+        <v>8</v>
+      </c>
+      <c r="BR29">
+        <v>27</v>
+      </c>
+      <c r="BW29">
+        <v>89</v>
+      </c>
+      <c r="CB29">
+        <v>16</v>
+      </c>
+      <c r="CF29">
+        <v>79</v>
+      </c>
+      <c r="CG29">
+        <v>8</v>
+      </c>
+      <c r="CJ29">
+        <v>11</v>
+      </c>
+      <c r="CN29">
+        <v>87</v>
+      </c>
+      <c r="CO29">
+        <v>8</v>
+      </c>
+      <c r="CR29">
+        <v>32</v>
+      </c>
+      <c r="CV29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20.48</v>
       </c>
@@ -2205,8 +3120,35 @@
       <c r="BJ30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN30">
+        <v>2</v>
+      </c>
+      <c r="BR30">
+        <v>19</v>
+      </c>
+      <c r="BW30">
+        <v>87</v>
+      </c>
+      <c r="CB30">
+        <v>10</v>
+      </c>
+      <c r="CF30">
+        <v>77</v>
+      </c>
+      <c r="CJ30">
+        <v>18</v>
+      </c>
+      <c r="CN30">
+        <v>79</v>
+      </c>
+      <c r="CR30">
+        <v>22</v>
+      </c>
+      <c r="CV30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>4.25</v>
       </c>
@@ -2261,8 +3203,35 @@
       <c r="BJ31">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="BN31">
+        <v>10</v>
+      </c>
+      <c r="BR31">
+        <v>14</v>
+      </c>
+      <c r="BW31">
+        <v>92</v>
+      </c>
+      <c r="CB31">
+        <v>19</v>
+      </c>
+      <c r="CF31">
+        <v>75</v>
+      </c>
+      <c r="CJ31">
+        <v>15</v>
+      </c>
+      <c r="CN31">
+        <v>73</v>
+      </c>
+      <c r="CR31">
+        <v>6</v>
+      </c>
+      <c r="CV31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:101" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>5.29</v>
       </c>
@@ -2311,8 +3280,41 @@
       <c r="BJ32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN32">
+        <v>14</v>
+      </c>
+      <c r="BR32">
+        <v>6</v>
+      </c>
+      <c r="BS32">
+        <v>19</v>
+      </c>
+      <c r="BW32">
+        <v>87</v>
+      </c>
+      <c r="CB32">
+        <v>16</v>
+      </c>
+      <c r="CF32">
+        <v>66</v>
+      </c>
+      <c r="CJ32">
+        <v>11</v>
+      </c>
+      <c r="CN32">
+        <v>67</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>19</v>
+      </c>
+      <c r="CV32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10.27</v>
       </c>
@@ -2361,8 +3363,38 @@
       <c r="BJ33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN33">
+        <v>27</v>
+      </c>
+      <c r="BR33">
+        <v>4</v>
+      </c>
+      <c r="BW33">
+        <v>86</v>
+      </c>
+      <c r="BX33">
+        <v>105</v>
+      </c>
+      <c r="CB33">
+        <v>14</v>
+      </c>
+      <c r="CF33">
+        <v>71</v>
+      </c>
+      <c r="CJ33">
+        <v>6</v>
+      </c>
+      <c r="CN33">
+        <v>75</v>
+      </c>
+      <c r="CR33">
+        <v>12</v>
+      </c>
+      <c r="CV33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>13.45</v>
       </c>
@@ -2417,8 +3449,35 @@
       <c r="BJ34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN34">
+        <v>30</v>
+      </c>
+      <c r="BR34">
+        <v>7</v>
+      </c>
+      <c r="BW34">
+        <v>84</v>
+      </c>
+      <c r="CB34">
+        <v>25</v>
+      </c>
+      <c r="CF34">
+        <v>71</v>
+      </c>
+      <c r="CJ34">
+        <v>0</v>
+      </c>
+      <c r="CN34">
+        <v>67</v>
+      </c>
+      <c r="CR34">
+        <v>26</v>
+      </c>
+      <c r="CV34">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>22.25</v>
       </c>
@@ -2479,8 +3538,41 @@
       <c r="BJ35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN35">
+        <v>33</v>
+      </c>
+      <c r="BR35">
+        <v>28</v>
+      </c>
+      <c r="BW35">
+        <v>77</v>
+      </c>
+      <c r="CB35">
+        <v>35</v>
+      </c>
+      <c r="CF35">
+        <v>68</v>
+      </c>
+      <c r="CJ35">
+        <v>12</v>
+      </c>
+      <c r="CK35">
+        <v>2</v>
+      </c>
+      <c r="CN35">
+        <v>69</v>
+      </c>
+      <c r="CR35">
+        <v>37</v>
+      </c>
+      <c r="CV35">
+        <v>50</v>
+      </c>
+      <c r="CW35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>23.45</v>
       </c>
@@ -2535,8 +3627,35 @@
       <c r="BJ36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN36">
+        <v>40</v>
+      </c>
+      <c r="BR36">
+        <v>29</v>
+      </c>
+      <c r="BW36">
+        <v>75</v>
+      </c>
+      <c r="CB36">
+        <v>39</v>
+      </c>
+      <c r="CF36">
+        <v>73</v>
+      </c>
+      <c r="CJ36">
+        <v>21</v>
+      </c>
+      <c r="CN36">
+        <v>63</v>
+      </c>
+      <c r="CR36">
+        <v>41</v>
+      </c>
+      <c r="CV36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>21.49</v>
       </c>
@@ -2588,8 +3707,35 @@
       <c r="BJ37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN37">
+        <v>35</v>
+      </c>
+      <c r="BR37">
+        <v>11</v>
+      </c>
+      <c r="BW37">
+        <v>63</v>
+      </c>
+      <c r="CB37">
+        <v>35</v>
+      </c>
+      <c r="CF37">
+        <v>74</v>
+      </c>
+      <c r="CJ37">
+        <v>26</v>
+      </c>
+      <c r="CN37">
+        <v>73</v>
+      </c>
+      <c r="CR37">
+        <v>49</v>
+      </c>
+      <c r="CV37">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7</v>
       </c>
@@ -2641,8 +3787,35 @@
       <c r="BJ38">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN38">
+        <v>31</v>
+      </c>
+      <c r="BR38">
+        <v>22</v>
+      </c>
+      <c r="BW38">
+        <v>59</v>
+      </c>
+      <c r="CB38">
+        <v>32</v>
+      </c>
+      <c r="CF38">
+        <v>79</v>
+      </c>
+      <c r="CJ38">
+        <v>20</v>
+      </c>
+      <c r="CN38">
+        <v>72</v>
+      </c>
+      <c r="CR38">
+        <v>57</v>
+      </c>
+      <c r="CV38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.48</v>
       </c>
@@ -2691,8 +3864,35 @@
       <c r="BJ39">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN39">
+        <v>27</v>
+      </c>
+      <c r="BR39">
+        <v>23</v>
+      </c>
+      <c r="BW39">
+        <v>64</v>
+      </c>
+      <c r="CB39">
+        <v>13</v>
+      </c>
+      <c r="CF39">
+        <v>71</v>
+      </c>
+      <c r="CJ39">
+        <v>10</v>
+      </c>
+      <c r="CN39">
+        <v>72</v>
+      </c>
+      <c r="CR39">
+        <v>62</v>
+      </c>
+      <c r="CV39">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10.45</v>
       </c>
@@ -2741,8 +3941,35 @@
       <c r="BJ40">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN40">
+        <v>18</v>
+      </c>
+      <c r="BR40">
+        <v>21</v>
+      </c>
+      <c r="BW40">
+        <v>74</v>
+      </c>
+      <c r="CB40">
+        <v>19</v>
+      </c>
+      <c r="CF40">
+        <v>65</v>
+      </c>
+      <c r="CJ40">
+        <v>7</v>
+      </c>
+      <c r="CN40">
+        <v>66</v>
+      </c>
+      <c r="CR40">
+        <v>44</v>
+      </c>
+      <c r="CV40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3.74</v>
       </c>
@@ -2797,8 +4024,35 @@
       <c r="BJ41">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN41">
+        <v>9</v>
+      </c>
+      <c r="BR41">
+        <v>29</v>
+      </c>
+      <c r="BW41">
+        <v>69</v>
+      </c>
+      <c r="CB41">
+        <v>24</v>
+      </c>
+      <c r="CF41">
+        <v>63</v>
+      </c>
+      <c r="CJ41">
+        <v>18</v>
+      </c>
+      <c r="CN41">
+        <v>75</v>
+      </c>
+      <c r="CR41">
+        <v>32</v>
+      </c>
+      <c r="CV41">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.66</v>
       </c>
@@ -2856,8 +4110,53 @@
       <c r="BJ42">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN42">
+        <v>26</v>
+      </c>
+      <c r="BO42">
+        <v>8</v>
+      </c>
+      <c r="BR42">
+        <v>24</v>
+      </c>
+      <c r="BW42">
+        <v>64</v>
+      </c>
+      <c r="CB42">
+        <v>24</v>
+      </c>
+      <c r="CC42">
+        <v>2</v>
+      </c>
+      <c r="CF42">
+        <v>62</v>
+      </c>
+      <c r="CG42">
+        <v>8</v>
+      </c>
+      <c r="CJ42">
+        <v>26</v>
+      </c>
+      <c r="CK42">
+        <v>5</v>
+      </c>
+      <c r="CN42">
+        <v>80</v>
+      </c>
+      <c r="CO42">
+        <v>8</v>
+      </c>
+      <c r="CR42">
+        <v>11</v>
+      </c>
+      <c r="CV42">
+        <v>73</v>
+      </c>
+      <c r="CW42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -2918,8 +4217,38 @@
       <c r="BJ43">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN43">
+        <v>29</v>
+      </c>
+      <c r="BR43">
+        <v>16</v>
+      </c>
+      <c r="BW43">
+        <v>74</v>
+      </c>
+      <c r="CB43">
+        <v>30</v>
+      </c>
+      <c r="CF43">
+        <v>65</v>
+      </c>
+      <c r="CJ43">
+        <v>37</v>
+      </c>
+      <c r="CN43">
+        <v>79</v>
+      </c>
+      <c r="CR43">
+        <v>0</v>
+      </c>
+      <c r="CS43">
+        <v>2</v>
+      </c>
+      <c r="CV43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>16.8</v>
       </c>
@@ -2971,8 +4300,38 @@
       <c r="BJ44">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN44">
+        <v>33</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>17</v>
+      </c>
+      <c r="BW44">
+        <v>80</v>
+      </c>
+      <c r="CB44">
+        <v>27</v>
+      </c>
+      <c r="CF44">
+        <v>68</v>
+      </c>
+      <c r="CJ44">
+        <v>30</v>
+      </c>
+      <c r="CN44">
+        <v>83</v>
+      </c>
+      <c r="CR44">
+        <v>10</v>
+      </c>
+      <c r="CV44">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>21</v>
       </c>
@@ -3030,8 +4389,38 @@
       <c r="BJ45">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN45">
+        <v>38</v>
+      </c>
+      <c r="BR45">
+        <v>7</v>
+      </c>
+      <c r="BW45">
+        <v>90</v>
+      </c>
+      <c r="BX45">
+        <v>70</v>
+      </c>
+      <c r="CB45">
+        <v>22</v>
+      </c>
+      <c r="CF45">
+        <v>69</v>
+      </c>
+      <c r="CJ45">
+        <v>16</v>
+      </c>
+      <c r="CN45">
+        <v>79</v>
+      </c>
+      <c r="CR45">
+        <v>24</v>
+      </c>
+      <c r="CV45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>21.92</v>
       </c>
@@ -3089,8 +4478,35 @@
       <c r="BJ46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN46">
+        <v>44</v>
+      </c>
+      <c r="BR46">
+        <v>17</v>
+      </c>
+      <c r="BW46">
+        <v>85</v>
+      </c>
+      <c r="CB46">
+        <v>26</v>
+      </c>
+      <c r="CF46">
+        <v>66</v>
+      </c>
+      <c r="CJ46">
+        <v>5</v>
+      </c>
+      <c r="CN46">
+        <v>78</v>
+      </c>
+      <c r="CR46">
+        <v>40</v>
+      </c>
+      <c r="CV46">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>23.51</v>
       </c>
@@ -3133,8 +4549,35 @@
       <c r="BJ47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BN47">
+        <v>41</v>
+      </c>
+      <c r="BR47">
+        <v>30</v>
+      </c>
+      <c r="BW47">
+        <v>82</v>
+      </c>
+      <c r="CB47">
+        <v>30</v>
+      </c>
+      <c r="CF47">
+        <v>61</v>
+      </c>
+      <c r="CJ47">
+        <v>16</v>
+      </c>
+      <c r="CN47">
+        <v>75</v>
+      </c>
+      <c r="CR47">
+        <v>62</v>
+      </c>
+      <c r="CV47">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>7.8</v>
       </c>
@@ -3183,8 +4626,35 @@
       <c r="BJ48">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN48">
+        <v>32</v>
+      </c>
+      <c r="BR48">
+        <v>8</v>
+      </c>
+      <c r="BW48">
+        <v>74</v>
+      </c>
+      <c r="CB48">
+        <v>35</v>
+      </c>
+      <c r="CF48">
+        <v>71</v>
+      </c>
+      <c r="CJ48">
+        <v>23</v>
+      </c>
+      <c r="CN48">
+        <v>70</v>
+      </c>
+      <c r="CR48">
+        <v>84</v>
+      </c>
+      <c r="CV48">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>3.13</v>
       </c>
@@ -3233,8 +4703,38 @@
       <c r="BJ49">
         <v>25</v>
       </c>
-    </row>
-    <row r="50" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN49">
+        <v>26</v>
+      </c>
+      <c r="BR49">
+        <v>13</v>
+      </c>
+      <c r="BW49">
+        <v>76</v>
+      </c>
+      <c r="CB49">
+        <v>36</v>
+      </c>
+      <c r="CC49">
+        <v>5</v>
+      </c>
+      <c r="CF49">
+        <v>78</v>
+      </c>
+      <c r="CJ49">
+        <v>35</v>
+      </c>
+      <c r="CN49">
+        <v>66</v>
+      </c>
+      <c r="CR49">
+        <v>74</v>
+      </c>
+      <c r="CV49">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>7.96</v>
       </c>
@@ -3289,8 +4789,38 @@
       <c r="BJ50">
         <v>34</v>
       </c>
-    </row>
-    <row r="51" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN50">
+        <v>12</v>
+      </c>
+      <c r="BR50">
+        <v>11</v>
+      </c>
+      <c r="BW50">
+        <v>85</v>
+      </c>
+      <c r="CB50">
+        <v>33</v>
+      </c>
+      <c r="CF50">
+        <v>75</v>
+      </c>
+      <c r="CJ50">
+        <v>27</v>
+      </c>
+      <c r="CK50">
+        <v>3</v>
+      </c>
+      <c r="CN50">
+        <v>59</v>
+      </c>
+      <c r="CR50">
+        <v>92</v>
+      </c>
+      <c r="CV50">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>14.8</v>
       </c>
@@ -3339,8 +4869,47 @@
       <c r="BK51">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>8</v>
+      </c>
+      <c r="BR51">
+        <v>9</v>
+      </c>
+      <c r="BS51">
+        <v>14</v>
+      </c>
+      <c r="BW51">
+        <v>87</v>
+      </c>
+      <c r="CB51">
+        <v>26</v>
+      </c>
+      <c r="CF51">
+        <v>64</v>
+      </c>
+      <c r="CG51">
+        <v>8</v>
+      </c>
+      <c r="CJ51">
+        <v>23</v>
+      </c>
+      <c r="CN51">
+        <v>61</v>
+      </c>
+      <c r="CO51">
+        <v>8</v>
+      </c>
+      <c r="CR51">
+        <v>95</v>
+      </c>
+      <c r="CV51">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>22.21</v>
       </c>
@@ -3383,8 +4952,38 @@
       <c r="BJ52">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN52">
+        <v>12</v>
+      </c>
+      <c r="BR52">
+        <v>2</v>
+      </c>
+      <c r="BW52">
+        <v>88</v>
+      </c>
+      <c r="CB52">
+        <v>15</v>
+      </c>
+      <c r="CF52">
+        <v>61</v>
+      </c>
+      <c r="CJ52">
+        <v>18</v>
+      </c>
+      <c r="CN52">
+        <v>54</v>
+      </c>
+      <c r="CR52">
+        <v>85</v>
+      </c>
+      <c r="CV52">
+        <v>57</v>
+      </c>
+      <c r="CW52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>18.45</v>
       </c>
@@ -3427,8 +5026,35 @@
       <c r="BJ53">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN53">
+        <v>15</v>
+      </c>
+      <c r="BR53">
+        <v>0</v>
+      </c>
+      <c r="BW53">
+        <v>86</v>
+      </c>
+      <c r="CB53">
+        <v>11</v>
+      </c>
+      <c r="CF53">
+        <v>52</v>
+      </c>
+      <c r="CJ53">
+        <v>26</v>
+      </c>
+      <c r="CN53">
+        <v>53</v>
+      </c>
+      <c r="CR53">
+        <v>79</v>
+      </c>
+      <c r="CV53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>11.63</v>
       </c>
@@ -3486,8 +5112,38 @@
       <c r="BJ54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN54">
+        <v>27</v>
+      </c>
+      <c r="BR54">
+        <v>8</v>
+      </c>
+      <c r="BW54">
+        <v>79</v>
+      </c>
+      <c r="BX54">
+        <v>55</v>
+      </c>
+      <c r="CB54">
+        <v>4</v>
+      </c>
+      <c r="CF54">
+        <v>44</v>
+      </c>
+      <c r="CJ54">
+        <v>27</v>
+      </c>
+      <c r="CN54">
+        <v>63</v>
+      </c>
+      <c r="CR54">
+        <v>88</v>
+      </c>
+      <c r="CV54">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>8.86</v>
       </c>
@@ -3540,8 +5196,35 @@
       <c r="BJ55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN55">
+        <v>25</v>
+      </c>
+      <c r="BR55">
+        <v>11</v>
+      </c>
+      <c r="BW55">
+        <v>76</v>
+      </c>
+      <c r="CB55">
+        <v>0</v>
+      </c>
+      <c r="CF55">
+        <v>52</v>
+      </c>
+      <c r="CJ55">
+        <v>31</v>
+      </c>
+      <c r="CN55">
+        <v>62</v>
+      </c>
+      <c r="CR55">
+        <v>74</v>
+      </c>
+      <c r="CV55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>5.48</v>
       </c>
@@ -3593,8 +5276,41 @@
       <c r="BJ56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN56">
+        <v>24</v>
+      </c>
+      <c r="BR56">
+        <v>0</v>
+      </c>
+      <c r="BW56">
+        <v>78</v>
+      </c>
+      <c r="CB56">
+        <v>7</v>
+      </c>
+      <c r="CF56">
+        <v>60</v>
+      </c>
+      <c r="CJ56">
+        <v>19</v>
+      </c>
+      <c r="CK56">
+        <v>5</v>
+      </c>
+      <c r="CN56">
+        <v>63</v>
+      </c>
+      <c r="CR56">
+        <v>96</v>
+      </c>
+      <c r="CS56">
+        <v>5</v>
+      </c>
+      <c r="CV56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>3.48</v>
       </c>
@@ -3640,8 +5356,38 @@
       <c r="BJ57">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN57">
+        <v>18</v>
+      </c>
+      <c r="BR57">
+        <v>12</v>
+      </c>
+      <c r="BW57">
+        <v>75</v>
+      </c>
+      <c r="CB57">
+        <v>11</v>
+      </c>
+      <c r="CC57">
+        <v>3</v>
+      </c>
+      <c r="CF57">
+        <v>56</v>
+      </c>
+      <c r="CJ57">
+        <v>10</v>
+      </c>
+      <c r="CN57">
+        <v>64</v>
+      </c>
+      <c r="CR57">
+        <v>80</v>
+      </c>
+      <c r="CV57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>1.66</v>
       </c>
@@ -3684,8 +5430,38 @@
       <c r="BJ58">
         <v>31</v>
       </c>
-    </row>
-    <row r="59" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN58">
+        <v>15</v>
+      </c>
+      <c r="BR58">
+        <v>14</v>
+      </c>
+      <c r="BW58">
+        <v>85</v>
+      </c>
+      <c r="CB58">
+        <v>21</v>
+      </c>
+      <c r="CF58">
+        <v>49</v>
+      </c>
+      <c r="CJ58">
+        <v>0</v>
+      </c>
+      <c r="CN58">
+        <v>68</v>
+      </c>
+      <c r="CR58">
+        <v>85</v>
+      </c>
+      <c r="CV58">
+        <v>42</v>
+      </c>
+      <c r="CW58">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="4:101" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -3737,8 +5513,38 @@
       <c r="BK59">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN59">
+        <v>20</v>
+      </c>
+      <c r="BO59">
+        <v>9</v>
+      </c>
+      <c r="BR59">
+        <v>19</v>
+      </c>
+      <c r="BW59">
+        <v>88</v>
+      </c>
+      <c r="CB59">
+        <v>26</v>
+      </c>
+      <c r="CF59">
+        <v>65</v>
+      </c>
+      <c r="CJ59">
+        <v>6</v>
+      </c>
+      <c r="CN59">
+        <v>69</v>
+      </c>
+      <c r="CR59">
+        <v>87</v>
+      </c>
+      <c r="CV59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="4:101" x14ac:dyDescent="0.25">
       <c r="O60">
         <v>55</v>
       </c>
@@ -3781,8 +5587,38 @@
       <c r="BJ60">
         <v>37</v>
       </c>
-    </row>
-    <row r="61" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN60">
+        <v>31</v>
+      </c>
+      <c r="BR60">
+        <v>13</v>
+      </c>
+      <c r="BS60">
+        <v>8</v>
+      </c>
+      <c r="BW60">
+        <v>96</v>
+      </c>
+      <c r="CB60">
+        <v>36</v>
+      </c>
+      <c r="CF60">
+        <v>74</v>
+      </c>
+      <c r="CJ60">
+        <v>15</v>
+      </c>
+      <c r="CN60">
+        <v>77</v>
+      </c>
+      <c r="CR60">
+        <v>83</v>
+      </c>
+      <c r="CV60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="4:101" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>21</v>
       </c>
@@ -3828,8 +5664,35 @@
       <c r="BJ61">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN61">
+        <v>42</v>
+      </c>
+      <c r="BR61">
+        <v>23</v>
+      </c>
+      <c r="BW61">
+        <v>104</v>
+      </c>
+      <c r="CB61">
+        <v>45</v>
+      </c>
+      <c r="CF61">
+        <v>78</v>
+      </c>
+      <c r="CJ61">
+        <v>5</v>
+      </c>
+      <c r="CN61">
+        <v>71</v>
+      </c>
+      <c r="CR61">
+        <v>88</v>
+      </c>
+      <c r="CV61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="4:101" x14ac:dyDescent="0.25">
       <c r="O62">
         <v>24</v>
       </c>
@@ -3872,8 +5735,44 @@
       <c r="BJ62">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN62">
+        <v>57</v>
+      </c>
+      <c r="BR62">
+        <v>38</v>
+      </c>
+      <c r="BW62">
+        <v>96</v>
+      </c>
+      <c r="BX62">
+        <v>38</v>
+      </c>
+      <c r="CB62">
+        <v>56</v>
+      </c>
+      <c r="CF62">
+        <v>72</v>
+      </c>
+      <c r="CJ62">
+        <v>0</v>
+      </c>
+      <c r="CK62">
+        <v>7</v>
+      </c>
+      <c r="CN62">
+        <v>67</v>
+      </c>
+      <c r="CO62">
+        <v>9</v>
+      </c>
+      <c r="CR62">
+        <v>92</v>
+      </c>
+      <c r="CV62">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="4:101" x14ac:dyDescent="0.25">
       <c r="O63">
         <v>23</v>
       </c>
@@ -3922,8 +5821,41 @@
       <c r="BJ63">
         <v>36</v>
       </c>
-    </row>
-    <row r="64" spans="4:63" x14ac:dyDescent="0.25">
+      <c r="BN63">
+        <v>66</v>
+      </c>
+      <c r="BR63">
+        <v>32</v>
+      </c>
+      <c r="BW63">
+        <v>88</v>
+      </c>
+      <c r="CB63">
+        <v>61</v>
+      </c>
+      <c r="CC63">
+        <v>5</v>
+      </c>
+      <c r="CF63">
+        <v>69</v>
+      </c>
+      <c r="CJ63">
+        <v>5</v>
+      </c>
+      <c r="CN63">
+        <v>69</v>
+      </c>
+      <c r="CR63">
+        <v>97</v>
+      </c>
+      <c r="CS63">
+        <v>5</v>
+      </c>
+      <c r="CV63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="4:101" x14ac:dyDescent="0.25">
       <c r="O64">
         <v>27</v>
       </c>
@@ -3963,8 +5895,35 @@
       <c r="BJ64">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN64">
+        <v>61</v>
+      </c>
+      <c r="BR64">
+        <v>26</v>
+      </c>
+      <c r="BW64">
+        <v>89</v>
+      </c>
+      <c r="CB64">
+        <v>48</v>
+      </c>
+      <c r="CF64">
+        <v>63</v>
+      </c>
+      <c r="CJ64">
+        <v>9</v>
+      </c>
+      <c r="CN64">
+        <v>68</v>
+      </c>
+      <c r="CR64">
+        <v>89</v>
+      </c>
+      <c r="CV64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O65">
         <v>28</v>
       </c>
@@ -4004,8 +5963,38 @@
       <c r="BJ65">
         <v>28</v>
       </c>
-    </row>
-    <row r="66" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN65">
+        <v>59</v>
+      </c>
+      <c r="BR65">
+        <v>15</v>
+      </c>
+      <c r="BW65">
+        <v>79</v>
+      </c>
+      <c r="CB65">
+        <v>39</v>
+      </c>
+      <c r="CF65">
+        <v>68</v>
+      </c>
+      <c r="CJ65">
+        <v>16</v>
+      </c>
+      <c r="CN65">
+        <v>55</v>
+      </c>
+      <c r="CR65">
+        <v>94</v>
+      </c>
+      <c r="CV65">
+        <v>23</v>
+      </c>
+      <c r="CW65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O66">
         <v>27</v>
       </c>
@@ -4042,8 +6031,35 @@
       <c r="BJ66">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN66">
+        <v>50</v>
+      </c>
+      <c r="BR66">
+        <v>11</v>
+      </c>
+      <c r="BW66">
+        <v>84</v>
+      </c>
+      <c r="CB66">
+        <v>27</v>
+      </c>
+      <c r="CF66">
+        <v>74</v>
+      </c>
+      <c r="CJ66">
+        <v>27</v>
+      </c>
+      <c r="CN66">
+        <v>53</v>
+      </c>
+      <c r="CR66">
+        <v>104</v>
+      </c>
+      <c r="CV66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O67">
         <v>26</v>
       </c>
@@ -4092,8 +6108,35 @@
       <c r="BK67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN67">
+        <v>45</v>
+      </c>
+      <c r="BR67">
+        <v>7</v>
+      </c>
+      <c r="BW67">
+        <v>86</v>
+      </c>
+      <c r="CB67">
+        <v>23</v>
+      </c>
+      <c r="CF67">
+        <v>72</v>
+      </c>
+      <c r="CJ67">
+        <v>34</v>
+      </c>
+      <c r="CN67">
+        <v>45</v>
+      </c>
+      <c r="CR67">
+        <v>100</v>
+      </c>
+      <c r="CV67">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O68">
         <v>23</v>
       </c>
@@ -4133,8 +6176,38 @@
       <c r="BJ68">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN68">
+        <v>33</v>
+      </c>
+      <c r="BR68">
+        <v>0</v>
+      </c>
+      <c r="BS68">
+        <v>11</v>
+      </c>
+      <c r="BW68">
+        <v>89</v>
+      </c>
+      <c r="CB68">
+        <v>18</v>
+      </c>
+      <c r="CF68">
+        <v>64</v>
+      </c>
+      <c r="CJ68">
+        <v>42</v>
+      </c>
+      <c r="CN68">
+        <v>39</v>
+      </c>
+      <c r="CR68">
+        <v>109</v>
+      </c>
+      <c r="CV68">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O69">
         <v>15</v>
       </c>
@@ -4177,8 +6250,41 @@
       <c r="BJ69">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN69">
+        <v>27</v>
+      </c>
+      <c r="BR69">
+        <v>5</v>
+      </c>
+      <c r="BW69">
+        <v>86</v>
+      </c>
+      <c r="CB69">
+        <v>13</v>
+      </c>
+      <c r="CC69">
+        <v>7</v>
+      </c>
+      <c r="CF69">
+        <v>63</v>
+      </c>
+      <c r="CJ69">
+        <v>50</v>
+      </c>
+      <c r="CK69">
+        <v>8</v>
+      </c>
+      <c r="CN69">
+        <v>23</v>
+      </c>
+      <c r="CR69">
+        <v>109</v>
+      </c>
+      <c r="CV69">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O70">
         <v>7</v>
       </c>
@@ -4230,8 +6336,38 @@
       <c r="BJ70">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN70">
+        <v>19</v>
+      </c>
+      <c r="BO70">
+        <v>10</v>
+      </c>
+      <c r="BR70">
+        <v>11</v>
+      </c>
+      <c r="BW70">
+        <v>92</v>
+      </c>
+      <c r="CB70">
+        <v>7</v>
+      </c>
+      <c r="CF70">
+        <v>54</v>
+      </c>
+      <c r="CJ70">
+        <v>60</v>
+      </c>
+      <c r="CN70">
+        <v>8</v>
+      </c>
+      <c r="CR70">
+        <v>100</v>
+      </c>
+      <c r="CV70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O71">
         <v>23</v>
       </c>
@@ -4271,8 +6407,41 @@
       <c r="BJ71">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BR71">
+        <v>5</v>
+      </c>
+      <c r="BW71">
+        <v>89</v>
+      </c>
+      <c r="BX71">
+        <v>23</v>
+      </c>
+      <c r="CB71">
+        <v>0</v>
+      </c>
+      <c r="CF71">
+        <v>43</v>
+      </c>
+      <c r="CG71">
+        <v>9</v>
+      </c>
+      <c r="CJ71">
+        <v>50</v>
+      </c>
+      <c r="CN71">
+        <v>0</v>
+      </c>
+      <c r="CR71">
+        <v>103</v>
+      </c>
+      <c r="CV71">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O72">
         <v>64</v>
       </c>
@@ -4309,8 +6478,41 @@
       <c r="BJ72">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN72">
+        <v>14</v>
+      </c>
+      <c r="BR72">
+        <v>15</v>
+      </c>
+      <c r="BW72">
+        <v>99</v>
+      </c>
+      <c r="CB72">
+        <v>14</v>
+      </c>
+      <c r="CF72">
+        <v>41</v>
+      </c>
+      <c r="CJ72">
+        <v>37</v>
+      </c>
+      <c r="CN72">
+        <v>5</v>
+      </c>
+      <c r="CR72">
+        <v>105</v>
+      </c>
+      <c r="CS72">
+        <v>6</v>
+      </c>
+      <c r="CV72">
+        <v>21</v>
+      </c>
+      <c r="CW72">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O73">
         <v>76</v>
       </c>
@@ -4344,8 +6546,35 @@
       <c r="BJ73">
         <v>42</v>
       </c>
-    </row>
-    <row r="74" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN73">
+        <v>4</v>
+      </c>
+      <c r="BR73">
+        <v>20</v>
+      </c>
+      <c r="BW73">
+        <v>90</v>
+      </c>
+      <c r="CB73">
+        <v>26</v>
+      </c>
+      <c r="CF73">
+        <v>33</v>
+      </c>
+      <c r="CJ73">
+        <v>23</v>
+      </c>
+      <c r="CN73">
+        <v>19</v>
+      </c>
+      <c r="CR73">
+        <v>103</v>
+      </c>
+      <c r="CV73">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O74">
         <v>84</v>
       </c>
@@ -4391,8 +6620,35 @@
       <c r="BJ74">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BR74">
+        <v>25</v>
+      </c>
+      <c r="BW74">
+        <v>87</v>
+      </c>
+      <c r="CB74">
+        <v>38</v>
+      </c>
+      <c r="CF74">
+        <v>23</v>
+      </c>
+      <c r="CJ74">
+        <v>9</v>
+      </c>
+      <c r="CN74">
+        <v>22</v>
+      </c>
+      <c r="CR74">
+        <v>110</v>
+      </c>
+      <c r="CV74">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O75">
         <v>76</v>
       </c>
@@ -4432,8 +6688,38 @@
       <c r="BK75">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN75">
+        <v>12</v>
+      </c>
+      <c r="BR75">
+        <v>10</v>
+      </c>
+      <c r="BW75">
+        <v>79</v>
+      </c>
+      <c r="CB75">
+        <v>48</v>
+      </c>
+      <c r="CF75">
+        <v>13</v>
+      </c>
+      <c r="CJ75">
+        <v>0</v>
+      </c>
+      <c r="CN75">
+        <v>27</v>
+      </c>
+      <c r="CO75">
+        <v>12</v>
+      </c>
+      <c r="CR75">
+        <v>96</v>
+      </c>
+      <c r="CV75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O76">
         <v>76</v>
       </c>
@@ -4467,8 +6753,41 @@
       <c r="BJ76">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN76">
+        <v>29</v>
+      </c>
+      <c r="BR76">
+        <v>24</v>
+      </c>
+      <c r="BS76">
+        <v>9</v>
+      </c>
+      <c r="BW76">
+        <v>78</v>
+      </c>
+      <c r="CB76">
+        <v>53</v>
+      </c>
+      <c r="CC76">
+        <v>8</v>
+      </c>
+      <c r="CF76">
+        <v>0</v>
+      </c>
+      <c r="CJ76">
+        <v>13</v>
+      </c>
+      <c r="CN76">
+        <v>16</v>
+      </c>
+      <c r="CR76">
+        <v>91</v>
+      </c>
+      <c r="CV76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O77">
         <v>76</v>
       </c>
@@ -4499,8 +6818,38 @@
       <c r="BJ77">
         <v>34</v>
       </c>
-    </row>
-    <row r="78" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN77">
+        <v>26</v>
+      </c>
+      <c r="BR77">
+        <v>23</v>
+      </c>
+      <c r="BW77">
+        <v>64</v>
+      </c>
+      <c r="CB77">
+        <v>62</v>
+      </c>
+      <c r="CF77">
+        <v>8</v>
+      </c>
+      <c r="CJ77">
+        <v>29</v>
+      </c>
+      <c r="CK77">
+        <v>6</v>
+      </c>
+      <c r="CN77">
+        <v>6</v>
+      </c>
+      <c r="CR77">
+        <v>74</v>
+      </c>
+      <c r="CV77">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O78">
         <v>75</v>
       </c>
@@ -4537,8 +6886,35 @@
       <c r="BJ78">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN78">
+        <v>15</v>
+      </c>
+      <c r="BR78">
+        <v>21</v>
+      </c>
+      <c r="BW78">
+        <v>46</v>
+      </c>
+      <c r="CB78">
+        <v>68</v>
+      </c>
+      <c r="CF78">
+        <v>14</v>
+      </c>
+      <c r="CJ78">
+        <v>40</v>
+      </c>
+      <c r="CN78">
+        <v>2</v>
+      </c>
+      <c r="CR78">
+        <v>82</v>
+      </c>
+      <c r="CV78">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O79">
         <v>65</v>
       </c>
@@ -4575,8 +6951,41 @@
       <c r="BJ79">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="15:63" x14ac:dyDescent="0.25">
+      <c r="BN79">
+        <v>28</v>
+      </c>
+      <c r="BO79">
+        <v>12</v>
+      </c>
+      <c r="BR79">
+        <v>29</v>
+      </c>
+      <c r="BW79">
+        <v>39</v>
+      </c>
+      <c r="CB79">
+        <v>79</v>
+      </c>
+      <c r="CF79">
+        <v>6</v>
+      </c>
+      <c r="CJ79">
+        <v>52</v>
+      </c>
+      <c r="CN79">
+        <v>8</v>
+      </c>
+      <c r="CR79">
+        <v>91</v>
+      </c>
+      <c r="CV79">
+        <v>64</v>
+      </c>
+      <c r="CW79">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="15:101" x14ac:dyDescent="0.25">
       <c r="O80">
         <v>42</v>
       </c>
@@ -4607,8 +7016,38 @@
       <c r="BJ80">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN80">
+        <v>35</v>
+      </c>
+      <c r="BR80">
+        <v>18</v>
+      </c>
+      <c r="BW80">
+        <v>19</v>
+      </c>
+      <c r="BX80">
+        <v>6</v>
+      </c>
+      <c r="CB80">
+        <v>81</v>
+      </c>
+      <c r="CF80">
+        <v>0</v>
+      </c>
+      <c r="CJ80">
+        <v>62</v>
+      </c>
+      <c r="CN80">
+        <v>18</v>
+      </c>
+      <c r="CR80">
+        <v>97</v>
+      </c>
+      <c r="CV80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O81">
         <v>26</v>
       </c>
@@ -4654,8 +7093,35 @@
       <c r="BK81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN81">
+        <v>14</v>
+      </c>
+      <c r="BR81">
+        <v>23</v>
+      </c>
+      <c r="BW81">
+        <v>30</v>
+      </c>
+      <c r="CB81">
+        <v>86</v>
+      </c>
+      <c r="CF81">
+        <v>9</v>
+      </c>
+      <c r="CJ81">
+        <v>73</v>
+      </c>
+      <c r="CN81">
+        <v>8</v>
+      </c>
+      <c r="CR81">
+        <v>105</v>
+      </c>
+      <c r="CV81">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O82">
         <v>20</v>
       </c>
@@ -4689,8 +7155,35 @@
       <c r="BJ82">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN82">
+        <v>6</v>
+      </c>
+      <c r="BR82">
+        <v>23</v>
+      </c>
+      <c r="BW82">
+        <v>36</v>
+      </c>
+      <c r="CB82">
+        <v>75</v>
+      </c>
+      <c r="CF82">
+        <v>17</v>
+      </c>
+      <c r="CJ82">
+        <v>89</v>
+      </c>
+      <c r="CN82">
+        <v>0</v>
+      </c>
+      <c r="CR82">
+        <v>112</v>
+      </c>
+      <c r="CV82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O83">
         <v>21</v>
       </c>
@@ -4724,8 +7217,35 @@
       <c r="BJ83">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BR83">
+        <v>11</v>
+      </c>
+      <c r="BW83">
+        <v>47</v>
+      </c>
+      <c r="CB83">
+        <v>79</v>
+      </c>
+      <c r="CF83">
+        <v>23</v>
+      </c>
+      <c r="CJ83">
+        <v>80</v>
+      </c>
+      <c r="CN83">
+        <v>12</v>
+      </c>
+      <c r="CR83">
+        <v>105</v>
+      </c>
+      <c r="CV83">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O84">
         <v>22</v>
       </c>
@@ -4756,8 +7276,44 @@
       <c r="BJ84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN84">
+        <v>15</v>
+      </c>
+      <c r="BR84">
+        <v>3</v>
+      </c>
+      <c r="BS84">
+        <v>6</v>
+      </c>
+      <c r="BW84">
+        <v>51</v>
+      </c>
+      <c r="CB84">
+        <v>81</v>
+      </c>
+      <c r="CC84">
+        <v>6</v>
+      </c>
+      <c r="CF84">
+        <v>26</v>
+      </c>
+      <c r="CG84">
+        <v>12</v>
+      </c>
+      <c r="CJ84">
+        <v>78</v>
+      </c>
+      <c r="CN84">
+        <v>20</v>
+      </c>
+      <c r="CR84">
+        <v>105</v>
+      </c>
+      <c r="CV84">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O85">
         <v>19</v>
       </c>
@@ -4779,8 +7335,38 @@
       <c r="BJ85">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN85">
+        <v>32</v>
+      </c>
+      <c r="BR85">
+        <v>0</v>
+      </c>
+      <c r="BW85">
+        <v>64</v>
+      </c>
+      <c r="CB85">
+        <v>86</v>
+      </c>
+      <c r="CF85">
+        <v>32</v>
+      </c>
+      <c r="CJ85">
+        <v>62</v>
+      </c>
+      <c r="CN85">
+        <v>34</v>
+      </c>
+      <c r="CR85">
+        <v>109</v>
+      </c>
+      <c r="CS85">
+        <v>15</v>
+      </c>
+      <c r="CV85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O86">
         <v>17</v>
       </c>
@@ -4808,8 +7394,41 @@
       <c r="BJ86">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN86">
+        <v>34</v>
+      </c>
+      <c r="BR86">
+        <v>5</v>
+      </c>
+      <c r="BW86">
+        <v>72</v>
+      </c>
+      <c r="CB86">
+        <v>77</v>
+      </c>
+      <c r="CF86">
+        <v>18</v>
+      </c>
+      <c r="CJ86">
+        <v>55</v>
+      </c>
+      <c r="CK86">
+        <v>8</v>
+      </c>
+      <c r="CN86">
+        <v>38</v>
+      </c>
+      <c r="CR86">
+        <v>107</v>
+      </c>
+      <c r="CV86">
+        <v>89</v>
+      </c>
+      <c r="CW86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O87">
         <v>16</v>
       </c>
@@ -4840,8 +7459,38 @@
       <c r="BK87">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN87">
+        <v>23</v>
+      </c>
+      <c r="BO87">
+        <v>14</v>
+      </c>
+      <c r="BR87">
+        <v>0</v>
+      </c>
+      <c r="BW87">
+        <v>74</v>
+      </c>
+      <c r="CB87">
+        <v>76</v>
+      </c>
+      <c r="CF87">
+        <v>12</v>
+      </c>
+      <c r="CJ87">
+        <v>45</v>
+      </c>
+      <c r="CN87">
+        <v>38</v>
+      </c>
+      <c r="CR87">
+        <v>99</v>
+      </c>
+      <c r="CV87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O88">
         <v>16</v>
       </c>
@@ -4860,8 +7509,35 @@
       <c r="BJ88">
         <v>43</v>
       </c>
-    </row>
-    <row r="89" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN88">
+        <v>21</v>
+      </c>
+      <c r="BR88">
+        <v>13</v>
+      </c>
+      <c r="BW88">
+        <v>76</v>
+      </c>
+      <c r="CB88">
+        <v>74</v>
+      </c>
+      <c r="CF88">
+        <v>4</v>
+      </c>
+      <c r="CJ88">
+        <v>55</v>
+      </c>
+      <c r="CN88">
+        <v>38</v>
+      </c>
+      <c r="CR88">
+        <v>102</v>
+      </c>
+      <c r="CV88">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O89">
         <v>15</v>
       </c>
@@ -4886,8 +7562,41 @@
       <c r="BJ89">
         <v>40</v>
       </c>
-    </row>
-    <row r="90" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN89">
+        <v>16</v>
+      </c>
+      <c r="BR89">
+        <v>18</v>
+      </c>
+      <c r="BW89">
+        <v>68</v>
+      </c>
+      <c r="BX89">
+        <v>9</v>
+      </c>
+      <c r="CB89">
+        <v>68</v>
+      </c>
+      <c r="CF89">
+        <v>0</v>
+      </c>
+      <c r="CJ89">
+        <v>65</v>
+      </c>
+      <c r="CN89">
+        <v>38</v>
+      </c>
+      <c r="CO89">
+        <v>16</v>
+      </c>
+      <c r="CR89">
+        <v>89</v>
+      </c>
+      <c r="CV89">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O90">
         <v>15</v>
       </c>
@@ -4906,8 +7615,35 @@
       <c r="BJ90">
         <v>33</v>
       </c>
-    </row>
-    <row r="91" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN90">
+        <v>10</v>
+      </c>
+      <c r="BR90">
+        <v>28</v>
+      </c>
+      <c r="BW90">
+        <v>62</v>
+      </c>
+      <c r="CB90">
+        <v>64</v>
+      </c>
+      <c r="CF90">
+        <v>5</v>
+      </c>
+      <c r="CJ90">
+        <v>76</v>
+      </c>
+      <c r="CN90">
+        <v>45</v>
+      </c>
+      <c r="CR90">
+        <v>76</v>
+      </c>
+      <c r="CV90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="14:101" x14ac:dyDescent="0.25">
       <c r="O91">
         <v>10</v>
       </c>
@@ -4929,8 +7665,35 @@
       <c r="BJ91">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN91">
+        <v>6</v>
+      </c>
+      <c r="BR91">
+        <v>37</v>
+      </c>
+      <c r="BW91">
+        <v>57</v>
+      </c>
+      <c r="CB91">
+        <v>56</v>
+      </c>
+      <c r="CF91">
+        <v>10</v>
+      </c>
+      <c r="CJ91">
+        <v>77</v>
+      </c>
+      <c r="CN91">
+        <v>52</v>
+      </c>
+      <c r="CR91">
+        <v>66</v>
+      </c>
+      <c r="CV91">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="14:101" x14ac:dyDescent="0.25">
       <c r="N92" s="2">
         <v>45404.436111111114</v>
       </c>
@@ -4958,8 +7721,38 @@
       <c r="BJ92">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN92">
+        <v>13</v>
+      </c>
+      <c r="BR92">
+        <v>40</v>
+      </c>
+      <c r="BW92">
+        <v>47</v>
+      </c>
+      <c r="CB92">
+        <v>51</v>
+      </c>
+      <c r="CF92">
+        <v>15</v>
+      </c>
+      <c r="CJ92">
+        <v>88</v>
+      </c>
+      <c r="CK92">
+        <v>7</v>
+      </c>
+      <c r="CN92">
+        <v>38</v>
+      </c>
+      <c r="CR92">
+        <v>53</v>
+      </c>
+      <c r="CV92">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="14:101" x14ac:dyDescent="0.25">
       <c r="T93">
         <v>43</v>
       </c>
@@ -4978,8 +7771,38 @@
       <c r="BJ93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN93">
+        <v>22</v>
+      </c>
+      <c r="BR93">
+        <v>33</v>
+      </c>
+      <c r="BW93">
+        <v>43</v>
+      </c>
+      <c r="CB93">
+        <v>47</v>
+      </c>
+      <c r="CC93">
+        <v>8</v>
+      </c>
+      <c r="CF93">
+        <v>26</v>
+      </c>
+      <c r="CJ93">
+        <v>81</v>
+      </c>
+      <c r="CN93">
+        <v>26</v>
+      </c>
+      <c r="CR93">
+        <v>46</v>
+      </c>
+      <c r="CV93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="14:101" x14ac:dyDescent="0.25">
       <c r="T94">
         <v>44</v>
       </c>
@@ -4998,8 +7821,38 @@
       <c r="BK94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN94">
+        <v>29</v>
+      </c>
+      <c r="BR94">
+        <v>23</v>
+      </c>
+      <c r="BW94">
+        <v>40</v>
+      </c>
+      <c r="CB94">
+        <v>38</v>
+      </c>
+      <c r="CF94">
+        <v>37</v>
+      </c>
+      <c r="CJ94">
+        <v>75</v>
+      </c>
+      <c r="CN94">
+        <v>12</v>
+      </c>
+      <c r="CR94">
+        <v>30</v>
+      </c>
+      <c r="CS94">
+        <v>17</v>
+      </c>
+      <c r="CV94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="14:101" x14ac:dyDescent="0.25">
       <c r="T95">
         <v>34</v>
       </c>
@@ -5015,8 +7868,41 @@
       <c r="BJ95">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="14:63" x14ac:dyDescent="0.25">
+      <c r="BN95">
+        <v>20</v>
+      </c>
+      <c r="BO95">
+        <v>16</v>
+      </c>
+      <c r="BR95">
+        <v>3</v>
+      </c>
+      <c r="BW95">
+        <v>31</v>
+      </c>
+      <c r="CB95">
+        <v>24</v>
+      </c>
+      <c r="CF95">
+        <v>41</v>
+      </c>
+      <c r="CJ95">
+        <v>70</v>
+      </c>
+      <c r="CN95">
+        <v>8</v>
+      </c>
+      <c r="CR95">
+        <v>25</v>
+      </c>
+      <c r="CV95">
+        <v>29</v>
+      </c>
+      <c r="CW95">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="14:101" x14ac:dyDescent="0.25">
       <c r="T96">
         <v>28</v>
       </c>
@@ -5032,8 +7918,41 @@
       <c r="BJ96">
         <v>30</v>
       </c>
-    </row>
-    <row r="97" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN96">
+        <v>6</v>
+      </c>
+      <c r="BR96">
+        <v>2</v>
+      </c>
+      <c r="BS96">
+        <v>7</v>
+      </c>
+      <c r="BW96">
+        <v>30</v>
+      </c>
+      <c r="CB96">
+        <v>14</v>
+      </c>
+      <c r="CF96">
+        <v>48</v>
+      </c>
+      <c r="CJ96">
+        <v>63</v>
+      </c>
+      <c r="CN96">
+        <v>0</v>
+      </c>
+      <c r="CO96">
+        <v>18</v>
+      </c>
+      <c r="CR96">
+        <v>30</v>
+      </c>
+      <c r="CV96">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="19:101" x14ac:dyDescent="0.25">
       <c r="T97">
         <v>16</v>
       </c>
@@ -5049,8 +7968,35 @@
       <c r="BJ97">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BR97">
+        <v>11</v>
+      </c>
+      <c r="BW97">
+        <v>16</v>
+      </c>
+      <c r="CB97">
+        <v>13</v>
+      </c>
+      <c r="CF97">
+        <v>46</v>
+      </c>
+      <c r="CJ97">
+        <v>55</v>
+      </c>
+      <c r="CN97">
+        <v>11</v>
+      </c>
+      <c r="CR97">
+        <v>31</v>
+      </c>
+      <c r="CV97">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="19:101" x14ac:dyDescent="0.25">
       <c r="S98" s="2">
         <v>45403.496527777781</v>
       </c>
@@ -5081,8 +8027,41 @@
       <c r="BJ98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN98">
+        <v>15</v>
+      </c>
+      <c r="BR98">
+        <v>27</v>
+      </c>
+      <c r="BW98">
+        <v>10</v>
+      </c>
+      <c r="CB98">
+        <v>19</v>
+      </c>
+      <c r="CF98">
+        <v>43</v>
+      </c>
+      <c r="CG98">
+        <v>16</v>
+      </c>
+      <c r="CJ98">
+        <v>44</v>
+      </c>
+      <c r="CK98">
+        <v>7</v>
+      </c>
+      <c r="CN98">
+        <v>18</v>
+      </c>
+      <c r="CR98">
+        <v>22</v>
+      </c>
+      <c r="CV98">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y99">
         <v>8</v>
       </c>
@@ -5095,8 +8074,38 @@
       <c r="BJ99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN99">
+        <v>22</v>
+      </c>
+      <c r="BR99">
+        <v>38</v>
+      </c>
+      <c r="BW99">
+        <v>30</v>
+      </c>
+      <c r="CB99">
+        <v>25</v>
+      </c>
+      <c r="CC99">
+        <v>7</v>
+      </c>
+      <c r="CF99">
+        <v>36</v>
+      </c>
+      <c r="CJ99">
+        <v>35</v>
+      </c>
+      <c r="CN99">
+        <v>26</v>
+      </c>
+      <c r="CR99">
+        <v>27</v>
+      </c>
+      <c r="CV99">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y100">
         <v>0</v>
       </c>
@@ -5112,40 +8121,197 @@
       <c r="BK100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BM100" s="2"/>
+      <c r="BN100">
+        <v>27</v>
+      </c>
+      <c r="BR100">
+        <v>49</v>
+      </c>
+      <c r="BW100">
+        <v>41</v>
+      </c>
+      <c r="CB100">
+        <v>34</v>
+      </c>
+      <c r="CF100">
+        <v>32</v>
+      </c>
+      <c r="CJ100">
+        <v>31</v>
+      </c>
+      <c r="CN100">
+        <v>33</v>
+      </c>
+      <c r="CR100">
+        <v>25</v>
+      </c>
+      <c r="CV100">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y101">
         <v>16</v>
       </c>
       <c r="AX101">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN101">
+        <v>25</v>
+      </c>
+      <c r="BR101">
+        <v>58</v>
+      </c>
+      <c r="BS101">
+        <v>23</v>
+      </c>
+      <c r="BW101">
+        <v>47</v>
+      </c>
+      <c r="CB101">
+        <v>29</v>
+      </c>
+      <c r="CF101">
+        <v>20</v>
+      </c>
+      <c r="CJ101">
+        <v>17</v>
+      </c>
+      <c r="CN101">
+        <v>31</v>
+      </c>
+      <c r="CR101">
+        <v>26</v>
+      </c>
+      <c r="CS101">
+        <v>20</v>
+      </c>
+      <c r="CV101">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y102">
         <v>28</v>
       </c>
       <c r="AX102">
         <v>48</v>
       </c>
-    </row>
-    <row r="103" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN102">
+        <v>21</v>
+      </c>
+      <c r="BO102">
+        <v>21</v>
+      </c>
+      <c r="BR102">
+        <v>62</v>
+      </c>
+      <c r="BW102">
+        <v>41</v>
+      </c>
+      <c r="BX102">
+        <v>11</v>
+      </c>
+      <c r="CB102">
+        <v>26</v>
+      </c>
+      <c r="CF102">
+        <v>15</v>
+      </c>
+      <c r="CJ102">
+        <v>29</v>
+      </c>
+      <c r="CN102">
+        <v>34</v>
+      </c>
+      <c r="CO102">
+        <v>21</v>
+      </c>
+      <c r="CR102">
+        <v>24</v>
+      </c>
+      <c r="CV102">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y103">
         <v>20</v>
       </c>
       <c r="AX103">
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN103">
+        <v>18</v>
+      </c>
+      <c r="BR103">
+        <v>66</v>
+      </c>
+      <c r="BW103">
+        <v>37</v>
+      </c>
+      <c r="CB103">
+        <v>23</v>
+      </c>
+      <c r="CF103">
+        <v>6</v>
+      </c>
+      <c r="CJ103">
+        <v>36</v>
+      </c>
+      <c r="CN103">
+        <v>30</v>
+      </c>
+      <c r="CR103">
+        <v>30</v>
+      </c>
+      <c r="CV103">
+        <v>103</v>
+      </c>
+      <c r="CW103">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y104">
         <v>18</v>
       </c>
       <c r="AX104">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN104">
+        <v>10</v>
+      </c>
+      <c r="BR104">
+        <v>72</v>
+      </c>
+      <c r="BW104">
+        <v>30</v>
+      </c>
+      <c r="CB104">
+        <v>17</v>
+      </c>
+      <c r="CF104">
+        <v>5</v>
+      </c>
+      <c r="CJ104">
+        <v>36</v>
+      </c>
+      <c r="CK104">
+        <v>7</v>
+      </c>
+      <c r="CN104">
+        <v>25</v>
+      </c>
+      <c r="CR104">
+        <v>33</v>
+      </c>
+      <c r="CV104">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="19:101" x14ac:dyDescent="0.25">
       <c r="Y105">
         <v>3</v>
       </c>
@@ -5155,8 +8321,44 @@
       <c r="AY105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BR105">
+        <v>66</v>
+      </c>
+      <c r="BW105">
+        <v>26</v>
+      </c>
+      <c r="CB105">
+        <v>24</v>
+      </c>
+      <c r="CC105">
+        <v>7</v>
+      </c>
+      <c r="CF105">
+        <v>11</v>
+      </c>
+      <c r="CG105">
+        <v>18</v>
+      </c>
+      <c r="CJ105">
+        <v>26</v>
+      </c>
+      <c r="CN105">
+        <v>14</v>
+      </c>
+      <c r="CR105">
+        <v>22</v>
+      </c>
+      <c r="CS105">
+        <v>45</v>
+      </c>
+      <c r="CV105">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="19:101" x14ac:dyDescent="0.25">
       <c r="X106" s="2">
         <v>45403.570138888892</v>
       </c>
@@ -5169,28 +8371,175 @@
       <c r="AX106">
         <v>33</v>
       </c>
-    </row>
-    <row r="107" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN106">
+        <v>16</v>
+      </c>
+      <c r="BR106">
+        <v>55</v>
+      </c>
+      <c r="BS106">
+        <v>38</v>
+      </c>
+      <c r="BW106">
+        <v>15</v>
+      </c>
+      <c r="CB106">
+        <v>31</v>
+      </c>
+      <c r="CF106">
+        <v>23</v>
+      </c>
+      <c r="CJ106">
+        <v>27</v>
+      </c>
+      <c r="CN106">
+        <v>11</v>
+      </c>
+      <c r="CR106">
+        <v>29</v>
+      </c>
+      <c r="CV106">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="107" spans="19:101" x14ac:dyDescent="0.25">
       <c r="AX107">
         <v>29</v>
       </c>
-    </row>
-    <row r="108" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN107">
+        <v>24</v>
+      </c>
+      <c r="BR107">
+        <v>55</v>
+      </c>
+      <c r="BW107">
+        <v>8</v>
+      </c>
+      <c r="CB107">
+        <v>28</v>
+      </c>
+      <c r="CF107">
+        <v>28</v>
+      </c>
+      <c r="CJ107">
+        <v>30</v>
+      </c>
+      <c r="CN107">
+        <v>9</v>
+      </c>
+      <c r="CR107">
+        <v>20</v>
+      </c>
+      <c r="CV107">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="19:101" x14ac:dyDescent="0.25">
       <c r="AX108">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN108">
+        <v>18</v>
+      </c>
+      <c r="BO108">
+        <v>30</v>
+      </c>
+      <c r="BR108">
+        <v>40</v>
+      </c>
+      <c r="BW108">
+        <v>22</v>
+      </c>
+      <c r="CB108">
+        <v>25</v>
+      </c>
+      <c r="CF108">
+        <v>17</v>
+      </c>
+      <c r="CJ108">
+        <v>34</v>
+      </c>
+      <c r="CN108">
+        <v>4</v>
+      </c>
+      <c r="CR108">
+        <v>25</v>
+      </c>
+      <c r="CV108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="19:101" x14ac:dyDescent="0.25">
       <c r="AX109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN109">
+        <v>15</v>
+      </c>
+      <c r="BR109">
+        <v>32</v>
+      </c>
+      <c r="BW109">
+        <v>25</v>
+      </c>
+      <c r="CB109">
+        <v>33</v>
+      </c>
+      <c r="CF109">
+        <v>12</v>
+      </c>
+      <c r="CJ109">
+        <v>24</v>
+      </c>
+      <c r="CN109">
+        <v>8</v>
+      </c>
+      <c r="CR109">
+        <v>26</v>
+      </c>
+      <c r="CV109">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="19:101" x14ac:dyDescent="0.25">
       <c r="AX110">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="19:63" x14ac:dyDescent="0.25">
+      <c r="BN110">
+        <v>7</v>
+      </c>
+      <c r="BR110">
+        <v>37</v>
+      </c>
+      <c r="BW110">
+        <v>19</v>
+      </c>
+      <c r="CB110">
+        <v>38</v>
+      </c>
+      <c r="CF110">
+        <v>5</v>
+      </c>
+      <c r="CJ110">
+        <v>36</v>
+      </c>
+      <c r="CN110">
+        <v>12</v>
+      </c>
+      <c r="CO110">
+        <v>30</v>
+      </c>
+      <c r="CR110">
+        <v>21</v>
+      </c>
+      <c r="CV110">
+        <v>97</v>
+      </c>
+      <c r="CW110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="19:101" x14ac:dyDescent="0.25">
       <c r="AW111" s="2">
         <v>45408.349305555559</v>
       </c>
@@ -5199,6 +8548,1026 @@
       </c>
       <c r="AY111">
         <v>7</v>
+      </c>
+      <c r="BN111">
+        <v>4</v>
+      </c>
+      <c r="BR111">
+        <v>60</v>
+      </c>
+      <c r="BW111">
+        <v>37</v>
+      </c>
+      <c r="BX111">
+        <v>8</v>
+      </c>
+      <c r="CB111">
+        <v>46</v>
+      </c>
+      <c r="CC111">
+        <v>7</v>
+      </c>
+      <c r="CF111">
+        <v>0</v>
+      </c>
+      <c r="CG111">
+        <v>21</v>
+      </c>
+      <c r="CJ111">
+        <v>43</v>
+      </c>
+      <c r="CN111">
+        <v>10</v>
+      </c>
+      <c r="CR111">
+        <v>29</v>
+      </c>
+      <c r="CV111">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="BN112">
+        <v>9</v>
+      </c>
+      <c r="BR112">
+        <v>75</v>
+      </c>
+      <c r="BS112">
+        <v>55</v>
+      </c>
+      <c r="BW112">
+        <v>47</v>
+      </c>
+      <c r="CB112">
+        <v>46</v>
+      </c>
+      <c r="CF112">
+        <v>8</v>
+      </c>
+      <c r="CJ112">
+        <v>46</v>
+      </c>
+      <c r="CK112">
+        <v>7</v>
+      </c>
+      <c r="CN112">
+        <v>8</v>
+      </c>
+      <c r="CR112">
+        <v>34</v>
+      </c>
+      <c r="CS112">
+        <v>70</v>
+      </c>
+      <c r="CV112">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BN113">
+        <v>2</v>
+      </c>
+      <c r="BR113">
+        <v>77</v>
+      </c>
+      <c r="BW113">
+        <v>49</v>
+      </c>
+      <c r="CB113">
+        <v>47</v>
+      </c>
+      <c r="CF113">
+        <v>15</v>
+      </c>
+      <c r="CJ113">
+        <v>43</v>
+      </c>
+      <c r="CN113">
+        <v>0</v>
+      </c>
+      <c r="CR113">
+        <v>40</v>
+      </c>
+      <c r="CV113">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BM114" s="2">
+        <v>45415.710416666669</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>33</v>
+      </c>
+      <c r="BR114">
+        <v>79</v>
+      </c>
+      <c r="BW114">
+        <v>58</v>
+      </c>
+      <c r="CB114">
+        <v>49</v>
+      </c>
+      <c r="CF114">
+        <v>23</v>
+      </c>
+      <c r="CJ114">
+        <v>43</v>
+      </c>
+      <c r="CN114">
+        <v>11</v>
+      </c>
+      <c r="CR114">
+        <v>42</v>
+      </c>
+      <c r="CV114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR115">
+        <v>81</v>
+      </c>
+      <c r="BW115">
+        <v>63</v>
+      </c>
+      <c r="CB115">
+        <v>48</v>
+      </c>
+      <c r="CF115">
+        <v>31</v>
+      </c>
+      <c r="CJ115">
+        <v>49</v>
+      </c>
+      <c r="CN115">
+        <v>17</v>
+      </c>
+      <c r="CR115">
+        <v>41</v>
+      </c>
+      <c r="CV115">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR116">
+        <v>93</v>
+      </c>
+      <c r="BW116">
+        <v>59</v>
+      </c>
+      <c r="CB116">
+        <v>46</v>
+      </c>
+      <c r="CF116">
+        <v>35</v>
+      </c>
+      <c r="CJ116">
+        <v>50</v>
+      </c>
+      <c r="CN116">
+        <v>23</v>
+      </c>
+      <c r="CR116">
+        <v>33</v>
+      </c>
+      <c r="CV116">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR117">
+        <v>92</v>
+      </c>
+      <c r="BW117">
+        <v>48</v>
+      </c>
+      <c r="CB117">
+        <v>46</v>
+      </c>
+      <c r="CF117">
+        <v>35</v>
+      </c>
+      <c r="CJ117">
+        <v>53</v>
+      </c>
+      <c r="CN117">
+        <v>18</v>
+      </c>
+      <c r="CR117">
+        <v>26</v>
+      </c>
+      <c r="CV117">
+        <v>94</v>
+      </c>
+      <c r="CW117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR118">
+        <v>82</v>
+      </c>
+      <c r="BW118">
+        <v>38</v>
+      </c>
+      <c r="CB118">
+        <v>41</v>
+      </c>
+      <c r="CF118">
+        <v>31</v>
+      </c>
+      <c r="CJ118">
+        <v>48</v>
+      </c>
+      <c r="CN118">
+        <v>13</v>
+      </c>
+      <c r="CR118">
+        <v>34</v>
+      </c>
+      <c r="CV118">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR119">
+        <v>77</v>
+      </c>
+      <c r="BS119">
+        <v>70</v>
+      </c>
+      <c r="BW119">
+        <v>33</v>
+      </c>
+      <c r="CB119">
+        <v>42</v>
+      </c>
+      <c r="CC119">
+        <v>7</v>
+      </c>
+      <c r="CF119">
+        <v>21</v>
+      </c>
+      <c r="CG119">
+        <v>30</v>
+      </c>
+      <c r="CJ119">
+        <v>49</v>
+      </c>
+      <c r="CN119">
+        <v>6</v>
+      </c>
+      <c r="CR119">
+        <v>41</v>
+      </c>
+      <c r="CS119">
+        <v>98</v>
+      </c>
+      <c r="CV119">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR120">
+        <v>77</v>
+      </c>
+      <c r="BW120">
+        <v>19</v>
+      </c>
+      <c r="CB120">
+        <v>46</v>
+      </c>
+      <c r="CF120">
+        <v>13</v>
+      </c>
+      <c r="CJ120">
+        <v>46</v>
+      </c>
+      <c r="CM120" s="2">
+        <v>45427.748611111114</v>
+      </c>
+      <c r="CN120">
+        <v>0</v>
+      </c>
+      <c r="CO120">
+        <v>33</v>
+      </c>
+      <c r="CR120">
+        <v>53</v>
+      </c>
+      <c r="CV120">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR121">
+        <v>83</v>
+      </c>
+      <c r="BW121">
+        <v>4</v>
+      </c>
+      <c r="BX121">
+        <v>14</v>
+      </c>
+      <c r="CB121">
+        <v>37</v>
+      </c>
+      <c r="CF121">
+        <v>6</v>
+      </c>
+      <c r="CJ121">
+        <v>39</v>
+      </c>
+      <c r="CR121">
+        <v>71</v>
+      </c>
+      <c r="CV121">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR122">
+        <v>88</v>
+      </c>
+      <c r="BW122">
+        <v>0</v>
+      </c>
+      <c r="CB122">
+        <v>31</v>
+      </c>
+      <c r="CF122">
+        <v>0</v>
+      </c>
+      <c r="CJ122">
+        <v>29</v>
+      </c>
+      <c r="CK122">
+        <v>7</v>
+      </c>
+      <c r="CR122">
+        <v>94</v>
+      </c>
+      <c r="CV122">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR123">
+        <v>84</v>
+      </c>
+      <c r="BW123">
+        <v>7</v>
+      </c>
+      <c r="CB123">
+        <v>29</v>
+      </c>
+      <c r="CF123">
+        <v>8</v>
+      </c>
+      <c r="CJ123">
+        <v>14</v>
+      </c>
+      <c r="CR123">
+        <v>110</v>
+      </c>
+      <c r="CV123">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR124">
+        <v>74</v>
+      </c>
+      <c r="BW124">
+        <v>23</v>
+      </c>
+      <c r="CB124">
+        <v>26</v>
+      </c>
+      <c r="CF124">
+        <v>15</v>
+      </c>
+      <c r="CJ124">
+        <v>5</v>
+      </c>
+      <c r="CR124">
+        <v>100</v>
+      </c>
+      <c r="CV124">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR125">
+        <v>73</v>
+      </c>
+      <c r="BW125">
+        <v>24</v>
+      </c>
+      <c r="CB125">
+        <v>16</v>
+      </c>
+      <c r="CF125">
+        <v>22</v>
+      </c>
+      <c r="CI125" s="2">
+        <v>45427.345833333333</v>
+      </c>
+      <c r="CJ125">
+        <v>0</v>
+      </c>
+      <c r="CK125">
+        <v>7</v>
+      </c>
+      <c r="CR125">
+        <v>91</v>
+      </c>
+      <c r="CS125">
+        <v>125</v>
+      </c>
+      <c r="CV125">
+        <v>84</v>
+      </c>
+      <c r="CW125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR126">
+        <v>72</v>
+      </c>
+      <c r="BW126">
+        <v>23</v>
+      </c>
+      <c r="CB126">
+        <v>5</v>
+      </c>
+      <c r="CF126">
+        <v>17</v>
+      </c>
+      <c r="CR126">
+        <v>72</v>
+      </c>
+      <c r="CV126">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="127" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR127">
+        <v>70</v>
+      </c>
+      <c r="BW127">
+        <v>32</v>
+      </c>
+      <c r="CB127">
+        <v>13</v>
+      </c>
+      <c r="CF127">
+        <v>12</v>
+      </c>
+      <c r="CR127">
+        <v>81</v>
+      </c>
+      <c r="CS127">
+        <v>91</v>
+      </c>
+      <c r="CV127">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="BR128">
+        <v>81</v>
+      </c>
+      <c r="BW128">
+        <v>27</v>
+      </c>
+      <c r="CB128">
+        <v>9</v>
+      </c>
+      <c r="CF128">
+        <v>6</v>
+      </c>
+      <c r="CR128">
+        <v>86</v>
+      </c>
+      <c r="CV128">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="129" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR129">
+        <v>88</v>
+      </c>
+      <c r="BW129">
+        <v>18</v>
+      </c>
+      <c r="CA129" s="2">
+        <v>45422.344444444447</v>
+      </c>
+      <c r="CB129">
+        <v>0</v>
+      </c>
+      <c r="CC129">
+        <v>7</v>
+      </c>
+      <c r="CE129" s="2">
+        <v>45422.580555555556</v>
+      </c>
+      <c r="CF129">
+        <v>0</v>
+      </c>
+      <c r="CG129">
+        <v>33</v>
+      </c>
+      <c r="CR129">
+        <v>78</v>
+      </c>
+      <c r="CS129">
+        <v>61</v>
+      </c>
+      <c r="CV129">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR130">
+        <v>83</v>
+      </c>
+      <c r="BS130">
+        <v>105</v>
+      </c>
+      <c r="BW130">
+        <v>8</v>
+      </c>
+      <c r="BX130">
+        <v>17</v>
+      </c>
+      <c r="CR130">
+        <v>85</v>
+      </c>
+      <c r="CV130">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR131">
+        <v>79</v>
+      </c>
+      <c r="BW131">
+        <v>21</v>
+      </c>
+      <c r="CR131">
+        <v>85</v>
+      </c>
+      <c r="CS131">
+        <v>30</v>
+      </c>
+      <c r="CV131">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR132">
+        <v>85</v>
+      </c>
+      <c r="BW132">
+        <v>23</v>
+      </c>
+      <c r="CR132">
+        <v>85</v>
+      </c>
+      <c r="CV132">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR133">
+        <v>82</v>
+      </c>
+      <c r="BW133">
+        <v>34</v>
+      </c>
+      <c r="CR133">
+        <v>76</v>
+      </c>
+      <c r="CV133">
+        <v>59</v>
+      </c>
+      <c r="CW133">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR134">
+        <v>88</v>
+      </c>
+      <c r="BW134">
+        <v>31</v>
+      </c>
+      <c r="CR134">
+        <v>69</v>
+      </c>
+      <c r="CS134">
+        <v>23</v>
+      </c>
+      <c r="CV134">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR135">
+        <v>86</v>
+      </c>
+      <c r="BW135">
+        <v>28</v>
+      </c>
+      <c r="CR135">
+        <v>61</v>
+      </c>
+      <c r="CV135">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR136">
+        <v>80</v>
+      </c>
+      <c r="BW136">
+        <v>22</v>
+      </c>
+      <c r="CR136">
+        <v>57</v>
+      </c>
+      <c r="CV136">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR137">
+        <v>79</v>
+      </c>
+      <c r="BW137">
+        <v>4</v>
+      </c>
+      <c r="CR137">
+        <v>47</v>
+      </c>
+      <c r="CS137">
+        <v>21</v>
+      </c>
+      <c r="CV137">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR138">
+        <v>83</v>
+      </c>
+      <c r="BW138">
+        <v>0</v>
+      </c>
+      <c r="BX138">
+        <v>19</v>
+      </c>
+      <c r="CR138">
+        <v>37</v>
+      </c>
+      <c r="CV138">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR139">
+        <v>79</v>
+      </c>
+      <c r="BW139">
+        <v>8</v>
+      </c>
+      <c r="CR139">
+        <v>29</v>
+      </c>
+      <c r="CV139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR140">
+        <v>75</v>
+      </c>
+      <c r="BW140">
+        <v>19</v>
+      </c>
+      <c r="CR140">
+        <v>21</v>
+      </c>
+      <c r="CV140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR141">
+        <v>63</v>
+      </c>
+      <c r="BS141">
+        <v>141</v>
+      </c>
+      <c r="BW141">
+        <v>13</v>
+      </c>
+      <c r="CR141">
+        <v>27</v>
+      </c>
+      <c r="CS141">
+        <v>35</v>
+      </c>
+      <c r="CV141">
+        <v>2</v>
+      </c>
+      <c r="CW141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR142">
+        <v>45</v>
+      </c>
+      <c r="BW142">
+        <v>7</v>
+      </c>
+      <c r="CR142">
+        <v>22</v>
+      </c>
+      <c r="CV142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR143">
+        <v>24</v>
+      </c>
+      <c r="BW143">
+        <v>0</v>
+      </c>
+      <c r="CR143">
+        <v>30</v>
+      </c>
+      <c r="CV143">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="BR144">
+        <v>4</v>
+      </c>
+      <c r="BW144">
+        <v>8</v>
+      </c>
+      <c r="CR144">
+        <v>27</v>
+      </c>
+      <c r="CV144">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR145">
+        <v>2</v>
+      </c>
+      <c r="BW145">
+        <v>15</v>
+      </c>
+      <c r="CR145">
+        <v>24</v>
+      </c>
+      <c r="CS145">
+        <v>69</v>
+      </c>
+      <c r="CV145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR146">
+        <v>19</v>
+      </c>
+      <c r="BW146">
+        <v>23</v>
+      </c>
+      <c r="BX146">
+        <v>22</v>
+      </c>
+      <c r="CR146">
+        <v>18</v>
+      </c>
+      <c r="CV146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR147">
+        <v>28</v>
+      </c>
+      <c r="BW147">
+        <v>29</v>
+      </c>
+      <c r="CR147">
+        <v>18</v>
+      </c>
+      <c r="CV147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR148">
+        <v>31</v>
+      </c>
+      <c r="BW148">
+        <v>20</v>
+      </c>
+      <c r="CR148">
+        <v>28</v>
+      </c>
+      <c r="CS148">
+        <v>87</v>
+      </c>
+      <c r="CV148">
+        <v>34</v>
+      </c>
+      <c r="CW148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR149">
+        <v>20</v>
+      </c>
+      <c r="BW149">
+        <v>16</v>
+      </c>
+      <c r="CR149">
+        <v>9</v>
+      </c>
+      <c r="CV149">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR150">
+        <v>11</v>
+      </c>
+      <c r="BW150">
+        <v>15</v>
+      </c>
+      <c r="CR150">
+        <v>21</v>
+      </c>
+      <c r="CV150">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR151">
+        <v>13</v>
+      </c>
+      <c r="BW151">
+        <v>10</v>
+      </c>
+      <c r="CR151">
+        <v>25</v>
+      </c>
+      <c r="CS151">
+        <v>106</v>
+      </c>
+      <c r="CV151">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR152">
+        <v>8</v>
+      </c>
+      <c r="BW152">
+        <v>3</v>
+      </c>
+      <c r="CR152">
+        <v>19</v>
+      </c>
+      <c r="CV152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR153">
+        <v>15</v>
+      </c>
+      <c r="BW153">
+        <v>0</v>
+      </c>
+      <c r="CR153">
+        <v>19</v>
+      </c>
+      <c r="CV153">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR154">
+        <v>15</v>
+      </c>
+      <c r="BW154">
+        <v>7</v>
+      </c>
+      <c r="BX154">
+        <v>27</v>
+      </c>
+      <c r="CR154">
+        <v>17</v>
+      </c>
+      <c r="CS154">
+        <v>105</v>
+      </c>
+      <c r="CV154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR155">
+        <v>10</v>
+      </c>
+      <c r="BW155">
+        <v>16</v>
+      </c>
+      <c r="CR155">
+        <v>6</v>
+      </c>
+      <c r="CV155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BR156">
+        <v>4</v>
+      </c>
+      <c r="BW156">
+        <v>19</v>
+      </c>
+      <c r="CQ156" s="2">
+        <v>45428.804166666669</v>
+      </c>
+      <c r="CR156">
+        <v>0</v>
+      </c>
+      <c r="CS156">
+        <v>105</v>
+      </c>
+      <c r="CV156">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BQ157" s="2">
+        <v>45416.513888888891</v>
+      </c>
+      <c r="BR157">
+        <v>0</v>
+      </c>
+      <c r="BS157">
+        <v>177</v>
+      </c>
+      <c r="BW157">
+        <v>13</v>
+      </c>
+      <c r="CU157" s="2">
+        <v>45428.842361111114</v>
+      </c>
+      <c r="CV157">
+        <v>0</v>
+      </c>
+      <c r="CW157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BW158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="69:101" x14ac:dyDescent="0.25">
+      <c r="BV159" s="2">
+        <v>45416.61041666667</v>
+      </c>
+      <c r="BW159">
+        <v>0</v>
+      </c>
+      <c r="BX159">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Python_developer\Fuel_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Python-developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463626D-772F-41C6-A436-B044A00E2F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5940FD-E586-445F-B7BA-F9198C889E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +85,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -98,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -106,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,43 +427,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE7F70-79B8-4603-BB09-D0163447E869}">
-  <dimension ref="A1:CW159"/>
+  <dimension ref="A1:DQ159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI123" workbookViewId="0">
-      <selection activeCell="DB131" sqref="DB131"/>
+    <sheetView tabSelected="1" topLeftCell="DC94" workbookViewId="0">
+      <selection activeCell="DS104" sqref="DS104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" customWidth="1"/>
-    <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.85546875" customWidth="1"/>
-    <col min="57" max="57" width="16.85546875" customWidth="1"/>
-    <col min="61" max="61" width="21.140625" customWidth="1"/>
-    <col min="65" max="65" width="18.140625" customWidth="1"/>
-    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" customWidth="1"/>
-    <col min="79" max="79" width="16.42578125" customWidth="1"/>
-    <col min="83" max="83" width="16.140625" customWidth="1"/>
-    <col min="87" max="87" width="17.28515625" customWidth="1"/>
-    <col min="91" max="91" width="15.5703125" customWidth="1"/>
-    <col min="95" max="95" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" customWidth="1"/>
+    <col min="28" max="28" width="17.33203125" customWidth="1"/>
+    <col min="33" max="33" width="16.5546875" customWidth="1"/>
+    <col min="37" max="37" width="18.33203125" customWidth="1"/>
+    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.88671875" customWidth="1"/>
+    <col min="57" max="57" width="16.88671875" customWidth="1"/>
+    <col min="61" max="61" width="21.109375" customWidth="1"/>
+    <col min="65" max="65" width="18.109375" customWidth="1"/>
+    <col min="69" max="69" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.88671875" customWidth="1"/>
+    <col min="79" max="79" width="16.44140625" customWidth="1"/>
+    <col min="83" max="83" width="16.109375" customWidth="1"/>
+    <col min="87" max="87" width="17.33203125" customWidth="1"/>
+    <col min="91" max="91" width="15.5546875" customWidth="1"/>
+    <col min="95" max="95" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5546875" customWidth="1"/>
+    <col min="103" max="103" width="17.44140625" customWidth="1"/>
+    <col min="107" max="107" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="16" customWidth="1"/>
+    <col min="115" max="115" width="15.5546875" customWidth="1"/>
+    <col min="119" max="119" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -679,8 +691,53 @@
       <c r="CW1">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CY1" s="7">
+        <v>45428.84652777778</v>
+      </c>
+      <c r="CZ1">
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <v>5</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>45434.324305555558</v>
+      </c>
+      <c r="DD1">
+        <v>0</v>
+      </c>
+      <c r="DE1" s="4">
+        <v>33</v>
+      </c>
+      <c r="DG1" s="2">
+        <v>45434.56527777778</v>
+      </c>
+      <c r="DH1">
+        <v>0</v>
+      </c>
+      <c r="DI1">
+        <v>7</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>45443.333333333336</v>
+      </c>
+      <c r="DL1">
+        <v>0</v>
+      </c>
+      <c r="DM1" s="4">
+        <v>33</v>
+      </c>
+      <c r="DO1" s="2">
+        <v>45443.552083333336</v>
+      </c>
+      <c r="DP1">
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>20.8</v>
       </c>
@@ -756,8 +813,23 @@
       <c r="CV2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ2">
+        <v>5</v>
+      </c>
+      <c r="DD2">
+        <v>4</v>
+      </c>
+      <c r="DH2">
+        <v>6</v>
+      </c>
+      <c r="DL2">
+        <v>4</v>
+      </c>
+      <c r="DP2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>7.31</v>
       </c>
@@ -833,8 +905,23 @@
       <c r="CV3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ3">
+        <v>6</v>
+      </c>
+      <c r="DD3">
+        <v>8</v>
+      </c>
+      <c r="DH3">
+        <v>2</v>
+      </c>
+      <c r="DL3">
+        <v>7</v>
+      </c>
+      <c r="DP3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>7.3380000000000001</v>
       </c>
@@ -913,8 +1000,23 @@
       <c r="CV4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ4">
+        <v>3</v>
+      </c>
+      <c r="DD4">
+        <v>9</v>
+      </c>
+      <c r="DH4">
+        <v>8</v>
+      </c>
+      <c r="DL4">
+        <v>15</v>
+      </c>
+      <c r="DP4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7.56</v>
       </c>
@@ -990,8 +1092,26 @@
       <c r="CV5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>6</v>
+      </c>
+      <c r="DD5">
+        <v>11</v>
+      </c>
+      <c r="DH5">
+        <v>16</v>
+      </c>
+      <c r="DL5">
+        <v>19</v>
+      </c>
+      <c r="DP5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>14.8</v>
       </c>
@@ -1078,8 +1198,23 @@
       <c r="CV6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ6">
+        <v>3</v>
+      </c>
+      <c r="DD6">
+        <v>15</v>
+      </c>
+      <c r="DH6">
+        <v>24</v>
+      </c>
+      <c r="DL6">
+        <v>14</v>
+      </c>
+      <c r="DP6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>25.8</v>
       </c>
@@ -1164,8 +1299,23 @@
       <c r="CV7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ7">
+        <v>9</v>
+      </c>
+      <c r="DD7">
+        <v>10</v>
+      </c>
+      <c r="DH7">
+        <v>32</v>
+      </c>
+      <c r="DL7">
+        <v>9</v>
+      </c>
+      <c r="DP7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -1250,8 +1400,23 @@
       <c r="CV8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ8">
+        <v>12</v>
+      </c>
+      <c r="DD8">
+        <v>8</v>
+      </c>
+      <c r="DH8">
+        <v>40</v>
+      </c>
+      <c r="DL8">
+        <v>3</v>
+      </c>
+      <c r="DP8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>42.5</v>
       </c>
@@ -1351,8 +1516,35 @@
       <c r="CW9">
         <v>104</v>
       </c>
-    </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ9">
+        <v>14</v>
+      </c>
+      <c r="DD9">
+        <v>13</v>
+      </c>
+      <c r="DE9">
+        <v>30</v>
+      </c>
+      <c r="DH9">
+        <v>44</v>
+      </c>
+      <c r="DI9">
+        <v>7</v>
+      </c>
+      <c r="DL9">
+        <v>12</v>
+      </c>
+      <c r="DM9">
+        <v>30</v>
+      </c>
+      <c r="DP9">
+        <v>24</v>
+      </c>
+      <c r="DQ9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>25.9</v>
       </c>
@@ -1428,8 +1620,26 @@
       <c r="CV10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ10">
+        <v>16</v>
+      </c>
+      <c r="DA10">
+        <v>9</v>
+      </c>
+      <c r="DD10">
+        <v>16</v>
+      </c>
+      <c r="DH10">
+        <v>45</v>
+      </c>
+      <c r="DL10">
+        <v>7</v>
+      </c>
+      <c r="DP10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>23.47</v>
       </c>
@@ -1514,8 +1724,23 @@
       <c r="CV11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ11">
+        <v>18</v>
+      </c>
+      <c r="DD11">
+        <v>13</v>
+      </c>
+      <c r="DH11">
+        <v>44</v>
+      </c>
+      <c r="DL11">
+        <v>22</v>
+      </c>
+      <c r="DP11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>35.35</v>
       </c>
@@ -1593,8 +1818,23 @@
       <c r="CV12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ12">
+        <v>21</v>
+      </c>
+      <c r="DD12">
+        <v>11</v>
+      </c>
+      <c r="DH12">
+        <v>41</v>
+      </c>
+      <c r="DL12">
+        <v>23</v>
+      </c>
+      <c r="DP12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>35.82</v>
       </c>
@@ -1670,8 +1910,23 @@
       <c r="CV13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ13">
+        <v>26</v>
+      </c>
+      <c r="DD13">
+        <v>8</v>
+      </c>
+      <c r="DH13">
+        <v>34</v>
+      </c>
+      <c r="DL13">
+        <v>25</v>
+      </c>
+      <c r="DP13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1768,8 +2023,23 @@
       <c r="CV14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ14">
+        <v>28</v>
+      </c>
+      <c r="DD14">
+        <v>6</v>
+      </c>
+      <c r="DH14">
+        <v>32</v>
+      </c>
+      <c r="DL14">
+        <v>20</v>
+      </c>
+      <c r="DP14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>30.38</v>
       </c>
@@ -1851,8 +2121,23 @@
       <c r="CV15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ15">
+        <v>29</v>
+      </c>
+      <c r="DD15">
+        <v>6</v>
+      </c>
+      <c r="DH15">
+        <v>29</v>
+      </c>
+      <c r="DL15">
+        <v>19</v>
+      </c>
+      <c r="DP15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>41.18</v>
       </c>
@@ -1934,8 +2219,26 @@
       <c r="CV16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ16">
+        <v>36</v>
+      </c>
+      <c r="DA16">
+        <v>12</v>
+      </c>
+      <c r="DD16">
+        <v>14</v>
+      </c>
+      <c r="DH16">
+        <v>22</v>
+      </c>
+      <c r="DL16">
+        <v>10</v>
+      </c>
+      <c r="DP16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>25.8</v>
       </c>
@@ -2020,8 +2323,23 @@
       <c r="CW17">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ17">
+        <v>37</v>
+      </c>
+      <c r="DD17">
+        <v>16</v>
+      </c>
+      <c r="DH17">
+        <v>19</v>
+      </c>
+      <c r="DL17">
+        <v>4</v>
+      </c>
+      <c r="DP17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>28.86</v>
       </c>
@@ -2115,8 +2433,29 @@
       <c r="CV18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ18">
+        <v>31</v>
+      </c>
+      <c r="DD18">
+        <v>20</v>
+      </c>
+      <c r="DH18">
+        <v>12</v>
+      </c>
+      <c r="DI18">
+        <v>7</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DP18">
+        <v>47</v>
+      </c>
+      <c r="DQ18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>38.799999999999997</v>
       </c>
@@ -2195,8 +2534,29 @@
       <c r="CV19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ19">
+        <v>31</v>
+      </c>
+      <c r="DD19">
+        <v>22</v>
+      </c>
+      <c r="DE19">
+        <v>21</v>
+      </c>
+      <c r="DH19">
+        <v>5</v>
+      </c>
+      <c r="DL19">
+        <v>10</v>
+      </c>
+      <c r="DM19">
+        <v>21</v>
+      </c>
+      <c r="DP19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>31.21</v>
       </c>
@@ -2275,8 +2635,23 @@
       <c r="CV20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ20">
+        <v>25</v>
+      </c>
+      <c r="DD20">
+        <v>22</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>4</v>
+      </c>
+      <c r="DP20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3.78</v>
       </c>
@@ -2358,8 +2733,23 @@
       <c r="CV21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ21">
+        <v>25</v>
+      </c>
+      <c r="DD21">
+        <v>21</v>
+      </c>
+      <c r="DH21">
+        <v>6</v>
+      </c>
+      <c r="DL21">
+        <v>10</v>
+      </c>
+      <c r="DP21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>18.2</v>
       </c>
@@ -2450,8 +2840,26 @@
       <c r="CV22">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ22">
+        <v>17</v>
+      </c>
+      <c r="DA22">
+        <v>15</v>
+      </c>
+      <c r="DD22">
+        <v>16</v>
+      </c>
+      <c r="DH22">
+        <v>1</v>
+      </c>
+      <c r="DL22">
+        <v>16</v>
+      </c>
+      <c r="DP22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>12.85</v>
       </c>
@@ -2536,8 +2944,23 @@
       <c r="CV23">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ23">
+        <v>15</v>
+      </c>
+      <c r="DD23">
+        <v>14</v>
+      </c>
+      <c r="DH23">
+        <v>17</v>
+      </c>
+      <c r="DL23">
+        <v>25</v>
+      </c>
+      <c r="DP23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>27.55</v>
       </c>
@@ -2622,8 +3045,23 @@
       <c r="CV24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ24">
+        <v>18</v>
+      </c>
+      <c r="DD24">
+        <v>15</v>
+      </c>
+      <c r="DH24">
+        <v>30</v>
+      </c>
+      <c r="DL24">
+        <v>25</v>
+      </c>
+      <c r="DP24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2705,8 +3143,23 @@
       <c r="CV25">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ25">
+        <v>18</v>
+      </c>
+      <c r="DD25">
+        <v>11</v>
+      </c>
+      <c r="DH25">
+        <v>44</v>
+      </c>
+      <c r="DL25">
+        <v>23</v>
+      </c>
+      <c r="DP25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>14.4</v>
       </c>
@@ -2794,8 +3247,26 @@
       <c r="CV26">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ26">
+        <v>23</v>
+      </c>
+      <c r="DA26">
+        <v>17</v>
+      </c>
+      <c r="DD26">
+        <v>2</v>
+      </c>
+      <c r="DH26">
+        <v>51</v>
+      </c>
+      <c r="DL26">
+        <v>22</v>
+      </c>
+      <c r="DP26">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>18.47</v>
       </c>
@@ -2886,8 +3357,23 @@
       <c r="CW27">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ27">
+        <v>29</v>
+      </c>
+      <c r="DD27">
+        <v>8</v>
+      </c>
+      <c r="DH27">
+        <v>59</v>
+      </c>
+      <c r="DL27">
+        <v>13</v>
+      </c>
+      <c r="DP27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>14.96</v>
       </c>
@@ -2972,8 +3458,26 @@
       <c r="CV28">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ28">
+        <v>32</v>
+      </c>
+      <c r="DD28">
+        <v>13</v>
+      </c>
+      <c r="DH28">
+        <v>70</v>
+      </c>
+      <c r="DL28">
+        <v>5</v>
+      </c>
+      <c r="DM28">
+        <v>2</v>
+      </c>
+      <c r="DP28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>30.42</v>
       </c>
@@ -3064,8 +3568,29 @@
       <c r="CV29">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ29">
+        <v>38</v>
+      </c>
+      <c r="DD29">
+        <v>25</v>
+      </c>
+      <c r="DH29">
+        <v>79</v>
+      </c>
+      <c r="DI29">
+        <v>8</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DP29">
+        <v>48</v>
+      </c>
+      <c r="DQ29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>20.48</v>
       </c>
@@ -3147,8 +3672,23 @@
       <c r="CV30">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ30">
+        <v>43</v>
+      </c>
+      <c r="DD30">
+        <v>27</v>
+      </c>
+      <c r="DH30">
+        <v>87</v>
+      </c>
+      <c r="DL30">
+        <v>7</v>
+      </c>
+      <c r="DP30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>4.25</v>
       </c>
@@ -3230,8 +3770,26 @@
       <c r="CV31">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="2:101" x14ac:dyDescent="0.25">
+      <c r="CZ31">
+        <v>43</v>
+      </c>
+      <c r="DA31">
+        <v>18</v>
+      </c>
+      <c r="DD31">
+        <v>31</v>
+      </c>
+      <c r="DH31">
+        <v>79</v>
+      </c>
+      <c r="DL31">
+        <v>20</v>
+      </c>
+      <c r="DP31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:121" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>5.29</v>
       </c>
@@ -3313,8 +3871,23 @@
       <c r="CV32">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ32">
+        <v>41</v>
+      </c>
+      <c r="DD32">
+        <v>26</v>
+      </c>
+      <c r="DH32">
+        <v>74</v>
+      </c>
+      <c r="DL32">
+        <v>10</v>
+      </c>
+      <c r="DP32">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>10.27</v>
       </c>
@@ -3393,8 +3966,23 @@
       <c r="CV33">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ33">
+        <v>38</v>
+      </c>
+      <c r="DD33">
+        <v>23</v>
+      </c>
+      <c r="DH33">
+        <v>67</v>
+      </c>
+      <c r="DL33">
+        <v>5</v>
+      </c>
+      <c r="DP33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>13.45</v>
       </c>
@@ -3476,8 +4064,23 @@
       <c r="CV34">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ34">
+        <v>34</v>
+      </c>
+      <c r="DD34">
+        <v>23</v>
+      </c>
+      <c r="DH34">
+        <v>69</v>
+      </c>
+      <c r="DL34">
+        <v>21</v>
+      </c>
+      <c r="DP34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>22.25</v>
       </c>
@@ -3571,8 +4174,29 @@
       <c r="CW35">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ35">
+        <v>31</v>
+      </c>
+      <c r="DD35">
+        <v>22</v>
+      </c>
+      <c r="DE35">
+        <v>2</v>
+      </c>
+      <c r="DH35">
+        <v>68</v>
+      </c>
+      <c r="DL35">
+        <v>17</v>
+      </c>
+      <c r="DM35">
+        <v>5</v>
+      </c>
+      <c r="DP35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>23.45</v>
       </c>
@@ -3654,8 +4278,26 @@
       <c r="CV36">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ36">
+        <v>27</v>
+      </c>
+      <c r="DA36">
+        <v>23</v>
+      </c>
+      <c r="DD36">
+        <v>15</v>
+      </c>
+      <c r="DH36">
+        <v>66</v>
+      </c>
+      <c r="DL36">
+        <v>22</v>
+      </c>
+      <c r="DP36">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>21.49</v>
       </c>
@@ -3734,8 +4376,23 @@
       <c r="CV37">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ37">
+        <v>22</v>
+      </c>
+      <c r="DD37">
+        <v>10</v>
+      </c>
+      <c r="DH37">
+        <v>71</v>
+      </c>
+      <c r="DL37">
+        <v>28</v>
+      </c>
+      <c r="DP37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>7</v>
       </c>
@@ -3814,8 +4471,23 @@
       <c r="CV38">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ38">
+        <v>19</v>
+      </c>
+      <c r="DD38">
+        <v>3</v>
+      </c>
+      <c r="DH38">
+        <v>70</v>
+      </c>
+      <c r="DL38">
+        <v>36</v>
+      </c>
+      <c r="DP38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>9.48</v>
       </c>
@@ -3891,8 +4563,23 @@
       <c r="CV39">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ39">
+        <v>6</v>
+      </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>70</v>
+      </c>
+      <c r="DL39">
+        <v>37</v>
+      </c>
+      <c r="DP39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>10.45</v>
       </c>
@@ -3968,8 +4655,23 @@
       <c r="CV40">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ40">
+        <v>0</v>
+      </c>
+      <c r="DD40">
+        <v>9</v>
+      </c>
+      <c r="DH40">
+        <v>74</v>
+      </c>
+      <c r="DL40">
+        <v>33</v>
+      </c>
+      <c r="DP40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>3.74</v>
       </c>
@@ -4051,8 +4753,23 @@
       <c r="CV41">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ41">
+        <v>2</v>
+      </c>
+      <c r="DD41">
+        <v>16</v>
+      </c>
+      <c r="DH41">
+        <v>74</v>
+      </c>
+      <c r="DL41">
+        <v>30</v>
+      </c>
+      <c r="DP41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2.66</v>
       </c>
@@ -4155,8 +4872,35 @@
       <c r="CW42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ42">
+        <v>8</v>
+      </c>
+      <c r="DD42">
+        <v>14</v>
+      </c>
+      <c r="DE42">
+        <v>5</v>
+      </c>
+      <c r="DH42">
+        <v>73</v>
+      </c>
+      <c r="DI42">
+        <v>8</v>
+      </c>
+      <c r="DL42">
+        <v>35</v>
+      </c>
+      <c r="DM42">
+        <v>3</v>
+      </c>
+      <c r="DP42">
+        <v>20</v>
+      </c>
+      <c r="DQ42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:121" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -4247,8 +4991,23 @@
       <c r="CV43">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ43">
+        <v>16</v>
+      </c>
+      <c r="DD43">
+        <v>10</v>
+      </c>
+      <c r="DH43">
+        <v>65</v>
+      </c>
+      <c r="DL43">
+        <v>28</v>
+      </c>
+      <c r="DP43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:121" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>16.8</v>
       </c>
@@ -4330,8 +5089,23 @@
       <c r="CV44">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ44">
+        <v>21</v>
+      </c>
+      <c r="DD44">
+        <v>0</v>
+      </c>
+      <c r="DH44">
+        <v>59</v>
+      </c>
+      <c r="DL44">
+        <v>29</v>
+      </c>
+      <c r="DP44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:121" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>21</v>
       </c>
@@ -4419,8 +5193,23 @@
       <c r="CV45">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ45">
+        <v>26</v>
+      </c>
+      <c r="DD45">
+        <v>8</v>
+      </c>
+      <c r="DH45">
+        <v>52</v>
+      </c>
+      <c r="DL45">
+        <v>36</v>
+      </c>
+      <c r="DP45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:121" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>21.92</v>
       </c>
@@ -4505,8 +5294,26 @@
       <c r="CV46">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ46">
+        <v>33</v>
+      </c>
+      <c r="DA46">
+        <v>27</v>
+      </c>
+      <c r="DD46">
+        <v>19</v>
+      </c>
+      <c r="DH46">
+        <v>47</v>
+      </c>
+      <c r="DL46">
+        <v>24</v>
+      </c>
+      <c r="DP46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:121" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>23.51</v>
       </c>
@@ -4576,8 +5383,23 @@
       <c r="CV47">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CZ47">
+        <v>36</v>
+      </c>
+      <c r="DD47">
+        <v>10</v>
+      </c>
+      <c r="DH47">
+        <v>35</v>
+      </c>
+      <c r="DL47">
+        <v>10</v>
+      </c>
+      <c r="DP47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:121" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>7.8</v>
       </c>
@@ -4653,8 +5475,26 @@
       <c r="CV48">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ48">
+        <v>39</v>
+      </c>
+      <c r="DD48">
+        <v>21</v>
+      </c>
+      <c r="DH48">
+        <v>30</v>
+      </c>
+      <c r="DL48">
+        <v>2</v>
+      </c>
+      <c r="DM48">
+        <v>5</v>
+      </c>
+      <c r="DP48">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>3.13</v>
       </c>
@@ -4733,8 +5573,23 @@
       <c r="CV49">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ49">
+        <v>36</v>
+      </c>
+      <c r="DD49">
+        <v>27</v>
+      </c>
+      <c r="DH49">
+        <v>22</v>
+      </c>
+      <c r="DL49">
+        <v>11</v>
+      </c>
+      <c r="DP49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>7.96</v>
       </c>
@@ -4819,8 +5674,26 @@
       <c r="CV50">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ50">
+        <v>34</v>
+      </c>
+      <c r="DD50">
+        <v>20</v>
+      </c>
+      <c r="DE50">
+        <v>3</v>
+      </c>
+      <c r="DH50">
+        <v>17</v>
+      </c>
+      <c r="DL50">
+        <v>12</v>
+      </c>
+      <c r="DP50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>14.8</v>
       </c>
@@ -4908,8 +5781,29 @@
       <c r="CV51">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ51">
+        <v>33</v>
+      </c>
+      <c r="DD51">
+        <v>30</v>
+      </c>
+      <c r="DH51">
+        <v>25</v>
+      </c>
+      <c r="DI51">
+        <v>8</v>
+      </c>
+      <c r="DL51">
+        <v>4</v>
+      </c>
+      <c r="DP51">
+        <v>15</v>
+      </c>
+      <c r="DQ51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>22.21</v>
       </c>
@@ -4982,8 +5876,26 @@
       <c r="CW52">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ52">
+        <v>31</v>
+      </c>
+      <c r="DA52">
+        <v>27</v>
+      </c>
+      <c r="DD52">
+        <v>29</v>
+      </c>
+      <c r="DH52">
+        <v>32</v>
+      </c>
+      <c r="DL52">
+        <v>0</v>
+      </c>
+      <c r="DP52">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>18.45</v>
       </c>
@@ -5053,8 +5965,23 @@
       <c r="CV53">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ53">
+        <v>26</v>
+      </c>
+      <c r="DD53">
+        <v>31</v>
+      </c>
+      <c r="DH53">
+        <v>43</v>
+      </c>
+      <c r="DL53">
+        <v>7</v>
+      </c>
+      <c r="DP53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E54">
         <v>11.63</v>
       </c>
@@ -5142,8 +6069,26 @@
       <c r="CV54">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ54">
+        <v>28</v>
+      </c>
+      <c r="DD54">
+        <v>35</v>
+      </c>
+      <c r="DH54">
+        <v>54</v>
+      </c>
+      <c r="DL54">
+        <v>16</v>
+      </c>
+      <c r="DM54">
+        <v>7</v>
+      </c>
+      <c r="DP54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>8.86</v>
       </c>
@@ -5223,8 +6168,23 @@
       <c r="CV55">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ55">
+        <v>20</v>
+      </c>
+      <c r="DD55">
+        <v>27</v>
+      </c>
+      <c r="DH55">
+        <v>57</v>
+      </c>
+      <c r="DL55">
+        <v>29</v>
+      </c>
+      <c r="DP55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>5.48</v>
       </c>
@@ -5309,8 +6269,26 @@
       <c r="CV56">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ56">
+        <v>24</v>
+      </c>
+      <c r="DD56">
+        <v>24</v>
+      </c>
+      <c r="DE56">
+        <v>5</v>
+      </c>
+      <c r="DH56">
+        <v>54</v>
+      </c>
+      <c r="DL56">
+        <v>39</v>
+      </c>
+      <c r="DP56">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>3.48</v>
       </c>
@@ -5386,8 +6364,23 @@
       <c r="CV57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ57">
+        <v>26</v>
+      </c>
+      <c r="DD57">
+        <v>20</v>
+      </c>
+      <c r="DH57">
+        <v>48</v>
+      </c>
+      <c r="DL57">
+        <v>50</v>
+      </c>
+      <c r="DP57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>1.66</v>
       </c>
@@ -5460,8 +6453,23 @@
       <c r="CW58">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ58">
+        <v>29</v>
+      </c>
+      <c r="DD58">
+        <v>27</v>
+      </c>
+      <c r="DH58">
+        <v>54</v>
+      </c>
+      <c r="DL58">
+        <v>47</v>
+      </c>
+      <c r="DP58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="4:121" x14ac:dyDescent="0.3">
       <c r="D59" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -5543,8 +6551,26 @@
       <c r="CV59">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ59">
+        <v>35</v>
+      </c>
+      <c r="DA59">
+        <v>29</v>
+      </c>
+      <c r="DD59">
+        <v>25</v>
+      </c>
+      <c r="DH59">
+        <v>55</v>
+      </c>
+      <c r="DL59">
+        <v>43</v>
+      </c>
+      <c r="DP59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="4:121" x14ac:dyDescent="0.3">
       <c r="O60">
         <v>55</v>
       </c>
@@ -5617,8 +6643,23 @@
       <c r="CV60">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ60">
+        <v>40</v>
+      </c>
+      <c r="DD60">
+        <v>22</v>
+      </c>
+      <c r="DH60">
+        <v>62</v>
+      </c>
+      <c r="DL60">
+        <v>31</v>
+      </c>
+      <c r="DP60">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="4:121" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>21</v>
       </c>
@@ -5691,8 +6732,26 @@
       <c r="CV61">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ61">
+        <v>44</v>
+      </c>
+      <c r="DD61">
+        <v>29</v>
+      </c>
+      <c r="DH61">
+        <v>58</v>
+      </c>
+      <c r="DL61">
+        <v>28</v>
+      </c>
+      <c r="DM61">
+        <v>8</v>
+      </c>
+      <c r="DP61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="4:121" x14ac:dyDescent="0.3">
       <c r="O62">
         <v>24</v>
       </c>
@@ -5771,8 +6830,32 @@
       <c r="CV62">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ62">
+        <v>42</v>
+      </c>
+      <c r="DD62">
+        <v>31</v>
+      </c>
+      <c r="DE62">
+        <v>7</v>
+      </c>
+      <c r="DH62">
+        <v>57</v>
+      </c>
+      <c r="DI62">
+        <v>9</v>
+      </c>
+      <c r="DL62">
+        <v>22</v>
+      </c>
+      <c r="DP62">
+        <v>48</v>
+      </c>
+      <c r="DQ62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="4:121" x14ac:dyDescent="0.3">
       <c r="O63">
         <v>23</v>
       </c>
@@ -5854,8 +6937,23 @@
       <c r="CV63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="4:101" x14ac:dyDescent="0.25">
+      <c r="CZ63">
+        <v>39</v>
+      </c>
+      <c r="DD63">
+        <v>30</v>
+      </c>
+      <c r="DH63">
+        <v>62</v>
+      </c>
+      <c r="DL63">
+        <v>16</v>
+      </c>
+      <c r="DP63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="4:121" x14ac:dyDescent="0.3">
       <c r="O64">
         <v>27</v>
       </c>
@@ -5922,8 +7020,23 @@
       <c r="CV64">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ64">
+        <v>36</v>
+      </c>
+      <c r="DD64">
+        <v>25</v>
+      </c>
+      <c r="DH64">
+        <v>68</v>
+      </c>
+      <c r="DL64">
+        <v>13</v>
+      </c>
+      <c r="DP64">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O65">
         <v>28</v>
       </c>
@@ -5993,8 +7106,23 @@
       <c r="CW65">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ65">
+        <v>33</v>
+      </c>
+      <c r="DD65">
+        <v>18</v>
+      </c>
+      <c r="DH65">
+        <v>63</v>
+      </c>
+      <c r="DL65">
+        <v>0</v>
+      </c>
+      <c r="DP65">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O66">
         <v>27</v>
       </c>
@@ -6058,8 +7186,26 @@
       <c r="CV66">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ66">
+        <v>26</v>
+      </c>
+      <c r="DA66">
+        <v>29</v>
+      </c>
+      <c r="DD66">
+        <v>7</v>
+      </c>
+      <c r="DH66">
+        <v>58</v>
+      </c>
+      <c r="DL66">
+        <v>16</v>
+      </c>
+      <c r="DP66">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O67">
         <v>26</v>
       </c>
@@ -6135,8 +7281,23 @@
       <c r="CV67">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ67">
+        <v>20</v>
+      </c>
+      <c r="DD67">
+        <v>15</v>
+      </c>
+      <c r="DH67">
+        <v>50</v>
+      </c>
+      <c r="DL67">
+        <v>33</v>
+      </c>
+      <c r="DP67">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O68">
         <v>23</v>
       </c>
@@ -6206,8 +7367,23 @@
       <c r="CV68">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ68">
+        <v>7</v>
+      </c>
+      <c r="DD68">
+        <v>9</v>
+      </c>
+      <c r="DH68">
+        <v>42</v>
+      </c>
+      <c r="DL68">
+        <v>44</v>
+      </c>
+      <c r="DP68">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O69">
         <v>15</v>
       </c>
@@ -6283,8 +7459,29 @@
       <c r="CV69">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ69">
+        <v>23</v>
+      </c>
+      <c r="DD69">
+        <v>0</v>
+      </c>
+      <c r="DE69">
+        <v>8</v>
+      </c>
+      <c r="DH69">
+        <v>36</v>
+      </c>
+      <c r="DL69">
+        <v>59</v>
+      </c>
+      <c r="DM69">
+        <v>6</v>
+      </c>
+      <c r="DP69">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O70">
         <v>7</v>
       </c>
@@ -6366,8 +7563,23 @@
       <c r="CV70">
         <v>30</v>
       </c>
-    </row>
-    <row r="71" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ70">
+        <v>26</v>
+      </c>
+      <c r="DD70">
+        <v>4</v>
+      </c>
+      <c r="DH70">
+        <v>29</v>
+      </c>
+      <c r="DL70">
+        <v>66</v>
+      </c>
+      <c r="DP70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O71">
         <v>23</v>
       </c>
@@ -6440,8 +7652,26 @@
       <c r="CV71">
         <v>29</v>
       </c>
-    </row>
-    <row r="72" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ71">
+        <v>35</v>
+      </c>
+      <c r="DA71">
+        <v>27</v>
+      </c>
+      <c r="DD71">
+        <v>15</v>
+      </c>
+      <c r="DH71">
+        <v>26</v>
+      </c>
+      <c r="DL71">
+        <v>78</v>
+      </c>
+      <c r="DP71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O72">
         <v>64</v>
       </c>
@@ -6511,8 +7741,23 @@
       <c r="CW72">
         <v>61</v>
       </c>
-    </row>
-    <row r="73" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ72">
+        <v>38</v>
+      </c>
+      <c r="DD72">
+        <v>30</v>
+      </c>
+      <c r="DH72">
+        <v>16</v>
+      </c>
+      <c r="DL72">
+        <v>73</v>
+      </c>
+      <c r="DP72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O73">
         <v>76</v>
       </c>
@@ -6573,8 +7818,23 @@
       <c r="CV73">
         <v>27</v>
       </c>
-    </row>
-    <row r="74" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ73">
+        <v>38</v>
+      </c>
+      <c r="DD73">
+        <v>40</v>
+      </c>
+      <c r="DH73">
+        <v>2</v>
+      </c>
+      <c r="DL73">
+        <v>70</v>
+      </c>
+      <c r="DP73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O74">
         <v>84</v>
       </c>
@@ -6647,8 +7907,23 @@
       <c r="CV74">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ74">
+        <v>35</v>
+      </c>
+      <c r="DD74">
+        <v>50</v>
+      </c>
+      <c r="DH74">
+        <v>0</v>
+      </c>
+      <c r="DL74">
+        <v>66</v>
+      </c>
+      <c r="DP74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O75">
         <v>76</v>
       </c>
@@ -6718,8 +7993,29 @@
       <c r="CV75">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ75">
+        <v>33</v>
+      </c>
+      <c r="DD75">
+        <v>55</v>
+      </c>
+      <c r="DH75">
+        <v>12</v>
+      </c>
+      <c r="DI75">
+        <v>12</v>
+      </c>
+      <c r="DL75">
+        <v>77</v>
+      </c>
+      <c r="DP75">
+        <v>26</v>
+      </c>
+      <c r="DQ75">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O76">
         <v>76</v>
       </c>
@@ -6786,8 +8082,23 @@
       <c r="CV76">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ76">
+        <v>38</v>
+      </c>
+      <c r="DD76">
+        <v>58</v>
+      </c>
+      <c r="DH76">
+        <v>23</v>
+      </c>
+      <c r="DL76">
+        <v>67</v>
+      </c>
+      <c r="DP76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O77">
         <v>76</v>
       </c>
@@ -6848,8 +8159,26 @@
       <c r="CV77">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ77">
+        <v>44</v>
+      </c>
+      <c r="DD77">
+        <v>15</v>
+      </c>
+      <c r="DE77">
+        <v>6</v>
+      </c>
+      <c r="DH77">
+        <v>29</v>
+      </c>
+      <c r="DL77">
+        <v>58</v>
+      </c>
+      <c r="DP77">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O78">
         <v>75</v>
       </c>
@@ -6913,8 +8242,26 @@
       <c r="CV78">
         <v>48</v>
       </c>
-    </row>
-    <row r="79" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ78">
+        <v>50</v>
+      </c>
+      <c r="DD78">
+        <v>4</v>
+      </c>
+      <c r="DH78">
+        <v>24</v>
+      </c>
+      <c r="DL78">
+        <v>56</v>
+      </c>
+      <c r="DM78">
+        <v>8</v>
+      </c>
+      <c r="DP78">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O79">
         <v>65</v>
       </c>
@@ -6984,8 +8331,23 @@
       <c r="CW79">
         <v>91</v>
       </c>
-    </row>
-    <row r="80" spans="15:101" x14ac:dyDescent="0.25">
+      <c r="CZ79">
+        <v>57</v>
+      </c>
+      <c r="DD79">
+        <v>0</v>
+      </c>
+      <c r="DH79">
+        <v>20</v>
+      </c>
+      <c r="DL79">
+        <v>52</v>
+      </c>
+      <c r="DP79">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="15:121" x14ac:dyDescent="0.3">
       <c r="O80">
         <v>42</v>
       </c>
@@ -7046,8 +8408,23 @@
       <c r="CV80">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ80">
+        <v>58</v>
+      </c>
+      <c r="DD80">
+        <v>11</v>
+      </c>
+      <c r="DH80">
+        <v>12</v>
+      </c>
+      <c r="DL80">
+        <v>47</v>
+      </c>
+      <c r="DP80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O81">
         <v>26</v>
       </c>
@@ -7120,8 +8497,23 @@
       <c r="CV81">
         <v>86</v>
       </c>
-    </row>
-    <row r="82" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ81">
+        <v>65</v>
+      </c>
+      <c r="DD81">
+        <v>21</v>
+      </c>
+      <c r="DH81">
+        <v>3</v>
+      </c>
+      <c r="DL81">
+        <v>39</v>
+      </c>
+      <c r="DP81">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O82">
         <v>20</v>
       </c>
@@ -7182,8 +8574,23 @@
       <c r="CV82">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ82">
+        <v>64</v>
+      </c>
+      <c r="DD82">
+        <v>23</v>
+      </c>
+      <c r="DH82">
+        <v>15</v>
+      </c>
+      <c r="DL82">
+        <v>34</v>
+      </c>
+      <c r="DP82">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O83">
         <v>21</v>
       </c>
@@ -7244,8 +8651,29 @@
       <c r="CV83">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ83">
+        <v>62</v>
+      </c>
+      <c r="DD83">
+        <v>34</v>
+      </c>
+      <c r="DH83">
+        <v>28</v>
+      </c>
+      <c r="DI83">
+        <v>16</v>
+      </c>
+      <c r="DL83">
+        <v>26</v>
+      </c>
+      <c r="DP83">
+        <v>31</v>
+      </c>
+      <c r="DQ83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O84">
         <v>22</v>
       </c>
@@ -7312,8 +8740,29 @@
       <c r="CV84">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ84">
+        <v>57</v>
+      </c>
+      <c r="DA84">
+        <v>26</v>
+      </c>
+      <c r="DD84">
+        <v>40</v>
+      </c>
+      <c r="DH84">
+        <v>37</v>
+      </c>
+      <c r="DL84">
+        <v>27</v>
+      </c>
+      <c r="DM84">
+        <v>7</v>
+      </c>
+      <c r="DP84">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O85">
         <v>19</v>
       </c>
@@ -7365,8 +8814,23 @@
       <c r="CV85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ85">
+        <v>53</v>
+      </c>
+      <c r="DD85">
+        <v>48</v>
+      </c>
+      <c r="DH85">
+        <v>33</v>
+      </c>
+      <c r="DL85">
+        <v>29</v>
+      </c>
+      <c r="DP85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O86">
         <v>17</v>
       </c>
@@ -7427,8 +8891,26 @@
       <c r="CW86">
         <v>125</v>
       </c>
-    </row>
-    <row r="87" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ86">
+        <v>46</v>
+      </c>
+      <c r="DD86">
+        <v>50</v>
+      </c>
+      <c r="DE86">
+        <v>8</v>
+      </c>
+      <c r="DH86">
+        <v>24</v>
+      </c>
+      <c r="DL86">
+        <v>33</v>
+      </c>
+      <c r="DP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O87">
         <v>16</v>
       </c>
@@ -7489,8 +8971,23 @@
       <c r="CV87">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ87">
+        <v>40</v>
+      </c>
+      <c r="DD87">
+        <v>59</v>
+      </c>
+      <c r="DH87">
+        <v>18</v>
+      </c>
+      <c r="DL87">
+        <v>29</v>
+      </c>
+      <c r="DP87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O88">
         <v>16</v>
       </c>
@@ -7536,8 +9033,23 @@
       <c r="CV88">
         <v>78</v>
       </c>
-    </row>
-    <row r="89" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ88">
+        <v>37</v>
+      </c>
+      <c r="DD88">
+        <v>62</v>
+      </c>
+      <c r="DH88">
+        <v>13</v>
+      </c>
+      <c r="DL88">
+        <v>23</v>
+      </c>
+      <c r="DP88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O89">
         <v>15</v>
       </c>
@@ -7595,8 +9107,23 @@
       <c r="CV89">
         <v>77</v>
       </c>
-    </row>
-    <row r="90" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ89">
+        <v>29</v>
+      </c>
+      <c r="DD89">
+        <v>58</v>
+      </c>
+      <c r="DH89">
+        <v>8</v>
+      </c>
+      <c r="DL89">
+        <v>30</v>
+      </c>
+      <c r="DP89">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O90">
         <v>15</v>
       </c>
@@ -7642,8 +9169,32 @@
       <c r="CV90">
         <v>75</v>
       </c>
-    </row>
-    <row r="91" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ90">
+        <v>19</v>
+      </c>
+      <c r="DD90">
+        <v>69</v>
+      </c>
+      <c r="DH90">
+        <v>18</v>
+      </c>
+      <c r="DI90">
+        <v>18</v>
+      </c>
+      <c r="DL90">
+        <v>29</v>
+      </c>
+      <c r="DM90">
+        <v>7</v>
+      </c>
+      <c r="DP90">
+        <v>24</v>
+      </c>
+      <c r="DQ90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="14:121" x14ac:dyDescent="0.3">
       <c r="O91">
         <v>10</v>
       </c>
@@ -7692,8 +9243,23 @@
       <c r="CV91">
         <v>65</v>
       </c>
-    </row>
-    <row r="92" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ91">
+        <v>10</v>
+      </c>
+      <c r="DD91">
+        <v>75</v>
+      </c>
+      <c r="DH91">
+        <v>27</v>
+      </c>
+      <c r="DL91">
+        <v>18</v>
+      </c>
+      <c r="DP91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="14:121" x14ac:dyDescent="0.3">
       <c r="N92" s="2">
         <v>45404.436111111114</v>
       </c>
@@ -7751,8 +9317,26 @@
       <c r="CV92">
         <v>58</v>
       </c>
-    </row>
-    <row r="93" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ92">
+        <v>0</v>
+      </c>
+      <c r="DD92">
+        <v>86</v>
+      </c>
+      <c r="DE92">
+        <v>7</v>
+      </c>
+      <c r="DH92">
+        <v>34</v>
+      </c>
+      <c r="DL92">
+        <v>5</v>
+      </c>
+      <c r="DP92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="14:121" x14ac:dyDescent="0.3">
       <c r="T93">
         <v>43</v>
       </c>
@@ -7801,8 +9385,23 @@
       <c r="CV93">
         <v>48</v>
       </c>
-    </row>
-    <row r="94" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ93">
+        <v>8</v>
+      </c>
+      <c r="DD93">
+        <v>95</v>
+      </c>
+      <c r="DH93">
+        <v>40</v>
+      </c>
+      <c r="DL93">
+        <v>11</v>
+      </c>
+      <c r="DP93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="14:121" x14ac:dyDescent="0.3">
       <c r="T94">
         <v>44</v>
       </c>
@@ -7851,8 +9450,23 @@
       <c r="CV94">
         <v>33</v>
       </c>
-    </row>
-    <row r="95" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ94">
+        <v>20</v>
+      </c>
+      <c r="DD94">
+        <v>87</v>
+      </c>
+      <c r="DH94">
+        <v>43</v>
+      </c>
+      <c r="DL94">
+        <v>26</v>
+      </c>
+      <c r="DP94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="14:121" x14ac:dyDescent="0.3">
       <c r="T95">
         <v>34</v>
       </c>
@@ -7901,8 +9515,26 @@
       <c r="CW95">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="14:101" x14ac:dyDescent="0.25">
+      <c r="CZ95">
+        <v>26</v>
+      </c>
+      <c r="DA95">
+        <v>29</v>
+      </c>
+      <c r="DD95">
+        <v>82</v>
+      </c>
+      <c r="DH95">
+        <v>29</v>
+      </c>
+      <c r="DL95">
+        <v>34</v>
+      </c>
+      <c r="DP95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="14:121" x14ac:dyDescent="0.3">
       <c r="T96">
         <v>28</v>
       </c>
@@ -7951,8 +9583,26 @@
       <c r="CV96">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ96">
+        <v>32</v>
+      </c>
+      <c r="DD96">
+        <v>82</v>
+      </c>
+      <c r="DH96">
+        <v>37</v>
+      </c>
+      <c r="DL96">
+        <v>39</v>
+      </c>
+      <c r="DM96">
+        <v>7</v>
+      </c>
+      <c r="DP96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="19:121" x14ac:dyDescent="0.3">
       <c r="T97">
         <v>16</v>
       </c>
@@ -7995,8 +9645,23 @@
       <c r="CV97">
         <v>63</v>
       </c>
-    </row>
-    <row r="98" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ97">
+        <v>27</v>
+      </c>
+      <c r="DD97">
+        <v>77</v>
+      </c>
+      <c r="DH97">
+        <v>24</v>
+      </c>
+      <c r="DL97">
+        <v>40</v>
+      </c>
+      <c r="DP97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="19:121" x14ac:dyDescent="0.3">
       <c r="S98" s="2">
         <v>45403.496527777781</v>
       </c>
@@ -8060,8 +9725,32 @@
       <c r="CV98">
         <v>81</v>
       </c>
-    </row>
-    <row r="99" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ98">
+        <v>26</v>
+      </c>
+      <c r="DD98">
+        <v>74</v>
+      </c>
+      <c r="DE98">
+        <v>7</v>
+      </c>
+      <c r="DH98">
+        <v>12</v>
+      </c>
+      <c r="DI98">
+        <v>21</v>
+      </c>
+      <c r="DL98">
+        <v>39</v>
+      </c>
+      <c r="DP98">
+        <v>38</v>
+      </c>
+      <c r="DQ98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y99">
         <v>8</v>
       </c>
@@ -8104,8 +9793,23 @@
       <c r="CV99">
         <v>93</v>
       </c>
-    </row>
-    <row r="100" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ99">
+        <v>23</v>
+      </c>
+      <c r="DD99">
+        <v>68</v>
+      </c>
+      <c r="DH99">
+        <v>23</v>
+      </c>
+      <c r="DL99">
+        <v>46</v>
+      </c>
+      <c r="DP99">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y100">
         <v>0</v>
       </c>
@@ -8149,8 +9853,23 @@
       <c r="CV100">
         <v>92</v>
       </c>
-    </row>
-    <row r="101" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ100">
+        <v>20</v>
+      </c>
+      <c r="DD100">
+        <v>58</v>
+      </c>
+      <c r="DH100">
+        <v>28</v>
+      </c>
+      <c r="DL100">
+        <v>44</v>
+      </c>
+      <c r="DP100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y101">
         <v>16</v>
       </c>
@@ -8190,8 +9909,23 @@
       <c r="CV101">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ101">
+        <v>16</v>
+      </c>
+      <c r="DD101">
+        <v>49</v>
+      </c>
+      <c r="DH101">
+        <v>23</v>
+      </c>
+      <c r="DL101">
+        <v>40</v>
+      </c>
+      <c r="DP101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y102">
         <v>28</v>
       </c>
@@ -8234,8 +9968,23 @@
       <c r="CV102">
         <v>86</v>
       </c>
-    </row>
-    <row r="103" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ102">
+        <v>15</v>
+      </c>
+      <c r="DD102">
+        <v>43</v>
+      </c>
+      <c r="DH102">
+        <v>28</v>
+      </c>
+      <c r="DL102">
+        <v>39</v>
+      </c>
+      <c r="DP102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y103">
         <v>20</v>
       </c>
@@ -8272,8 +10021,23 @@
       <c r="CW103">
         <v>70</v>
       </c>
-    </row>
-    <row r="104" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ103">
+        <v>10</v>
+      </c>
+      <c r="DD103">
+        <v>36</v>
+      </c>
+      <c r="DH103">
+        <v>32</v>
+      </c>
+      <c r="DL103">
+        <v>44</v>
+      </c>
+      <c r="DP103">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y104">
         <v>18</v>
       </c>
@@ -8310,8 +10074,26 @@
       <c r="CV104">
         <v>94</v>
       </c>
-    </row>
-    <row r="105" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ104">
+        <v>1</v>
+      </c>
+      <c r="DD104">
+        <v>26</v>
+      </c>
+      <c r="DE104">
+        <v>7</v>
+      </c>
+      <c r="DH104">
+        <v>27</v>
+      </c>
+      <c r="DL104">
+        <v>36</v>
+      </c>
+      <c r="DP104">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="19:121" x14ac:dyDescent="0.3">
       <c r="Y105">
         <v>3</v>
       </c>
@@ -8357,8 +10139,23 @@
       <c r="CV105">
         <v>92</v>
       </c>
-    </row>
-    <row r="106" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ105">
+        <v>6</v>
+      </c>
+      <c r="DD105">
+        <v>27</v>
+      </c>
+      <c r="DH105">
+        <v>22</v>
+      </c>
+      <c r="DL105">
+        <v>28</v>
+      </c>
+      <c r="DP105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="19:121" x14ac:dyDescent="0.3">
       <c r="X106" s="2">
         <v>45403.570138888892</v>
       </c>
@@ -8401,8 +10198,29 @@
       <c r="CV106">
         <v>88</v>
       </c>
-    </row>
-    <row r="107" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ106">
+        <v>15</v>
+      </c>
+      <c r="DD106">
+        <v>30</v>
+      </c>
+      <c r="DH106">
+        <v>18</v>
+      </c>
+      <c r="DI106">
+        <v>30</v>
+      </c>
+      <c r="DL106">
+        <v>22</v>
+      </c>
+      <c r="DP106">
+        <v>22</v>
+      </c>
+      <c r="DQ106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="19:121" x14ac:dyDescent="0.3">
       <c r="AX107">
         <v>29</v>
       </c>
@@ -8433,8 +10251,26 @@
       <c r="CV107">
         <v>80</v>
       </c>
-    </row>
-    <row r="108" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ107">
+        <v>24</v>
+      </c>
+      <c r="DA107">
+        <v>30</v>
+      </c>
+      <c r="DD107">
+        <v>35</v>
+      </c>
+      <c r="DH107">
+        <v>15</v>
+      </c>
+      <c r="DL107">
+        <v>15</v>
+      </c>
+      <c r="DP107">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="19:121" x14ac:dyDescent="0.3">
       <c r="AX108">
         <v>25</v>
       </c>
@@ -8468,8 +10304,23 @@
       <c r="CV108">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ108">
+        <v>32</v>
+      </c>
+      <c r="DD108">
+        <v>31</v>
+      </c>
+      <c r="DH108">
+        <v>9</v>
+      </c>
+      <c r="DL108">
+        <v>4</v>
+      </c>
+      <c r="DP108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="19:121" x14ac:dyDescent="0.3">
       <c r="AX109">
         <v>9</v>
       </c>
@@ -8500,8 +10351,29 @@
       <c r="CV109">
         <v>88</v>
       </c>
-    </row>
-    <row r="110" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ109">
+        <v>34</v>
+      </c>
+      <c r="DD109">
+        <v>22</v>
+      </c>
+      <c r="DH109">
+        <v>0</v>
+      </c>
+      <c r="DK109" s="2">
+        <v>45443.348611111112</v>
+      </c>
+      <c r="DL109">
+        <v>0</v>
+      </c>
+      <c r="DM109">
+        <v>7</v>
+      </c>
+      <c r="DP109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="19:121" x14ac:dyDescent="0.3">
       <c r="AX110">
         <v>4</v>
       </c>
@@ -8538,8 +10410,20 @@
       <c r="CW110">
         <v>45</v>
       </c>
-    </row>
-    <row r="111" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ110">
+        <v>35</v>
+      </c>
+      <c r="DD110">
+        <v>25</v>
+      </c>
+      <c r="DH110">
+        <v>8</v>
+      </c>
+      <c r="DP110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="19:121" x14ac:dyDescent="0.3">
       <c r="AW111" s="2">
         <v>45408.349305555559</v>
       </c>
@@ -8585,8 +10469,20 @@
       <c r="CV111">
         <v>98</v>
       </c>
-    </row>
-    <row r="112" spans="19:101" x14ac:dyDescent="0.25">
+      <c r="CZ111">
+        <v>33</v>
+      </c>
+      <c r="DD111">
+        <v>29</v>
+      </c>
+      <c r="DH111">
+        <v>15</v>
+      </c>
+      <c r="DP111">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="19:121" x14ac:dyDescent="0.3">
       <c r="BN112">
         <v>9</v>
       </c>
@@ -8623,8 +10519,26 @@
       <c r="CV112">
         <v>94</v>
       </c>
-    </row>
-    <row r="113" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ112">
+        <v>41</v>
+      </c>
+      <c r="DD112">
+        <v>24</v>
+      </c>
+      <c r="DE112">
+        <v>7</v>
+      </c>
+      <c r="DH112">
+        <v>23</v>
+      </c>
+      <c r="DP112">
+        <v>28</v>
+      </c>
+      <c r="DQ112">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BN113">
         <v>2</v>
       </c>
@@ -8652,8 +10566,20 @@
       <c r="CV113">
         <v>105</v>
       </c>
-    </row>
-    <row r="114" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ113">
+        <v>42</v>
+      </c>
+      <c r="DD113">
+        <v>32</v>
+      </c>
+      <c r="DH113">
+        <v>16</v>
+      </c>
+      <c r="DP113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BM114" s="2">
         <v>45415.710416666669</v>
       </c>
@@ -8687,8 +10613,20 @@
       <c r="CV114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ114">
+        <v>43</v>
+      </c>
+      <c r="DD114">
+        <v>36</v>
+      </c>
+      <c r="DH114">
+        <v>12</v>
+      </c>
+      <c r="DP114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR115">
         <v>81</v>
       </c>
@@ -8713,8 +10651,20 @@
       <c r="CV115">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ115">
+        <v>36</v>
+      </c>
+      <c r="DD115">
+        <v>44</v>
+      </c>
+      <c r="DH115">
+        <v>10</v>
+      </c>
+      <c r="DP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR116">
         <v>93</v>
       </c>
@@ -8739,8 +10689,27 @@
       <c r="CV116">
         <v>102</v>
       </c>
-    </row>
-    <row r="117" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ116">
+        <v>34</v>
+      </c>
+      <c r="DD116">
+        <v>41</v>
+      </c>
+      <c r="DG116" s="2">
+        <v>45434.578472222223</v>
+      </c>
+      <c r="DH116">
+        <v>0</v>
+      </c>
+      <c r="DI116">
+        <v>33</v>
+      </c>
+      <c r="DO116" s="2"/>
+      <c r="DP116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR117">
         <v>92</v>
       </c>
@@ -8768,8 +10737,17 @@
       <c r="CW117">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ117">
+        <v>28</v>
+      </c>
+      <c r="DD117">
+        <v>45</v>
+      </c>
+      <c r="DP117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR118">
         <v>82</v>
       </c>
@@ -8794,8 +10772,17 @@
       <c r="CV118">
         <v>105</v>
       </c>
-    </row>
-    <row r="119" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ118">
+        <v>23</v>
+      </c>
+      <c r="DD118">
+        <v>44</v>
+      </c>
+      <c r="DP118">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR119">
         <v>77</v>
       </c>
@@ -8832,8 +10819,17 @@
       <c r="CV119">
         <v>96</v>
       </c>
-    </row>
-    <row r="120" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ119">
+        <v>20</v>
+      </c>
+      <c r="DD119">
+        <v>46</v>
+      </c>
+      <c r="DP119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR120">
         <v>77</v>
       </c>
@@ -8864,8 +10860,23 @@
       <c r="CV120">
         <v>88</v>
       </c>
-    </row>
-    <row r="121" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ120">
+        <v>14</v>
+      </c>
+      <c r="DD120">
+        <v>45</v>
+      </c>
+      <c r="DO120" s="2">
+        <v>45443.567361111112</v>
+      </c>
+      <c r="DP120">
+        <v>0</v>
+      </c>
+      <c r="DQ120">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR121">
         <v>83</v>
       </c>
@@ -8890,8 +10901,17 @@
       <c r="CV121">
         <v>92</v>
       </c>
-    </row>
-    <row r="122" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ121">
+        <v>7</v>
+      </c>
+      <c r="DA121">
+        <v>29</v>
+      </c>
+      <c r="DD121">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR122">
         <v>88</v>
       </c>
@@ -8916,8 +10936,20 @@
       <c r="CV122">
         <v>78</v>
       </c>
-    </row>
-    <row r="123" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ122">
+        <v>13</v>
+      </c>
+      <c r="DD122">
+        <v>40</v>
+      </c>
+      <c r="DE122">
+        <v>7</v>
+      </c>
+      <c r="DM122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR123">
         <v>84</v>
       </c>
@@ -8939,8 +10971,14 @@
       <c r="CV123">
         <v>70</v>
       </c>
-    </row>
-    <row r="124" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ123">
+        <v>16</v>
+      </c>
+      <c r="DD123">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR124">
         <v>74</v>
       </c>
@@ -8962,8 +11000,14 @@
       <c r="CV124">
         <v>79</v>
       </c>
-    </row>
-    <row r="125" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ124">
+        <v>26</v>
+      </c>
+      <c r="DD124">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR125">
         <v>73</v>
       </c>
@@ -8997,8 +11041,20 @@
       <c r="CW125">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ125">
+        <v>28</v>
+      </c>
+      <c r="DD125">
+        <v>38</v>
+      </c>
+      <c r="DE125">
+        <v>7</v>
+      </c>
+      <c r="DM125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR126">
         <v>72</v>
       </c>
@@ -9017,8 +11073,14 @@
       <c r="CV126">
         <v>72</v>
       </c>
-    </row>
-    <row r="127" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ126">
+        <v>32</v>
+      </c>
+      <c r="DD126">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR127">
         <v>70</v>
       </c>
@@ -9040,8 +11102,14 @@
       <c r="CV127">
         <v>73</v>
       </c>
-    </row>
-    <row r="128" spans="65:101" x14ac:dyDescent="0.25">
+      <c r="CZ127">
+        <v>29</v>
+      </c>
+      <c r="DD127">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="65:121" x14ac:dyDescent="0.3">
       <c r="BR128">
         <v>81</v>
       </c>
@@ -9060,8 +11128,14 @@
       <c r="CV128">
         <v>63</v>
       </c>
-    </row>
-    <row r="129" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ128">
+        <v>28</v>
+      </c>
+      <c r="DD128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR129">
         <v>88</v>
       </c>
@@ -9095,8 +11169,14 @@
       <c r="CV129">
         <v>68</v>
       </c>
-    </row>
-    <row r="130" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ129">
+        <v>25</v>
+      </c>
+      <c r="DD129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR130">
         <v>83</v>
       </c>
@@ -9115,8 +11195,23 @@
       <c r="CV130">
         <v>74</v>
       </c>
-    </row>
-    <row r="131" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ130">
+        <v>21</v>
+      </c>
+      <c r="DC130" s="2">
+        <v>45434.338194444441</v>
+      </c>
+      <c r="DD130">
+        <v>0</v>
+      </c>
+      <c r="DE130">
+        <v>7</v>
+      </c>
+      <c r="DM130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR131">
         <v>79</v>
       </c>
@@ -9132,8 +11227,11 @@
       <c r="CV131">
         <v>74</v>
       </c>
-    </row>
-    <row r="132" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ131">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR132">
         <v>85</v>
       </c>
@@ -9146,8 +11244,14 @@
       <c r="CV132">
         <v>63</v>
       </c>
-    </row>
-    <row r="133" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ132">
+        <v>11</v>
+      </c>
+      <c r="DA132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR133">
         <v>82</v>
       </c>
@@ -9163,8 +11267,11 @@
       <c r="CW133">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR134">
         <v>88</v>
       </c>
@@ -9180,8 +11287,11 @@
       <c r="CV134">
         <v>52</v>
       </c>
-    </row>
-    <row r="135" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR135">
         <v>86</v>
       </c>
@@ -9194,8 +11304,11 @@
       <c r="CV135">
         <v>34</v>
       </c>
-    </row>
-    <row r="136" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR136">
         <v>80</v>
       </c>
@@ -9208,8 +11321,11 @@
       <c r="CV136">
         <v>19</v>
       </c>
-    </row>
-    <row r="137" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR137">
         <v>79</v>
       </c>
@@ -9225,8 +11341,11 @@
       <c r="CV137">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR138">
         <v>83</v>
       </c>
@@ -9242,8 +11361,11 @@
       <c r="CV138">
         <v>36</v>
       </c>
-    </row>
-    <row r="139" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR139">
         <v>79</v>
       </c>
@@ -9256,8 +11378,11 @@
       <c r="CV139">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ139">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR140">
         <v>75</v>
       </c>
@@ -9270,8 +11395,11 @@
       <c r="CV140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR141">
         <v>63</v>
       </c>
@@ -9293,8 +11421,11 @@
       <c r="CW141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR142">
         <v>45</v>
       </c>
@@ -9307,8 +11438,11 @@
       <c r="CV142">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CZ142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR143">
         <v>24</v>
       </c>
@@ -9321,8 +11455,17 @@
       <c r="CV143">
         <v>31</v>
       </c>
-    </row>
-    <row r="144" spans="70:101" x14ac:dyDescent="0.25">
+      <c r="CY143" s="2">
+        <v>45428.856249999997</v>
+      </c>
+      <c r="CZ143">
+        <v>0</v>
+      </c>
+      <c r="DA143">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="70:117" x14ac:dyDescent="0.3">
       <c r="BR144">
         <v>4</v>
       </c>
@@ -9336,7 +11479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="145" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR145">
         <v>2</v>
       </c>
@@ -9353,7 +11496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="146" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR146">
         <v>19</v>
       </c>
@@ -9370,7 +11513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="147" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR147">
         <v>28</v>
       </c>
@@ -9384,7 +11527,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="148" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR148">
         <v>31</v>
       </c>
@@ -9404,7 +11547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="149" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR149">
         <v>20</v>
       </c>
@@ -9418,7 +11561,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="150" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR150">
         <v>11</v>
       </c>
@@ -9432,7 +11575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="151" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR151">
         <v>13</v>
       </c>
@@ -9449,7 +11592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="152" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR152">
         <v>8</v>
       </c>
@@ -9463,7 +11606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="153" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR153">
         <v>15</v>
       </c>
@@ -9477,7 +11620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="154" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR154">
         <v>15</v>
       </c>
@@ -9497,7 +11640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="155" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR155">
         <v>10</v>
       </c>
@@ -9511,7 +11654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="156" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BR156">
         <v>4</v>
       </c>
@@ -9531,7 +11674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="157" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BQ157" s="2">
         <v>45416.513888888891</v>
       </c>
@@ -9554,12 +11697,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="158" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BW158">
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="69:101" x14ac:dyDescent="0.25">
+    <row r="159" spans="69:101" x14ac:dyDescent="0.3">
       <c r="BV159" s="2">
         <v>45416.61041666667</v>
       </c>
@@ -9584,12 +11727,12 @@
       <selection activeCell="D150" activeCellId="1" sqref="C104:C149 D150:E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9600,7 +11743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -9614,27 +11757,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>20.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>7.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>14.8</v>
       </c>
@@ -9642,27 +11785,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>25.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>42.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>25.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>23.47</v>
       </c>
@@ -9670,32 +11813,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>35.35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>35.82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>30.38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>41.18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>25.8</v>
       </c>
@@ -9703,27 +11846,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>28.86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>31.21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3.78</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>18.2</v>
       </c>
@@ -9731,27 +11874,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>12.85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>27.55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>18.47</v>
       </c>
@@ -9759,22 +11902,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>14.96</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>30.42</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>20.48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>4.25</v>
       </c>
@@ -9782,22 +11925,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5.29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>10.27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>22.25</v>
       </c>
@@ -9805,17 +11948,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>23.45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>21.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>7</v>
       </c>
@@ -9823,17 +11966,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>9.48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>10.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>3.74</v>
       </c>
@@ -9841,12 +11984,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2.66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -9857,7 +12000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45387.782638888886</v>
       </c>
@@ -9871,19 +12014,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46">
         <v>6.98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48">
         <v>10.48</v>
@@ -9892,25 +12035,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49">
         <v>17.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50">
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51">
         <v>12.82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52">
         <v>20.95</v>
@@ -9919,19 +12062,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54">
         <v>4.93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55">
         <v>8.7799999999999994</v>
@@ -9940,19 +12083,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56">
         <v>17.88</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57">
         <v>23.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58">
         <v>14.29</v>
@@ -9961,25 +12104,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59">
         <v>23.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61">
         <v>21.67</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62">
         <v>6</v>
@@ -9988,19 +12131,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63">
         <v>7.42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65">
         <v>32.36</v>
@@ -10009,19 +12152,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66">
         <v>10.33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67">
         <v>1.66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68">
         <v>20.16</v>
@@ -10030,19 +12173,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69">
         <v>37.65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70">
         <v>32.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71">
         <v>31.28</v>
@@ -10051,25 +12194,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72">
         <v>28.66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73">
         <v>26.14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74">
         <v>27.18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75">
         <v>19</v>
@@ -10078,25 +12221,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77">
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78">
         <v>13.35</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79">
         <v>0</v>
@@ -10105,37 +12248,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81">
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82">
         <v>25.63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83">
         <v>14.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84">
         <v>5.3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85">
         <v>3</v>
@@ -10144,25 +12287,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86">
         <v>5.58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87">
         <v>5.95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88">
         <v>16.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89">
         <v>18.8</v>
@@ -10171,31 +12314,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90">
         <v>21.92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91">
         <v>23.51</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92">
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93">
         <v>3.13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94">
         <v>7.96</v>
@@ -10204,31 +12347,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95">
         <v>14.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96">
         <v>22.21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97">
         <v>18.45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98">
         <v>11.63</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99">
         <v>8.86</v>
@@ -10237,25 +12380,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100">
         <v>5.48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101">
         <v>3.48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102">
         <v>1.66</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -10266,7 +12409,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45388.387499999997</v>
       </c>
@@ -10280,27 +12423,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>2.92</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>20.41</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>27.29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>24.39</v>
       </c>
@@ -10308,12 +12451,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>32.22</v>
       </c>
@@ -10321,12 +12464,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>40.32</v>
       </c>
@@ -10334,12 +12477,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>88.45</v>
       </c>
@@ -10347,12 +12490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>91.08</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>100.75</v>
       </c>
@@ -10360,17 +12503,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>101.53</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>82.8</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>102.91</v>
       </c>
@@ -10378,17 +12521,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>104.68</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>106.42</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>108.22</v>
       </c>
@@ -10396,12 +12539,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>93.76</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>108.48</v>
       </c>
@@ -10409,12 +12552,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>69.3</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>112.01</v>
       </c>
@@ -10422,12 +12565,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>95.2</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>48.35</v>
       </c>
@@ -10435,12 +12578,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>6.19</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>0</v>
       </c>
@@ -10448,17 +12591,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>3.06</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>31.65</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>23.53</v>
       </c>
@@ -10466,17 +12609,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>15.77</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>22.39</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>54.23</v>
       </c>
@@ -10484,17 +12627,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>93.95</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>78.319999999999993</v>
       </c>
@@ -10502,17 +12645,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>77.47</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>50.91</v>
       </c>
@@ -10520,17 +12663,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>24.35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>20</v>
       </c>
@@ -10538,17 +12681,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>45388.418055555558</v>
       </c>
@@ -10559,7 +12702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>45388.427083333336</v>
       </c>
@@ -10573,17 +12716,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>9.32</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>9.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>16.28</v>
       </c>
@@ -10591,17 +12734,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>48.78</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>81</v>
       </c>
@@ -10609,17 +12752,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>103.51</v>
       </c>
@@ -10627,17 +12770,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>92.5</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>87.92</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>65.88</v>
       </c>
@@ -10645,17 +12788,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>43.84</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>35.4</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>32</v>
       </c>
@@ -10663,17 +12806,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>35</v>
       </c>
@@ -10681,12 +12824,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>37.35</v>
       </c>
@@ -10694,12 +12837,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>70.19</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>104.87</v>
       </c>
@@ -10707,12 +12850,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>110.56</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>112.69</v>
       </c>
@@ -10720,12 +12863,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>112.6</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>88.32</v>
       </c>
@@ -10733,17 +12876,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>95.29</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>66.155000000000001</v>
       </c>
@@ -10751,17 +12894,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>34.35</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>72.72</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>96.325500000000005</v>
       </c>
@@ -10769,12 +12912,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>119.91</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>125.93</v>
       </c>
@@ -10782,12 +12925,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>116.95</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>110.53</v>
       </c>
@@ -10795,17 +12938,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>104.7</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>102.6</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>89.31</v>
       </c>
@@ -10813,22 +12956,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>96.93</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>70.84</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>72.94</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>78.2</v>
       </c>
@@ -10836,22 +12979,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>76.38</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>68.650000000000006</v>
       </c>
@@ -10859,12 +13002,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>38.65</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>9.25</v>
       </c>
@@ -10872,27 +13015,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>30.852</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>17.667999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>4.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>45388.477083333331</v>
       </c>
@@ -10916,9 +13059,9 @@
       <selection sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>105</v>
       </c>
@@ -10926,17 +13069,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>106</v>
       </c>
@@ -10944,17 +13087,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>87</v>
       </c>
@@ -10962,17 +13105,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>69</v>
       </c>
@@ -10980,17 +13123,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -10998,17 +13141,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -11016,17 +13159,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -11034,12 +13177,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>61</v>
       </c>
@@ -11047,12 +13190,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>91</v>
       </c>
@@ -11060,12 +13203,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>125</v>
       </c>
@@ -11073,12 +13216,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>70</v>
       </c>
@@ -11086,17 +13229,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15</v>
       </c>
@@ -11104,17 +13247,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -11122,12 +13265,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5</v>
       </c>
@@ -11135,12 +13278,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -11148,12 +13291,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -11161,12 +13304,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>27</v>
       </c>
@@ -11174,27 +13317,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>33</v>
       </c>

--- a/Fuel_experiment/Gasolinera_test.xlsx
+++ b/Fuel_experiment/Gasolinera_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Python-developer\Fuel_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitRepo\Python_developer\Fuel_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5940FD-E586-445F-B7BA-F9198C889E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEB9F20-EE1B-4949-B904-AE3E95E193C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12096" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D0782D78-6A66-47CB-A73A-C30F1D64D535}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,48 +427,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE7F70-79B8-4603-BB09-D0163447E869}">
-  <dimension ref="A1:DQ159"/>
+  <dimension ref="A1:EG162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DC94" workbookViewId="0">
-      <selection activeCell="DS104" sqref="DS104"/>
+    <sheetView tabSelected="1" topLeftCell="DM1" workbookViewId="0">
+      <selection activeCell="DW1" sqref="DW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" customWidth="1"/>
-    <col min="28" max="28" width="17.33203125" customWidth="1"/>
-    <col min="33" max="33" width="16.5546875" customWidth="1"/>
-    <col min="37" max="37" width="18.33203125" customWidth="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.88671875" customWidth="1"/>
-    <col min="57" max="57" width="16.88671875" customWidth="1"/>
-    <col min="61" max="61" width="21.109375" customWidth="1"/>
-    <col min="65" max="65" width="18.109375" customWidth="1"/>
-    <col min="69" max="69" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.88671875" customWidth="1"/>
-    <col min="79" max="79" width="16.44140625" customWidth="1"/>
-    <col min="83" max="83" width="16.109375" customWidth="1"/>
-    <col min="87" max="87" width="17.33203125" customWidth="1"/>
-    <col min="91" max="91" width="15.5546875" customWidth="1"/>
-    <col min="95" max="95" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="15.5546875" customWidth="1"/>
-    <col min="103" max="103" width="17.44140625" customWidth="1"/>
-    <col min="107" max="107" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" customWidth="1"/>
+    <col min="41" max="41" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.85546875" customWidth="1"/>
+    <col min="57" max="57" width="16.85546875" customWidth="1"/>
+    <col min="61" max="61" width="21.140625" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" customWidth="1"/>
+    <col min="69" max="69" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.85546875" customWidth="1"/>
+    <col min="79" max="79" width="16.42578125" customWidth="1"/>
+    <col min="83" max="83" width="16.140625" customWidth="1"/>
+    <col min="87" max="87" width="17.28515625" customWidth="1"/>
+    <col min="91" max="91" width="15.5703125" customWidth="1"/>
+    <col min="95" max="95" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="15.5703125" customWidth="1"/>
+    <col min="103" max="103" width="17.42578125" customWidth="1"/>
+    <col min="107" max="107" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="16" customWidth="1"/>
-    <col min="115" max="115" width="15.5546875" customWidth="1"/>
+    <col min="115" max="115" width="15.5703125" customWidth="1"/>
     <col min="119" max="119" width="19" customWidth="1"/>
+    <col min="123" max="123" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="17.140625" customWidth="1"/>
+    <col min="135" max="135" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -736,8 +740,44 @@
       <c r="DQ1">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DS1" s="2">
+        <v>45444.394444444442</v>
+      </c>
+      <c r="DT1">
+        <v>0</v>
+      </c>
+      <c r="DU1" s="6">
+        <v>33</v>
+      </c>
+      <c r="DW1" s="2">
+        <v>45444.486805555556</v>
+      </c>
+      <c r="DX1">
+        <v>0</v>
+      </c>
+      <c r="DY1">
+        <v>104</v>
+      </c>
+      <c r="EA1" s="2">
+        <v>45445.568749999999</v>
+      </c>
+      <c r="EB1">
+        <v>0</v>
+      </c>
+      <c r="EC1">
+        <v>104</v>
+      </c>
+      <c r="EE1" s="2">
+        <v>45457.319444444445</v>
+      </c>
+      <c r="EF1">
+        <v>0</v>
+      </c>
+      <c r="EG1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>20.8</v>
       </c>
@@ -828,8 +868,20 @@
       <c r="DP2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT2">
+        <v>4</v>
+      </c>
+      <c r="DX2">
+        <v>2</v>
+      </c>
+      <c r="EB2">
+        <v>4</v>
+      </c>
+      <c r="EF2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>7.31</v>
       </c>
@@ -920,8 +972,20 @@
       <c r="DP3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT3">
+        <v>9</v>
+      </c>
+      <c r="DX3">
+        <v>5</v>
+      </c>
+      <c r="EB3">
+        <v>12</v>
+      </c>
+      <c r="EF3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.3380000000000001</v>
       </c>
@@ -1015,8 +1079,20 @@
       <c r="DP4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT4">
+        <v>13</v>
+      </c>
+      <c r="DX4">
+        <v>7</v>
+      </c>
+      <c r="EB4">
+        <v>14</v>
+      </c>
+      <c r="EF4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.56</v>
       </c>
@@ -1110,8 +1186,23 @@
       <c r="DP5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT5">
+        <v>12</v>
+      </c>
+      <c r="DX5">
+        <v>11</v>
+      </c>
+      <c r="EB5">
+        <v>4</v>
+      </c>
+      <c r="EF5">
+        <v>8</v>
+      </c>
+      <c r="EG5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.8</v>
       </c>
@@ -1213,8 +1304,23 @@
       <c r="DP6">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT6">
+        <v>18</v>
+      </c>
+      <c r="DX6">
+        <v>13</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>105</v>
+      </c>
+      <c r="EF6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>25.8</v>
       </c>
@@ -1314,8 +1420,20 @@
       <c r="DP7">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT7">
+        <v>7</v>
+      </c>
+      <c r="DX7">
+        <v>15</v>
+      </c>
+      <c r="EB7">
+        <v>6</v>
+      </c>
+      <c r="EF7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>42.8</v>
       </c>
@@ -1415,8 +1533,20 @@
       <c r="DP8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>14</v>
+      </c>
+      <c r="EB8">
+        <v>12</v>
+      </c>
+      <c r="EF8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>42.5</v>
       </c>
@@ -1543,8 +1673,26 @@
       <c r="DQ9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT9">
+        <v>4</v>
+      </c>
+      <c r="DU9">
+        <v>30</v>
+      </c>
+      <c r="DX9">
+        <v>13</v>
+      </c>
+      <c r="EB9">
+        <v>20</v>
+      </c>
+      <c r="EF9">
+        <v>7</v>
+      </c>
+      <c r="EG9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>25.9</v>
       </c>
@@ -1638,8 +1786,20 @@
       <c r="DP10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT10">
+        <v>6</v>
+      </c>
+      <c r="DX10">
+        <v>12</v>
+      </c>
+      <c r="EB10">
+        <v>23</v>
+      </c>
+      <c r="EF10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>23.47</v>
       </c>
@@ -1739,8 +1899,20 @@
       <c r="DP11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT11">
+        <v>11</v>
+      </c>
+      <c r="DX11">
+        <v>9</v>
+      </c>
+      <c r="EB11">
+        <v>26</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>35.35</v>
       </c>
@@ -1833,8 +2005,20 @@
       <c r="DP12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT12">
+        <v>21</v>
+      </c>
+      <c r="DX12">
+        <v>5</v>
+      </c>
+      <c r="EB12">
+        <v>25</v>
+      </c>
+      <c r="EF12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>35.82</v>
       </c>
@@ -1925,8 +2109,23 @@
       <c r="DP13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT13">
+        <v>25</v>
+      </c>
+      <c r="DX13">
+        <v>2</v>
+      </c>
+      <c r="EB13">
+        <v>23</v>
+      </c>
+      <c r="EF13">
+        <v>5</v>
+      </c>
+      <c r="EG13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -2038,8 +2237,23 @@
       <c r="DP14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT14">
+        <v>18</v>
+      </c>
+      <c r="DX14">
+        <v>8</v>
+      </c>
+      <c r="EB14">
+        <v>22</v>
+      </c>
+      <c r="EC14">
+        <v>104</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>30.38</v>
       </c>
@@ -2136,8 +2350,23 @@
       <c r="DP15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT15">
+        <v>9</v>
+      </c>
+      <c r="DU15">
+        <v>27</v>
+      </c>
+      <c r="DX15">
+        <v>9</v>
+      </c>
+      <c r="EB15">
+        <v>19</v>
+      </c>
+      <c r="EF15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>41.18</v>
       </c>
@@ -2237,8 +2466,23 @@
       <c r="DP16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT16">
+        <v>12</v>
+      </c>
+      <c r="DX16">
+        <v>9</v>
+      </c>
+      <c r="DY16">
+        <v>104</v>
+      </c>
+      <c r="EB16">
+        <v>16</v>
+      </c>
+      <c r="EF16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>25.8</v>
       </c>
@@ -2338,8 +2582,20 @@
       <c r="DP17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT17">
+        <v>4</v>
+      </c>
+      <c r="DX17">
+        <v>6</v>
+      </c>
+      <c r="EB17">
+        <v>21</v>
+      </c>
+      <c r="EF17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>28.86</v>
       </c>
@@ -2454,8 +2710,20 @@
       <c r="DQ18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT18">
+        <v>0</v>
+      </c>
+      <c r="DX18">
+        <v>9</v>
+      </c>
+      <c r="EB18">
+        <v>14</v>
+      </c>
+      <c r="EF18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>38.799999999999997</v>
       </c>
@@ -2555,8 +2823,23 @@
       <c r="DP19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT19">
+        <v>10</v>
+      </c>
+      <c r="DX19">
+        <v>20</v>
+      </c>
+      <c r="EB19">
+        <v>25</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>31.21</v>
       </c>
@@ -2650,8 +2933,20 @@
       <c r="DP20">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT20">
+        <v>19</v>
+      </c>
+      <c r="DX20">
+        <v>30</v>
+      </c>
+      <c r="EB20">
+        <v>17</v>
+      </c>
+      <c r="EF20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>3.78</v>
       </c>
@@ -2748,8 +3043,20 @@
       <c r="DP21">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT21">
+        <v>31</v>
+      </c>
+      <c r="DX21">
+        <v>27</v>
+      </c>
+      <c r="EB21">
+        <v>22</v>
+      </c>
+      <c r="EF21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18.2</v>
       </c>
@@ -2858,8 +3165,23 @@
       <c r="DP22">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT22">
+        <v>27</v>
+      </c>
+      <c r="DX22">
+        <v>26</v>
+      </c>
+      <c r="EB22">
+        <v>23</v>
+      </c>
+      <c r="EC22">
+        <v>87</v>
+      </c>
+      <c r="EF22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>12.85</v>
       </c>
@@ -2959,8 +3281,23 @@
       <c r="DP23">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT23">
+        <v>20</v>
+      </c>
+      <c r="DU23">
+        <v>20</v>
+      </c>
+      <c r="DX23">
+        <v>24</v>
+      </c>
+      <c r="EB23">
+        <v>30</v>
+      </c>
+      <c r="EF23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>27.55</v>
       </c>
@@ -3060,8 +3397,23 @@
       <c r="DP24">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT24">
+        <v>30</v>
+      </c>
+      <c r="DX24">
+        <v>22</v>
+      </c>
+      <c r="EB24">
+        <v>42</v>
+      </c>
+      <c r="EF24">
+        <v>13</v>
+      </c>
+      <c r="EG24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -3158,8 +3510,20 @@
       <c r="DP25">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT25">
+        <v>34</v>
+      </c>
+      <c r="DX25">
+        <v>15</v>
+      </c>
+      <c r="EB25">
+        <v>51</v>
+      </c>
+      <c r="EF25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>14.4</v>
       </c>
@@ -3265,8 +3629,20 @@
       <c r="DP26">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT26">
+        <v>32</v>
+      </c>
+      <c r="DX26">
+        <v>18</v>
+      </c>
+      <c r="EB26">
+        <v>39</v>
+      </c>
+      <c r="EF26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18.47</v>
       </c>
@@ -3372,8 +3748,20 @@
       <c r="DP27">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT27">
+        <v>28</v>
+      </c>
+      <c r="DX27">
+        <v>21</v>
+      </c>
+      <c r="EB27">
+        <v>25</v>
+      </c>
+      <c r="EF27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>14.96</v>
       </c>
@@ -3476,8 +3864,26 @@
       <c r="DP28">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT28">
+        <v>35</v>
+      </c>
+      <c r="DX28">
+        <v>19</v>
+      </c>
+      <c r="DY28">
+        <v>105</v>
+      </c>
+      <c r="EB28">
+        <v>38</v>
+      </c>
+      <c r="EF28">
+        <v>28</v>
+      </c>
+      <c r="EG28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>30.42</v>
       </c>
@@ -3589,8 +3995,20 @@
       <c r="DQ29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT29">
+        <v>31</v>
+      </c>
+      <c r="DX29">
+        <v>18</v>
+      </c>
+      <c r="EB29">
+        <v>52</v>
+      </c>
+      <c r="EF29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20.48</v>
       </c>
@@ -3687,8 +4105,20 @@
       <c r="DP30">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT30">
+        <v>17</v>
+      </c>
+      <c r="DX30">
+        <v>23</v>
+      </c>
+      <c r="EB30">
+        <v>68</v>
+      </c>
+      <c r="EF30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>4.25</v>
       </c>
@@ -3788,8 +4218,20 @@
       <c r="DP31">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="2:121" x14ac:dyDescent="0.3">
+      <c r="DT31">
+        <v>4</v>
+      </c>
+      <c r="DX31">
+        <v>21</v>
+      </c>
+      <c r="EB31">
+        <v>84</v>
+      </c>
+      <c r="EF31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:137" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>5.29</v>
       </c>
@@ -3886,8 +4328,29 @@
       <c r="DP32">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT32">
+        <v>0</v>
+      </c>
+      <c r="DU32">
+        <v>19</v>
+      </c>
+      <c r="DX32">
+        <v>21</v>
+      </c>
+      <c r="EB32">
+        <v>100</v>
+      </c>
+      <c r="EC32">
+        <v>69</v>
+      </c>
+      <c r="EF32">
+        <v>22</v>
+      </c>
+      <c r="EG32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>10.27</v>
       </c>
@@ -3981,8 +4444,20 @@
       <c r="DP33">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT33">
+        <v>3</v>
+      </c>
+      <c r="DX33">
+        <v>21</v>
+      </c>
+      <c r="EB33">
+        <v>105</v>
+      </c>
+      <c r="EF33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>13.45</v>
       </c>
@@ -4079,8 +4554,20 @@
       <c r="DP34">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT34">
+        <v>15</v>
+      </c>
+      <c r="DX34">
+        <v>17</v>
+      </c>
+      <c r="EB34">
+        <v>97</v>
+      </c>
+      <c r="EF34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>22.25</v>
       </c>
@@ -4195,8 +4682,20 @@
       <c r="DP35">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT35">
+        <v>30</v>
+      </c>
+      <c r="DX35">
+        <v>15</v>
+      </c>
+      <c r="EB35">
+        <v>98</v>
+      </c>
+      <c r="EF35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>23.45</v>
       </c>
@@ -4296,8 +4795,23 @@
       <c r="DP36">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT36">
+        <v>48</v>
+      </c>
+      <c r="DX36">
+        <v>14</v>
+      </c>
+      <c r="EB36">
+        <v>87</v>
+      </c>
+      <c r="EF36">
+        <v>38</v>
+      </c>
+      <c r="EG36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>21.49</v>
       </c>
@@ -4391,8 +4905,20 @@
       <c r="DP37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT37">
+        <v>43</v>
+      </c>
+      <c r="DX37">
+        <v>13</v>
+      </c>
+      <c r="EB37">
+        <v>78</v>
+      </c>
+      <c r="EF37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>7</v>
       </c>
@@ -4486,8 +5012,20 @@
       <c r="DP38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT38">
+        <v>37</v>
+      </c>
+      <c r="DX38">
+        <v>22</v>
+      </c>
+      <c r="EB38">
+        <v>77</v>
+      </c>
+      <c r="EF38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>9.48</v>
       </c>
@@ -4578,8 +5116,20 @@
       <c r="DP39">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT39">
+        <v>27</v>
+      </c>
+      <c r="DX39">
+        <v>23</v>
+      </c>
+      <c r="EB39">
+        <v>89</v>
+      </c>
+      <c r="EF39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10.45</v>
       </c>
@@ -4670,8 +5220,26 @@
       <c r="DP40">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT40">
+        <v>13</v>
+      </c>
+      <c r="DX40">
+        <v>23</v>
+      </c>
+      <c r="EB40">
+        <v>97</v>
+      </c>
+      <c r="EC40">
+        <v>52</v>
+      </c>
+      <c r="EF40">
+        <v>9</v>
+      </c>
+      <c r="EG40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3.74</v>
       </c>
@@ -4768,8 +5336,20 @@
       <c r="DP41">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT41">
+        <v>1</v>
+      </c>
+      <c r="DX41">
+        <v>24</v>
+      </c>
+      <c r="EB41">
+        <v>94</v>
+      </c>
+      <c r="EF41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.66</v>
       </c>
@@ -4899,8 +5479,20 @@
       <c r="DQ42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT42">
+        <v>20</v>
+      </c>
+      <c r="DX42">
+        <v>25</v>
+      </c>
+      <c r="EB42">
+        <v>86</v>
+      </c>
+      <c r="EF42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:137" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -5006,8 +5598,23 @@
       <c r="DP43">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT43">
+        <v>47</v>
+      </c>
+      <c r="DU43">
+        <v>2</v>
+      </c>
+      <c r="DX43">
+        <v>22</v>
+      </c>
+      <c r="EB43">
+        <v>97</v>
+      </c>
+      <c r="EF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:137" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>16.8</v>
       </c>
@@ -5104,8 +5711,20 @@
       <c r="DP44">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT44">
+        <v>63</v>
+      </c>
+      <c r="DX44">
+        <v>17</v>
+      </c>
+      <c r="EB44">
+        <v>103</v>
+      </c>
+      <c r="EF44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:137" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>21</v>
       </c>
@@ -5208,8 +5827,26 @@
       <c r="DP45">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT45">
+        <v>72</v>
+      </c>
+      <c r="DX45">
+        <v>21</v>
+      </c>
+      <c r="DY45">
+        <v>106</v>
+      </c>
+      <c r="EB45">
+        <v>90</v>
+      </c>
+      <c r="EF45">
+        <v>11</v>
+      </c>
+      <c r="EG45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:137" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>21.92</v>
       </c>
@@ -5312,8 +5949,20 @@
       <c r="DP46">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT46">
+        <v>75</v>
+      </c>
+      <c r="DX46">
+        <v>20</v>
+      </c>
+      <c r="EB46">
+        <v>86</v>
+      </c>
+      <c r="EF46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:137" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>23.51</v>
       </c>
@@ -5398,8 +6047,23 @@
       <c r="DP47">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:121" x14ac:dyDescent="0.3">
+      <c r="DT47">
+        <v>90</v>
+      </c>
+      <c r="DX47">
+        <v>20</v>
+      </c>
+      <c r="EB47">
+        <v>82</v>
+      </c>
+      <c r="EC47">
+        <v>35</v>
+      </c>
+      <c r="EF47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:137" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>7.8</v>
       </c>
@@ -5493,8 +6157,20 @@
       <c r="DP48">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT48">
+        <v>88</v>
+      </c>
+      <c r="DX48">
+        <v>21</v>
+      </c>
+      <c r="EB48">
+        <v>76</v>
+      </c>
+      <c r="EF48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>3.13</v>
       </c>
@@ -5588,8 +6264,20 @@
       <c r="DP49">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT49">
+        <v>82</v>
+      </c>
+      <c r="DX49">
+        <v>16</v>
+      </c>
+      <c r="EB49">
+        <v>68</v>
+      </c>
+      <c r="EF49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>7.96</v>
       </c>
@@ -5692,8 +6380,23 @@
       <c r="DP50">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT50">
+        <v>66</v>
+      </c>
+      <c r="DX50">
+        <v>17</v>
+      </c>
+      <c r="EB50">
+        <v>61</v>
+      </c>
+      <c r="EF50">
+        <v>29</v>
+      </c>
+      <c r="EG50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>14.8</v>
       </c>
@@ -5802,8 +6505,20 @@
       <c r="DQ51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT51">
+        <v>76</v>
+      </c>
+      <c r="DX51">
+        <v>20</v>
+      </c>
+      <c r="EB51">
+        <v>48</v>
+      </c>
+      <c r="EF51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>22.21</v>
       </c>
@@ -5894,8 +6609,20 @@
       <c r="DP52">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT52">
+        <v>93</v>
+      </c>
+      <c r="DX52">
+        <v>17</v>
+      </c>
+      <c r="EB52">
+        <v>37</v>
+      </c>
+      <c r="EF52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>18.45</v>
       </c>
@@ -5980,8 +6707,20 @@
       <c r="DP53">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT53">
+        <v>99</v>
+      </c>
+      <c r="DX53">
+        <v>17</v>
+      </c>
+      <c r="EB53">
+        <v>46</v>
+      </c>
+      <c r="EF53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>11.63</v>
       </c>
@@ -6087,8 +6826,20 @@
       <c r="DP54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT54">
+        <v>91</v>
+      </c>
+      <c r="DX54">
+        <v>18</v>
+      </c>
+      <c r="EB54">
+        <v>41</v>
+      </c>
+      <c r="EF54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>8.86</v>
       </c>
@@ -6183,8 +6934,23 @@
       <c r="DP55">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT55">
+        <v>90</v>
+      </c>
+      <c r="DX55">
+        <v>17</v>
+      </c>
+      <c r="EB55">
+        <v>35</v>
+      </c>
+      <c r="EF55">
+        <v>20</v>
+      </c>
+      <c r="EG55">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>5.48</v>
       </c>
@@ -6287,8 +7053,23 @@
       <c r="DP56">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT56">
+        <v>104</v>
+      </c>
+      <c r="DU56">
+        <v>5</v>
+      </c>
+      <c r="DX56">
+        <v>21</v>
+      </c>
+      <c r="EB56">
+        <v>29</v>
+      </c>
+      <c r="EF56">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>3.48</v>
       </c>
@@ -6379,8 +7160,26 @@
       <c r="DP57">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT57">
+        <v>99</v>
+      </c>
+      <c r="DX57">
+        <v>21</v>
+      </c>
+      <c r="DY57">
+        <v>105</v>
+      </c>
+      <c r="EB57">
+        <v>29</v>
+      </c>
+      <c r="EC57">
+        <v>21</v>
+      </c>
+      <c r="EF57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>1.66</v>
       </c>
@@ -6468,8 +7267,20 @@
       <c r="DP58">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT58">
+        <v>105</v>
+      </c>
+      <c r="DX58">
+        <v>22</v>
+      </c>
+      <c r="EB58">
+        <v>21</v>
+      </c>
+      <c r="EF58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="4:137" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -6569,8 +7380,20 @@
       <c r="DP59">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT59">
+        <v>97</v>
+      </c>
+      <c r="DX59">
+        <v>26</v>
+      </c>
+      <c r="EB59">
+        <v>25</v>
+      </c>
+      <c r="EF59">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="4:137" x14ac:dyDescent="0.25">
       <c r="O60">
         <v>55</v>
       </c>
@@ -6658,8 +7481,23 @@
       <c r="DP60">
         <v>33</v>
       </c>
-    </row>
-    <row r="61" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT60">
+        <v>86</v>
+      </c>
+      <c r="DX60">
+        <v>17</v>
+      </c>
+      <c r="EB60">
+        <v>25</v>
+      </c>
+      <c r="EF60">
+        <v>25</v>
+      </c>
+      <c r="EG60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="4:137" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>21</v>
       </c>
@@ -6750,8 +7588,20 @@
       <c r="DP61">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT61">
+        <v>108</v>
+      </c>
+      <c r="DX61">
+        <v>20</v>
+      </c>
+      <c r="EB61">
+        <v>24</v>
+      </c>
+      <c r="EF61">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="4:137" x14ac:dyDescent="0.25">
       <c r="O62">
         <v>24</v>
       </c>
@@ -6854,8 +7704,20 @@
       <c r="DQ62">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT62">
+        <v>103</v>
+      </c>
+      <c r="DX62">
+        <v>19</v>
+      </c>
+      <c r="EB62">
+        <v>29</v>
+      </c>
+      <c r="EF62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="4:137" x14ac:dyDescent="0.25">
       <c r="O63">
         <v>23</v>
       </c>
@@ -6952,8 +7814,26 @@
       <c r="DP63">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="4:121" x14ac:dyDescent="0.3">
+      <c r="DT63">
+        <v>100</v>
+      </c>
+      <c r="DU63">
+        <v>5</v>
+      </c>
+      <c r="DX63">
+        <v>15</v>
+      </c>
+      <c r="EB63">
+        <v>22</v>
+      </c>
+      <c r="EC63">
+        <v>23</v>
+      </c>
+      <c r="EF63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="4:137" x14ac:dyDescent="0.25">
       <c r="O64">
         <v>27</v>
       </c>
@@ -7035,8 +7915,20 @@
       <c r="DP64">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT64">
+        <v>106</v>
+      </c>
+      <c r="DX64">
+        <v>11</v>
+      </c>
+      <c r="EB64">
+        <v>34</v>
+      </c>
+      <c r="EF64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O65">
         <v>28</v>
       </c>
@@ -7121,8 +8013,23 @@
       <c r="DP65">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT65">
+        <v>84</v>
+      </c>
+      <c r="DX65">
+        <v>10</v>
+      </c>
+      <c r="EB65">
+        <v>33</v>
+      </c>
+      <c r="EF65">
+        <v>12</v>
+      </c>
+      <c r="EG65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O66">
         <v>27</v>
       </c>
@@ -7204,8 +8111,23 @@
       <c r="DP66">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT66">
+        <v>95</v>
+      </c>
+      <c r="DX66">
+        <v>7</v>
+      </c>
+      <c r="DY66">
+        <v>106</v>
+      </c>
+      <c r="EB66">
+        <v>25</v>
+      </c>
+      <c r="EF66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O67">
         <v>26</v>
       </c>
@@ -7296,8 +8218,20 @@
       <c r="DP67">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT67">
+        <v>115</v>
+      </c>
+      <c r="DX67">
+        <v>8</v>
+      </c>
+      <c r="EB67">
+        <v>48</v>
+      </c>
+      <c r="EF67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O68">
         <v>23</v>
       </c>
@@ -7382,8 +8316,20 @@
       <c r="DP68">
         <v>51</v>
       </c>
-    </row>
-    <row r="69" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT68">
+        <v>103</v>
+      </c>
+      <c r="DX68">
+        <v>13</v>
+      </c>
+      <c r="EB68">
+        <v>56</v>
+      </c>
+      <c r="EF68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O69">
         <v>15</v>
       </c>
@@ -7480,8 +8426,20 @@
       <c r="DP69">
         <v>43</v>
       </c>
-    </row>
-    <row r="70" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT69">
+        <v>105</v>
+      </c>
+      <c r="DX69">
+        <v>14</v>
+      </c>
+      <c r="EB69">
+        <v>83</v>
+      </c>
+      <c r="EF69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O70">
         <v>7</v>
       </c>
@@ -7578,8 +8536,26 @@
       <c r="DP70">
         <v>35</v>
       </c>
-    </row>
-    <row r="71" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT70">
+        <v>92</v>
+      </c>
+      <c r="DX70">
+        <v>14</v>
+      </c>
+      <c r="EB70">
+        <v>103</v>
+      </c>
+      <c r="EC70">
+        <v>30</v>
+      </c>
+      <c r="EF70">
+        <v>0</v>
+      </c>
+      <c r="EG70">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O71">
         <v>23</v>
       </c>
@@ -7670,8 +8646,20 @@
       <c r="DP71">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT71">
+        <v>97</v>
+      </c>
+      <c r="DX71">
+        <v>13</v>
+      </c>
+      <c r="EB71">
+        <v>117</v>
+      </c>
+      <c r="EF71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O72">
         <v>64</v>
       </c>
@@ -7756,8 +8744,23 @@
       <c r="DP72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT72">
+        <v>94</v>
+      </c>
+      <c r="DU72">
+        <v>6</v>
+      </c>
+      <c r="DX72">
+        <v>13</v>
+      </c>
+      <c r="EB72">
+        <v>106</v>
+      </c>
+      <c r="EF72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O73">
         <v>76</v>
       </c>
@@ -7833,8 +8836,20 @@
       <c r="DP73">
         <v>21</v>
       </c>
-    </row>
-    <row r="74" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT73">
+        <v>111</v>
+      </c>
+      <c r="DX73">
+        <v>13</v>
+      </c>
+      <c r="EB73">
+        <v>107</v>
+      </c>
+      <c r="EF73">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O74">
         <v>84</v>
       </c>
@@ -7922,8 +8937,20 @@
       <c r="DP74">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT74">
+        <v>109</v>
+      </c>
+      <c r="DX74">
+        <v>14</v>
+      </c>
+      <c r="EB74">
+        <v>100</v>
+      </c>
+      <c r="EF74">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O75">
         <v>76</v>
       </c>
@@ -8014,8 +9041,20 @@
       <c r="DQ75">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT75">
+        <v>107</v>
+      </c>
+      <c r="DX75">
+        <v>11</v>
+      </c>
+      <c r="EB75">
+        <v>95</v>
+      </c>
+      <c r="EF75">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O76">
         <v>76</v>
       </c>
@@ -8097,8 +9136,20 @@
       <c r="DP76">
         <v>40</v>
       </c>
-    </row>
-    <row r="77" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT76">
+        <v>96</v>
+      </c>
+      <c r="DX76">
+        <v>5</v>
+      </c>
+      <c r="EB76">
+        <v>91</v>
+      </c>
+      <c r="EF76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O77">
         <v>76</v>
       </c>
@@ -8177,8 +9228,26 @@
       <c r="DP77">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT77">
+        <v>96</v>
+      </c>
+      <c r="DX77">
+        <v>7</v>
+      </c>
+      <c r="EB77">
+        <v>75</v>
+      </c>
+      <c r="EC77">
+        <v>61</v>
+      </c>
+      <c r="EF77">
+        <v>0</v>
+      </c>
+      <c r="EG77">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O78">
         <v>75</v>
       </c>
@@ -8260,8 +9329,23 @@
       <c r="DP78">
         <v>47</v>
       </c>
-    </row>
-    <row r="79" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT78">
+        <v>91</v>
+      </c>
+      <c r="DX78">
+        <v>11</v>
+      </c>
+      <c r="DY78">
+        <v>106</v>
+      </c>
+      <c r="EB78">
+        <v>89</v>
+      </c>
+      <c r="EF78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O79">
         <v>65</v>
       </c>
@@ -8346,8 +9430,20 @@
       <c r="DP79">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="15:121" x14ac:dyDescent="0.3">
+      <c r="DT79">
+        <v>82</v>
+      </c>
+      <c r="DX79">
+        <v>15</v>
+      </c>
+      <c r="EB79">
+        <v>100</v>
+      </c>
+      <c r="EF79">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="15:137" x14ac:dyDescent="0.25">
       <c r="O80">
         <v>42</v>
       </c>
@@ -8423,8 +9519,20 @@
       <c r="DP80">
         <v>48</v>
       </c>
-    </row>
-    <row r="81" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT80">
+        <v>76</v>
+      </c>
+      <c r="DX80">
+        <v>16</v>
+      </c>
+      <c r="EB80">
+        <v>105</v>
+      </c>
+      <c r="EF80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O81">
         <v>26</v>
       </c>
@@ -8512,8 +9620,20 @@
       <c r="DP81">
         <v>36</v>
       </c>
-    </row>
-    <row r="82" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT81">
+        <v>92</v>
+      </c>
+      <c r="DX81">
+        <v>16</v>
+      </c>
+      <c r="EB81">
+        <v>96</v>
+      </c>
+      <c r="EF81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O82">
         <v>20</v>
       </c>
@@ -8589,8 +9709,20 @@
       <c r="DP82">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT82">
+        <v>105</v>
+      </c>
+      <c r="DX82">
+        <v>16</v>
+      </c>
+      <c r="EB82">
+        <v>83</v>
+      </c>
+      <c r="EF82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O83">
         <v>21</v>
       </c>
@@ -8672,8 +9804,23 @@
       <c r="DQ83">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT83">
+        <v>97</v>
+      </c>
+      <c r="DX83">
+        <v>15</v>
+      </c>
+      <c r="EB83">
+        <v>68</v>
+      </c>
+      <c r="EF83">
+        <v>31</v>
+      </c>
+      <c r="EG83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O84">
         <v>22</v>
       </c>
@@ -8761,8 +9908,23 @@
       <c r="DP84">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT84">
+        <v>89</v>
+      </c>
+      <c r="DX84">
+        <v>13</v>
+      </c>
+      <c r="EB84">
+        <v>63</v>
+      </c>
+      <c r="EC84">
+        <v>91</v>
+      </c>
+      <c r="EF84">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O85">
         <v>19</v>
       </c>
@@ -8829,8 +9991,23 @@
       <c r="DP85">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT85">
+        <v>107</v>
+      </c>
+      <c r="DU85">
+        <v>15</v>
+      </c>
+      <c r="DX85">
+        <v>12</v>
+      </c>
+      <c r="EB85">
+        <v>47</v>
+      </c>
+      <c r="EF85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O86">
         <v>17</v>
       </c>
@@ -8909,8 +10086,26 @@
       <c r="DP86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT86">
+        <v>97</v>
+      </c>
+      <c r="DX86">
+        <v>13</v>
+      </c>
+      <c r="DY86">
+        <v>107</v>
+      </c>
+      <c r="EB86">
+        <v>36</v>
+      </c>
+      <c r="EF86">
+        <v>0</v>
+      </c>
+      <c r="EG86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O87">
         <v>16</v>
       </c>
@@ -8986,8 +10181,20 @@
       <c r="DP87">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT87">
+        <v>104</v>
+      </c>
+      <c r="DX87">
+        <v>7</v>
+      </c>
+      <c r="EB87">
+        <v>42</v>
+      </c>
+      <c r="EF87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O88">
         <v>16</v>
       </c>
@@ -9048,8 +10255,20 @@
       <c r="DP88">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT88">
+        <v>104</v>
+      </c>
+      <c r="DX88">
+        <v>8</v>
+      </c>
+      <c r="EB88">
+        <v>55</v>
+      </c>
+      <c r="EF88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O89">
         <v>15</v>
       </c>
@@ -9122,8 +10341,20 @@
       <c r="DP89">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT89">
+        <v>92</v>
+      </c>
+      <c r="DX89">
+        <v>10</v>
+      </c>
+      <c r="EB89">
+        <v>79</v>
+      </c>
+      <c r="EF89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O90">
         <v>15</v>
       </c>
@@ -9193,8 +10424,20 @@
       <c r="DQ90">
         <v>18</v>
       </c>
-    </row>
-    <row r="91" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT90">
+        <v>87</v>
+      </c>
+      <c r="DX90">
+        <v>10</v>
+      </c>
+      <c r="EB90">
+        <v>96</v>
+      </c>
+      <c r="EF90">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="14:137" x14ac:dyDescent="0.25">
       <c r="O91">
         <v>10</v>
       </c>
@@ -9258,8 +10501,26 @@
       <c r="DP91">
         <v>33</v>
       </c>
-    </row>
-    <row r="92" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT91">
+        <v>76</v>
+      </c>
+      <c r="DX91">
+        <v>12</v>
+      </c>
+      <c r="EB91">
+        <v>109</v>
+      </c>
+      <c r="EC91">
+        <v>125</v>
+      </c>
+      <c r="EF91">
+        <v>52</v>
+      </c>
+      <c r="EG91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="14:137" x14ac:dyDescent="0.25">
       <c r="N92" s="2">
         <v>45404.436111111114</v>
       </c>
@@ -9335,8 +10596,20 @@
       <c r="DP92">
         <v>30</v>
       </c>
-    </row>
-    <row r="93" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT92">
+        <v>74</v>
+      </c>
+      <c r="DX92">
+        <v>11</v>
+      </c>
+      <c r="EB92">
+        <v>118</v>
+      </c>
+      <c r="EF92">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="14:137" x14ac:dyDescent="0.25">
       <c r="T93">
         <v>43</v>
       </c>
@@ -9400,8 +10673,20 @@
       <c r="DP93">
         <v>27</v>
       </c>
-    </row>
-    <row r="94" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT93">
+        <v>67</v>
+      </c>
+      <c r="DX93">
+        <v>9</v>
+      </c>
+      <c r="EB93">
+        <v>116</v>
+      </c>
+      <c r="EF93">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="14:137" x14ac:dyDescent="0.25">
       <c r="T94">
         <v>44</v>
       </c>
@@ -9465,8 +10750,23 @@
       <c r="DP94">
         <v>18</v>
       </c>
-    </row>
-    <row r="95" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT94">
+        <v>60</v>
+      </c>
+      <c r="DU94">
+        <v>17</v>
+      </c>
+      <c r="DX94">
+        <v>14</v>
+      </c>
+      <c r="EB94">
+        <v>100</v>
+      </c>
+      <c r="EF94">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="14:137" x14ac:dyDescent="0.25">
       <c r="T95">
         <v>34</v>
       </c>
@@ -9533,8 +10833,20 @@
       <c r="DP95">
         <v>29</v>
       </c>
-    </row>
-    <row r="96" spans="14:121" x14ac:dyDescent="0.3">
+      <c r="DT95">
+        <v>45</v>
+      </c>
+      <c r="DX95">
+        <v>12</v>
+      </c>
+      <c r="EB95">
+        <v>102</v>
+      </c>
+      <c r="EF95">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="14:137" x14ac:dyDescent="0.25">
       <c r="T96">
         <v>28</v>
       </c>
@@ -9601,8 +10913,20 @@
       <c r="DP96">
         <v>39</v>
       </c>
-    </row>
-    <row r="97" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT96">
+        <v>38</v>
+      </c>
+      <c r="DX96">
+        <v>11</v>
+      </c>
+      <c r="EB96">
+        <v>109</v>
+      </c>
+      <c r="EF96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="19:137" x14ac:dyDescent="0.25">
       <c r="T97">
         <v>16</v>
       </c>
@@ -9660,8 +10984,23 @@
       <c r="DP97">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT97">
+        <v>35</v>
+      </c>
+      <c r="DX97">
+        <v>7</v>
+      </c>
+      <c r="EB97">
+        <v>103</v>
+      </c>
+      <c r="EF97">
+        <v>19</v>
+      </c>
+      <c r="EG97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="19:137" x14ac:dyDescent="0.25">
       <c r="S98" s="2">
         <v>45403.496527777781</v>
       </c>
@@ -9749,8 +11088,20 @@
       <c r="DQ98">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT98">
+        <v>21</v>
+      </c>
+      <c r="DX98">
+        <v>4</v>
+      </c>
+      <c r="EB98">
+        <v>98</v>
+      </c>
+      <c r="EF98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y99">
         <v>8</v>
       </c>
@@ -9808,8 +11159,26 @@
       <c r="DP99">
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT99">
+        <v>28</v>
+      </c>
+      <c r="DW99" s="2">
+        <v>45444.495833333334</v>
+      </c>
+      <c r="DX99">
+        <v>0</v>
+      </c>
+      <c r="DY99">
+        <v>107</v>
+      </c>
+      <c r="EB99">
+        <v>104</v>
+      </c>
+      <c r="EF99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y100">
         <v>0</v>
       </c>
@@ -9868,8 +11237,20 @@
       <c r="DP100">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT100">
+        <v>31</v>
+      </c>
+      <c r="EB100">
+        <v>100</v>
+      </c>
+      <c r="EC100">
+        <v>98</v>
+      </c>
+      <c r="EF100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y101">
         <v>16</v>
       </c>
@@ -9924,8 +11305,20 @@
       <c r="DP101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT101">
+        <v>24</v>
+      </c>
+      <c r="DU101">
+        <v>20</v>
+      </c>
+      <c r="EB101">
+        <v>102</v>
+      </c>
+      <c r="EF101">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y102">
         <v>28</v>
       </c>
@@ -9983,8 +11376,17 @@
       <c r="DP102">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT102">
+        <v>27</v>
+      </c>
+      <c r="EB102">
+        <v>102</v>
+      </c>
+      <c r="EF102">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y103">
         <v>20</v>
       </c>
@@ -10036,8 +11438,20 @@
       <c r="DP103">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT103">
+        <v>36</v>
+      </c>
+      <c r="EB103">
+        <v>98</v>
+      </c>
+      <c r="EF103">
+        <v>52</v>
+      </c>
+      <c r="EG103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y104">
         <v>18</v>
       </c>
@@ -10092,8 +11506,17 @@
       <c r="DP104">
         <v>28</v>
       </c>
-    </row>
-    <row r="105" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT104">
+        <v>30</v>
+      </c>
+      <c r="EB104">
+        <v>103</v>
+      </c>
+      <c r="EF104">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="105" spans="19:137" x14ac:dyDescent="0.25">
       <c r="Y105">
         <v>3</v>
       </c>
@@ -10154,8 +11577,20 @@
       <c r="DP105">
         <v>26</v>
       </c>
-    </row>
-    <row r="106" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT105">
+        <v>28</v>
+      </c>
+      <c r="DU105">
+        <v>45</v>
+      </c>
+      <c r="EB105">
+        <v>107</v>
+      </c>
+      <c r="EF105">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="19:137" x14ac:dyDescent="0.25">
       <c r="X106" s="2">
         <v>45403.570138888892</v>
       </c>
@@ -10219,8 +11654,17 @@
       <c r="DQ106">
         <v>30</v>
       </c>
-    </row>
-    <row r="107" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT106">
+        <v>23</v>
+      </c>
+      <c r="EB106">
+        <v>100</v>
+      </c>
+      <c r="EF106">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="19:137" x14ac:dyDescent="0.25">
       <c r="AX107">
         <v>29</v>
       </c>
@@ -10269,8 +11713,20 @@
       <c r="DP107">
         <v>15</v>
       </c>
-    </row>
-    <row r="108" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT107">
+        <v>27</v>
+      </c>
+      <c r="EB107">
+        <v>95</v>
+      </c>
+      <c r="EF107">
+        <v>77</v>
+      </c>
+      <c r="EG107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="19:137" x14ac:dyDescent="0.25">
       <c r="AX108">
         <v>25</v>
       </c>
@@ -10319,8 +11775,20 @@
       <c r="DP108">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT108">
+        <v>25</v>
+      </c>
+      <c r="EB108">
+        <v>101</v>
+      </c>
+      <c r="EC108">
+        <v>70</v>
+      </c>
+      <c r="EF108">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="19:137" x14ac:dyDescent="0.25">
       <c r="AX109">
         <v>9</v>
       </c>
@@ -10372,8 +11840,20 @@
       <c r="DP109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT109">
+        <v>25</v>
+      </c>
+      <c r="DU109">
+        <v>70</v>
+      </c>
+      <c r="EB109">
+        <v>90</v>
+      </c>
+      <c r="EF109">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="19:137" x14ac:dyDescent="0.25">
       <c r="AX110">
         <v>4</v>
       </c>
@@ -10422,8 +11902,17 @@
       <c r="DP110">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT110">
+        <v>28</v>
+      </c>
+      <c r="EB110">
+        <v>88</v>
+      </c>
+      <c r="EF110">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="19:137" x14ac:dyDescent="0.25">
       <c r="AW111" s="2">
         <v>45408.349305555559</v>
       </c>
@@ -10481,8 +11970,17 @@
       <c r="DP111">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="19:121" x14ac:dyDescent="0.3">
+      <c r="DT111">
+        <v>34</v>
+      </c>
+      <c r="EB111">
+        <v>102</v>
+      </c>
+      <c r="EF111">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="19:137" x14ac:dyDescent="0.25">
       <c r="BN112">
         <v>9</v>
       </c>
@@ -10537,8 +12035,17 @@
       <c r="DQ112">
         <v>33</v>
       </c>
-    </row>
-    <row r="113" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT112">
+        <v>38</v>
+      </c>
+      <c r="EB112">
+        <v>110</v>
+      </c>
+      <c r="EF112">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BN113">
         <v>2</v>
       </c>
@@ -10578,8 +12085,20 @@
       <c r="DP113">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT113">
+        <v>46</v>
+      </c>
+      <c r="EB113">
+        <v>97</v>
+      </c>
+      <c r="EF113">
+        <v>71</v>
+      </c>
+      <c r="EG113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BM114" s="2">
         <v>45415.710416666669</v>
       </c>
@@ -10625,8 +12144,17 @@
       <c r="DP114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT114">
+        <v>43</v>
+      </c>
+      <c r="EB114">
+        <v>95</v>
+      </c>
+      <c r="EF114">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR115">
         <v>81</v>
       </c>
@@ -10663,8 +12191,20 @@
       <c r="DP115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT115">
+        <v>23</v>
+      </c>
+      <c r="EB115">
+        <v>81</v>
+      </c>
+      <c r="EC115">
+        <v>45</v>
+      </c>
+      <c r="EF115">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR116">
         <v>93</v>
       </c>
@@ -10708,8 +12248,20 @@
       <c r="DP116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT116">
+        <v>43</v>
+      </c>
+      <c r="DU116">
+        <v>98</v>
+      </c>
+      <c r="EB116">
+        <v>89</v>
+      </c>
+      <c r="EF116">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR117">
         <v>92</v>
       </c>
@@ -10746,8 +12298,17 @@
       <c r="DP117">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT117">
+        <v>52</v>
+      </c>
+      <c r="EB117">
+        <v>87</v>
+      </c>
+      <c r="EF117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR118">
         <v>82</v>
       </c>
@@ -10781,8 +12342,17 @@
       <c r="DP118">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT118">
+        <v>71</v>
+      </c>
+      <c r="EB118">
+        <v>71</v>
+      </c>
+      <c r="EF118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR119">
         <v>77</v>
       </c>
@@ -10828,8 +12398,20 @@
       <c r="DP119">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT119">
+        <v>90</v>
+      </c>
+      <c r="EB119">
+        <v>69</v>
+      </c>
+      <c r="EF119">
+        <v>28</v>
+      </c>
+      <c r="EG119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR120">
         <v>77</v>
       </c>
@@ -10875,8 +12457,17 @@
       <c r="DQ120">
         <v>33</v>
       </c>
-    </row>
-    <row r="121" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT120">
+        <v>86</v>
+      </c>
+      <c r="EB120">
+        <v>79</v>
+      </c>
+      <c r="EF120">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR121">
         <v>83</v>
       </c>
@@ -10910,8 +12501,20 @@
       <c r="DD121">
         <v>43</v>
       </c>
-    </row>
-    <row r="122" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT121">
+        <v>84</v>
+      </c>
+      <c r="DU121">
+        <v>125</v>
+      </c>
+      <c r="EB121">
+        <v>90</v>
+      </c>
+      <c r="EF121">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR122">
         <v>88</v>
       </c>
@@ -10945,11 +12548,20 @@
       <c r="DE122">
         <v>7</v>
       </c>
-      <c r="DM122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT122">
+        <v>84</v>
+      </c>
+      <c r="EB122">
+        <v>75</v>
+      </c>
+      <c r="EC122">
+        <v>20</v>
+      </c>
+      <c r="EF122">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR123">
         <v>84</v>
       </c>
@@ -10977,8 +12589,20 @@
       <c r="DD123">
         <v>43</v>
       </c>
-    </row>
-    <row r="124" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT123">
+        <v>78</v>
+      </c>
+      <c r="DU123">
+        <v>91</v>
+      </c>
+      <c r="EB123">
+        <v>97</v>
+      </c>
+      <c r="EF123">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR124">
         <v>74</v>
       </c>
@@ -11006,8 +12630,17 @@
       <c r="DD124">
         <v>45</v>
       </c>
-    </row>
-    <row r="125" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT124">
+        <v>72</v>
+      </c>
+      <c r="EB124">
+        <v>81</v>
+      </c>
+      <c r="EF124">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR125">
         <v>73</v>
       </c>
@@ -11050,11 +12683,23 @@
       <c r="DE125">
         <v>7</v>
       </c>
-      <c r="DM125">
+      <c r="DT125">
+        <v>84</v>
+      </c>
+      <c r="DU125">
+        <v>61</v>
+      </c>
+      <c r="EB125">
+        <v>75</v>
+      </c>
+      <c r="EF125">
+        <v>49</v>
+      </c>
+      <c r="EG125">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="65:121" x14ac:dyDescent="0.3">
+    <row r="126" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR126">
         <v>72</v>
       </c>
@@ -11079,8 +12724,17 @@
       <c r="DD126">
         <v>33</v>
       </c>
-    </row>
-    <row r="127" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT126">
+        <v>77</v>
+      </c>
+      <c r="EB126">
+        <v>58</v>
+      </c>
+      <c r="EF126">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR127">
         <v>70</v>
       </c>
@@ -11108,8 +12762,20 @@
       <c r="DD127">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="65:121" x14ac:dyDescent="0.3">
+      <c r="DT127">
+        <v>90</v>
+      </c>
+      <c r="DU127">
+        <v>30</v>
+      </c>
+      <c r="EB127">
+        <v>67</v>
+      </c>
+      <c r="EF127">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="65:137" x14ac:dyDescent="0.25">
       <c r="BR128">
         <v>81</v>
       </c>
@@ -11134,8 +12800,17 @@
       <c r="DD128">
         <v>11</v>
       </c>
-    </row>
-    <row r="129" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT128">
+        <v>84</v>
+      </c>
+      <c r="EB128">
+        <v>79</v>
+      </c>
+      <c r="EF128">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR129">
         <v>88</v>
       </c>
@@ -11175,8 +12850,17 @@
       <c r="DD129">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT129">
+        <v>79</v>
+      </c>
+      <c r="EB129">
+        <v>90</v>
+      </c>
+      <c r="EF129">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR130">
         <v>83</v>
       </c>
@@ -11207,11 +12891,20 @@
       <c r="DE130">
         <v>7</v>
       </c>
-      <c r="DM130">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT130">
+        <v>74</v>
+      </c>
+      <c r="DU130">
+        <v>23</v>
+      </c>
+      <c r="EB130">
+        <v>80</v>
+      </c>
+      <c r="EF130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR131">
         <v>79</v>
       </c>
@@ -11230,8 +12923,20 @@
       <c r="CZ131">
         <v>19</v>
       </c>
-    </row>
-    <row r="132" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT131">
+        <v>68</v>
+      </c>
+      <c r="EB131">
+        <v>72</v>
+      </c>
+      <c r="EC131">
+        <v>21</v>
+      </c>
+      <c r="EF131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR132">
         <v>85</v>
       </c>
@@ -11250,8 +12955,20 @@
       <c r="DA132">
         <v>30</v>
       </c>
-    </row>
-    <row r="133" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT132">
+        <v>58</v>
+      </c>
+      <c r="EB132">
+        <v>66</v>
+      </c>
+      <c r="EF132">
+        <v>21</v>
+      </c>
+      <c r="EG132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR133">
         <v>82</v>
       </c>
@@ -11270,8 +12987,20 @@
       <c r="CZ133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT133">
+        <v>47</v>
+      </c>
+      <c r="DU133">
+        <v>21</v>
+      </c>
+      <c r="EB133">
+        <v>62</v>
+      </c>
+      <c r="EF133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR134">
         <v>88</v>
       </c>
@@ -11290,8 +13019,17 @@
       <c r="CZ134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT134">
+        <v>40</v>
+      </c>
+      <c r="EB134">
+        <v>34</v>
+      </c>
+      <c r="EF134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR135">
         <v>86</v>
       </c>
@@ -11307,8 +13045,23 @@
       <c r="CZ135">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT135">
+        <v>35</v>
+      </c>
+      <c r="EB135">
+        <v>13</v>
+      </c>
+      <c r="EE135" s="2">
+        <v>45457.34097222222</v>
+      </c>
+      <c r="EF135">
+        <v>0</v>
+      </c>
+      <c r="EG135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR136">
         <v>80</v>
       </c>
@@ -11324,8 +13077,14 @@
       <c r="CZ136">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT136">
+        <v>37</v>
+      </c>
+      <c r="EB136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR137">
         <v>79</v>
       </c>
@@ -11344,8 +13103,17 @@
       <c r="CZ137">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT137">
+        <v>23</v>
+      </c>
+      <c r="DU137">
+        <v>35</v>
+      </c>
+      <c r="EB137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR138">
         <v>83</v>
       </c>
@@ -11364,8 +13132,14 @@
       <c r="CZ138">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT138">
+        <v>15</v>
+      </c>
+      <c r="EB138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR139">
         <v>79</v>
       </c>
@@ -11381,8 +13155,17 @@
       <c r="CZ139">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT139">
+        <v>21</v>
+      </c>
+      <c r="EB139">
+        <v>15</v>
+      </c>
+      <c r="EC139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR140">
         <v>75</v>
       </c>
@@ -11398,8 +13181,14 @@
       <c r="CZ140">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT140">
+        <v>33</v>
+      </c>
+      <c r="EB140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR141">
         <v>63</v>
       </c>
@@ -11424,8 +13213,17 @@
       <c r="CZ141">
         <v>10</v>
       </c>
-    </row>
-    <row r="142" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT141">
+        <v>44</v>
+      </c>
+      <c r="DU141">
+        <v>69</v>
+      </c>
+      <c r="EB141">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR142">
         <v>45</v>
       </c>
@@ -11441,8 +13239,14 @@
       <c r="CZ142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT142">
+        <v>45</v>
+      </c>
+      <c r="EB142">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR143">
         <v>24</v>
       </c>
@@ -11464,8 +13268,14 @@
       <c r="DA143">
         <v>33</v>
       </c>
-    </row>
-    <row r="144" spans="70:117" x14ac:dyDescent="0.3">
+      <c r="DT143">
+        <v>37</v>
+      </c>
+      <c r="EB143">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="70:137" x14ac:dyDescent="0.25">
       <c r="BR144">
         <v>4</v>
       </c>
@@ -11478,8 +13288,17 @@
       <c r="CV144">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DT144">
+        <v>34</v>
+      </c>
+      <c r="DU144">
+        <v>87</v>
+      </c>
+      <c r="EB144">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR145">
         <v>2</v>
       </c>
@@ -11495,8 +13314,17 @@
       <c r="CV145">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DT145">
+        <v>29</v>
+      </c>
+      <c r="EB145">
+        <v>23</v>
+      </c>
+      <c r="EC145">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR146">
         <v>19</v>
       </c>
@@ -11512,8 +13340,14 @@
       <c r="CV146">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DT146">
+        <v>15</v>
+      </c>
+      <c r="EB146">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR147">
         <v>28</v>
       </c>
@@ -11526,8 +13360,17 @@
       <c r="CV147">
         <v>32</v>
       </c>
-    </row>
-    <row r="148" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DT147">
+        <v>10</v>
+      </c>
+      <c r="DU147">
+        <v>106</v>
+      </c>
+      <c r="EB147">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR148">
         <v>31</v>
       </c>
@@ -11546,8 +13389,14 @@
       <c r="CW148">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DT148">
+        <v>4</v>
+      </c>
+      <c r="EB148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR149">
         <v>20</v>
       </c>
@@ -11560,8 +13409,20 @@
       <c r="CV149">
         <v>33</v>
       </c>
-    </row>
-    <row r="150" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="DS149" s="2">
+        <v>45444.428472222222</v>
+      </c>
+      <c r="DT149">
+        <v>0</v>
+      </c>
+      <c r="DU149">
+        <v>106</v>
+      </c>
+      <c r="EB149">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR150">
         <v>11</v>
       </c>
@@ -11574,8 +13435,11 @@
       <c r="CV150">
         <v>28</v>
       </c>
-    </row>
-    <row r="151" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB150">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR151">
         <v>13</v>
       </c>
@@ -11591,8 +13455,11 @@
       <c r="CV151">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB151">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR152">
         <v>8</v>
       </c>
@@ -11605,8 +13472,11 @@
       <c r="CV152">
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB152">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR153">
         <v>15</v>
       </c>
@@ -11619,8 +13489,14 @@
       <c r="CV153">
         <v>36</v>
       </c>
-    </row>
-    <row r="154" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB153">
+        <v>25</v>
+      </c>
+      <c r="EC153">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR154">
         <v>15</v>
       </c>
@@ -11639,8 +13515,11 @@
       <c r="CV154">
         <v>28</v>
       </c>
-    </row>
-    <row r="155" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB154">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR155">
         <v>10</v>
       </c>
@@ -11653,8 +13532,11 @@
       <c r="CV155">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB155">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BR156">
         <v>4</v>
       </c>
@@ -11673,8 +13555,11 @@
       <c r="CV156">
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BQ157" s="2">
         <v>45416.513888888891</v>
       </c>
@@ -11696,13 +13581,19 @@
       <c r="CW157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BW158">
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="69:101" x14ac:dyDescent="0.3">
+      <c r="EB158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="69:133" x14ac:dyDescent="0.25">
       <c r="BV159" s="2">
         <v>45416.61041666667</v>
       </c>
@@ -11710,6 +13601,30 @@
         <v>0</v>
       </c>
       <c r="BX159">
+        <v>33</v>
+      </c>
+      <c r="EB159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="69:133" x14ac:dyDescent="0.25">
+      <c r="EB160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="131:133" x14ac:dyDescent="0.25">
+      <c r="EB161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="131:133" x14ac:dyDescent="0.25">
+      <c r="EA162" s="2">
+        <v>45445.603472222225</v>
+      </c>
+      <c r="EB162">
+        <v>0</v>
+      </c>
+      <c r="EC162">
         <v>33</v>
       </c>
     </row>
@@ -11727,12 +13642,12 @@
       <selection activeCell="D150" activeCellId="1" sqref="C104:C149 D150:E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11743,7 +13658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45387.750694444447</v>
       </c>
@@ -11757,27 +13672,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>20.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7.31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>7.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14.8</v>
       </c>
@@ -11785,27 +13700,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>25.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>42.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>42.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>25.9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>23.47</v>
       </c>
@@ -11813,32 +13728,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>35.35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>35.82</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>30.38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>41.18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>25.8</v>
       </c>
@@ -11846,27 +13761,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>28.86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>31.21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>3.78</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>18.2</v>
       </c>
@@ -11874,27 +13789,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>12.85</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>27.55</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>18.47</v>
       </c>
@@ -11902,22 +13817,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>14.96</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>30.42</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>20.48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>4.25</v>
       </c>
@@ -11925,22 +13840,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>5.29</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10.27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>13.45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>22.25</v>
       </c>
@@ -11948,17 +13863,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>23.45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>21.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>7</v>
       </c>
@@ -11966,17 +13881,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>9.48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>10.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3.74</v>
       </c>
@@ -11984,12 +13899,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45387.762499999997</v>
       </c>
@@ -12000,7 +13915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45387.782638888886</v>
       </c>
@@ -12014,19 +13929,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46">
         <v>6.98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48">
         <v>10.48</v>
@@ -12035,25 +13950,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49">
         <v>17.82</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50">
         <v>11.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51">
         <v>12.82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52">
         <v>20.95</v>
@@ -12062,19 +13977,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54">
         <v>4.93</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55">
         <v>8.7799999999999994</v>
@@ -12083,19 +13998,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56">
         <v>17.88</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57">
         <v>23.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58">
         <v>14.29</v>
@@ -12104,25 +14019,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59">
         <v>23.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61">
         <v>21.67</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62">
         <v>6</v>
@@ -12131,19 +14046,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63">
         <v>7.42</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64">
         <v>19.690000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65">
         <v>32.36</v>
@@ -12152,19 +14067,19 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66">
         <v>10.33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67">
         <v>1.66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68">
         <v>20.16</v>
@@ -12173,19 +14088,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69">
         <v>37.65</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70">
         <v>32.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71">
         <v>31.28</v>
@@ -12194,25 +14109,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72">
         <v>28.66</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73">
         <v>26.14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74">
         <v>27.18</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75">
         <v>19</v>
@@ -12221,25 +14136,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76">
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77">
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78">
         <v>13.35</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79">
         <v>0</v>
@@ -12248,37 +14163,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81">
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82">
         <v>25.63</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83">
         <v>14.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84">
         <v>5.3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85">
         <v>3</v>
@@ -12287,25 +14202,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86">
         <v>5.58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87">
         <v>5.95</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88">
         <v>16.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89">
         <v>18.8</v>
@@ -12314,31 +14229,31 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90">
         <v>21.92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91">
         <v>23.51</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92">
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93">
         <v>3.13</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94">
         <v>7.96</v>
@@ -12347,31 +14262,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95">
         <v>14.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96">
         <v>22.21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97">
         <v>18.45</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98">
         <v>11.63</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99">
         <v>8.86</v>
@@ -12380,25 +14295,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100">
         <v>5.48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101">
         <v>3.48</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102">
         <v>1.66</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45387.791666666664</v>
       </c>
@@ -12409,7 +14324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45388.387499999997</v>
       </c>
@@ -12423,27 +14338,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2.92</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>20.41</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>27.29</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>24.39</v>
       </c>
@@ -12451,12 +14366,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>32.22</v>
       </c>
@@ -12464,12 +14379,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>40.32</v>
       </c>
@@ -12477,12 +14392,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>88.45</v>
       </c>
@@ -12490,12 +14405,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>91.08</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>100.75</v>
       </c>
@@ -12503,17 +14418,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>101.53</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>82.8</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>102.91</v>
       </c>
@@ -12521,17 +14436,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>104.68</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>106.42</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>108.22</v>
       </c>
@@ -12539,12 +14454,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>93.76</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>108.48</v>
       </c>
@@ -12552,12 +14467,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>69.3</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>112.01</v>
       </c>
@@ -12565,12 +14480,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>95.2</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>48.35</v>
       </c>
@@ -12578,12 +14493,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>6.19</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>0</v>
       </c>
@@ -12591,17 +14506,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>3.06</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>31.65</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>23.53</v>
       </c>
@@ -12609,17 +14524,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>15.77</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>22.39</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>54.23</v>
       </c>
@@ -12627,17 +14542,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>89.8</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>93.95</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>78.319999999999993</v>
       </c>
@@ -12645,17 +14560,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>77.47</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>50.91</v>
       </c>
@@ -12663,17 +14578,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>24.35</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>20</v>
       </c>
@@ -12681,17 +14596,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45388.418055555558</v>
       </c>
@@ -12702,7 +14617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45388.427083333336</v>
       </c>
@@ -12716,17 +14631,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>9.32</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>9.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>16.28</v>
       </c>
@@ -12734,17 +14649,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>48.78</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>81</v>
       </c>
@@ -12752,17 +14667,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>69</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>82</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>103.51</v>
       </c>
@@ -12770,17 +14685,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>92.5</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>87.92</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>65.88</v>
       </c>
@@ -12788,17 +14703,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>43.84</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>35.4</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>32</v>
       </c>
@@ -12806,17 +14721,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>35</v>
       </c>
@@ -12824,12 +14739,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>37.35</v>
       </c>
@@ -12837,12 +14752,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>70.19</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>104.87</v>
       </c>
@@ -12850,12 +14765,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>110.56</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>112.69</v>
       </c>
@@ -12863,12 +14778,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>112.6</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>88.32</v>
       </c>
@@ -12876,17 +14791,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>95.29</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>98</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>66.155000000000001</v>
       </c>
@@ -12894,17 +14809,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>34.35</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>72.72</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>96.325500000000005</v>
       </c>
@@ -12912,12 +14827,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>119.91</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>125.93</v>
       </c>
@@ -12925,12 +14840,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>116.95</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>110.53</v>
       </c>
@@ -12938,17 +14853,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>104.7</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>102.6</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>89.31</v>
       </c>
@@ -12956,22 +14871,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>96.93</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>70.84</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>72.94</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>78.2</v>
       </c>
@@ -12979,22 +14894,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>66.349999999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>75.650000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>76.38</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>68.650000000000006</v>
       </c>
@@ -13002,12 +14917,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>38.65</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>9.25</v>
       </c>
@@ -13015,27 +14930,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>37</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>30.852</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>17.667999999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>4.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>45388.477083333331</v>
       </c>
@@ -13059,9 +14974,9 @@
       <selection sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>105</v>
       </c>
@@ -13069,17 +14984,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>106</v>
       </c>
@@ -13087,17 +15002,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>87</v>
       </c>
@@ -13105,17 +15020,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>69</v>
       </c>
@@ -13123,17 +15038,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -13141,17 +15056,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -13159,17 +15074,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -13177,12 +15092,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61</v>
       </c>
@@ -13190,12 +15105,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>91</v>
       </c>
@@ -13203,12 +15118,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>125</v>
       </c>
@@ -13216,12 +15131,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>70</v>
       </c>
@@ -13229,17 +15144,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -13247,17 +15162,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -13265,12 +15180,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -13278,12 +15193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -13291,12 +15206,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
@@ -13304,12 +15219,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>27</v>
       </c>
@@ -13317,27 +15232,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>33</v>
       </c>
